--- a/tests/regression_data_windows/performance_analysis_evaluate_cascade_isentropic_throat_windows.xlsx
+++ b/tests/regression_data_windows/performance_analysis_evaluate_cascade_isentropic_throat_windows.xlsx
@@ -689,40 +689,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.014607956835915</v>
+        <v>2.014607956837605</v>
       </c>
       <c r="C2" t="n">
-        <v>2.299999999965042</v>
+        <v>2.299999999965688</v>
       </c>
       <c r="D2" t="n">
-        <v>2.790805431831895</v>
+        <v>2.790805431821088</v>
       </c>
       <c r="E2" t="n">
-        <v>92.46445086946986</v>
+        <v>92.46445086732538</v>
       </c>
       <c r="F2" t="n">
-        <v>78.96241544059697</v>
+        <v>78.962415438758</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1460240698117964</v>
+        <v>0.1460240698118792</v>
       </c>
       <c r="H2" t="n">
-        <v>-78.10843951040877</v>
+        <v>-78.10843950856987</v>
       </c>
       <c r="I2" t="n">
-        <v>138477.4854427296</v>
+        <v>138477.4854389683</v>
       </c>
       <c r="J2" t="n">
-        <v>85.11216069006124</v>
+        <v>85.11216068774945</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-22.10880530628152</v>
+        <v>-22.108805306144</v>
       </c>
       <c r="M2" t="n">
-        <v>135.4695893152213</v>
+        <v>135.4695893152596</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -737,13 +737,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R2" t="n">
-        <v>372165.2480874185</v>
+        <v>372165.2480885741</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7225683790736995</v>
+        <v>0.7225683790723005</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -760,40 +760,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.071046019570479</v>
+        <v>2.071046019568311</v>
       </c>
       <c r="C3" t="n">
-        <v>2.399999999959281</v>
+        <v>2.399999999878117</v>
       </c>
       <c r="D3" t="n">
-        <v>2.801075364017715</v>
+        <v>2.801075364150067</v>
       </c>
       <c r="E3" t="n">
-        <v>92.38751733849345</v>
+        <v>92.38751733575596</v>
       </c>
       <c r="F3" t="n">
-        <v>78.15169257810639</v>
+        <v>78.15169257515588</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1540881838855916</v>
+        <v>0.154088183892463</v>
       </c>
       <c r="H3" t="n">
-        <v>-77.30578076199198</v>
+        <v>-77.30578075904835</v>
       </c>
       <c r="I3" t="n">
-        <v>143745.3889351393</v>
+        <v>143745.3889365044</v>
       </c>
       <c r="J3" t="n">
-        <v>88.34996246781762</v>
+        <v>88.34996246865666</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-23.9728260560818</v>
+        <v>-23.97282605624575</v>
       </c>
       <c r="M3" t="n">
-        <v>142.2541798754744</v>
+        <v>142.2541798786463</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -808,13 +808,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R3" t="n">
-        <v>370466.5012743207</v>
+        <v>370466.5012762581</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7111199635182101</v>
+        <v>0.7111199635350104</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>82.20852515334549</v>
+        <v>82.20852515310803</v>
       </c>
       <c r="D2" t="n">
-        <v>82.20852515334549</v>
+        <v>82.20852515310803</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>82.20852515334549</v>
+        <v>82.20852515310803</v>
       </c>
       <c r="H2" t="n">
-        <v>82.20852515334549</v>
+        <v>82.20852515310803</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3264,97 +3264,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.2307534751931</v>
+        <v>292.2307534753127</v>
       </c>
       <c r="L2" t="n">
-        <v>132579.3702989997</v>
+        <v>132579.3702991902</v>
       </c>
       <c r="M2" t="n">
-        <v>1.581292674679675</v>
+        <v>1.581292674681299</v>
       </c>
       <c r="N2" t="n">
-        <v>334562.9119593804</v>
+        <v>334562.911959466</v>
       </c>
       <c r="O2" t="n">
-        <v>418405.3102844447</v>
+        <v>418405.3102845647</v>
       </c>
       <c r="P2" t="n">
-        <v>3782.917347718243</v>
+        <v>3782.917347718242</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687079.4765736364</v>
+        <v>-687079.4765739685</v>
       </c>
       <c r="R2" t="n">
-        <v>717.7074052423617</v>
+        <v>717.707405242367</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.641275457159</v>
+        <v>1006.641275457165</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402578917403295</v>
+        <v>1.402578917403293</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994971152129473</v>
+        <v>0.9994971152129482</v>
       </c>
       <c r="V2" t="n">
-        <v>342.8367684408868</v>
+        <v>342.8367684409571</v>
       </c>
       <c r="W2" t="n">
-        <v>185860.4758442783</v>
+        <v>185860.4758445453</v>
       </c>
       <c r="X2" t="n">
-        <v>5.380380069820987e-06</v>
+        <v>5.380380069813257e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132513.3819837935</v>
+        <v>132513.3819839841</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.54640765354778e-06</v>
+        <v>7.546407653536929e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003434887590782862</v>
+        <v>0.003434887590781459</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.816545453091457e-05</v>
+        <v>1.816545453092043e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02581513322773483</v>
+        <v>0.02581513322774386</v>
       </c>
       <c r="AD2" t="n">
-        <v>132579.3702989997</v>
+        <v>132579.3702991902</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.581292674679675</v>
+        <v>1.581292674681299</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.581292674679675</v>
+        <v>1.581292674681299</v>
       </c>
       <c r="AG2" t="n">
-        <v>334562.9119593804</v>
+        <v>334562.911959466</v>
       </c>
       <c r="AH2" t="n">
-        <v>418405.3102844447</v>
+        <v>418405.3102845647</v>
       </c>
       <c r="AI2" t="n">
-        <v>3782.917347718243</v>
+        <v>3782.917347718242</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.7074052423617</v>
+        <v>717.707405242367</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.641275457159</v>
+        <v>1006.641275457165</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.8367684408868</v>
+        <v>342.8367684409571</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994971152129473</v>
+        <v>0.9994971152129482</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.816545453091457e-05</v>
+        <v>1.816545453092043e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02581513322773483</v>
+        <v>0.02581513322774386</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -3567,16 +3567,16 @@
         <v>1</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.2397891145900244</v>
+        <v>0.2397891145892827</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.2397891145900244</v>
+        <v>0.2397891145892827</v>
       </c>
       <c r="DH2" t="n">
-        <v>187206.3545970358</v>
+        <v>187206.3545966269</v>
       </c>
       <c r="DI2" t="n">
-        <v>2.790805431851278</v>
+        <v>2.790805431846081</v>
       </c>
       <c r="DJ2" t="n">
         <v>421784.4310884894</v>
@@ -3625,121 +3625,121 @@
         <v>0</v>
       </c>
       <c r="DT2" t="n">
-        <v>274.1650384839326</v>
+        <v>274.1650384778716</v>
       </c>
       <c r="DU2" t="n">
-        <v>114.3396414257398</v>
+        <v>114.3396414258159</v>
       </c>
       <c r="DV2" t="n">
-        <v>249.184499368499</v>
+        <v>249.1844993617955</v>
       </c>
       <c r="DW2" t="n">
-        <v>65.35172290437835</v>
+        <v>65.35172290377963</v>
       </c>
       <c r="DX2" t="n">
-        <v>274.1650384839326</v>
+        <v>274.1650384778716</v>
       </c>
       <c r="DY2" t="n">
-        <v>114.3396414257398</v>
+        <v>114.3396414258159</v>
       </c>
       <c r="DZ2" t="n">
-        <v>249.184499368499</v>
+        <v>249.1844993617955</v>
       </c>
       <c r="EA2" t="n">
-        <v>65.35172290437833</v>
+        <v>65.35172290377963</v>
       </c>
       <c r="EB2" t="n">
-        <v>258.0958630453547</v>
+        <v>258.0958630471094</v>
       </c>
       <c r="EC2" t="n">
-        <v>84173.10359890288</v>
+        <v>84173.10359954658</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.13692624011207</v>
+        <v>1.136926240113014</v>
       </c>
       <c r="EE2" t="n">
-        <v>310165.5201772518</v>
+        <v>310165.5201785091</v>
       </c>
       <c r="EF2" t="n">
-        <v>384201.1969249409</v>
+        <v>384201.196926703</v>
       </c>
       <c r="EG2" t="n">
-        <v>3788.783891563816</v>
+        <v>3788.783891568449</v>
       </c>
       <c r="EH2" t="n">
-        <v>-593668.2514605595</v>
+        <v>-593668.251466642</v>
       </c>
       <c r="EI2" t="n">
-        <v>716.4980321127338</v>
+        <v>716.4980321127749</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1005.154227239273</v>
+        <v>1005.1542272393</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.402870883364997</v>
+        <v>1.402870883364955</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.9993181540916094</v>
+        <v>0.9993181540916278</v>
       </c>
       <c r="EM2" t="n">
-        <v>322.167562574188</v>
+        <v>322.1675625752843</v>
       </c>
       <c r="EN2" t="n">
-        <v>118003.7782506249</v>
+        <v>118003.778251526</v>
       </c>
       <c r="EO2" t="n">
-        <v>8.474304931797425e-06</v>
+        <v>8.474304931732712e-06</v>
       </c>
       <c r="EP2" t="n">
-        <v>84115.92232035998</v>
+        <v>84115.92232100484</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.1888355645575e-05</v>
+        <v>1.188835564548386e-05</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.003888006291888828</v>
+        <v>0.003888006291862229</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.645301935512576e-05</v>
+        <v>1.64530193552158e-05</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.02319180040359387</v>
+        <v>0.02319180040373085</v>
       </c>
       <c r="EU2" t="n">
-        <v>84173.10359890288</v>
+        <v>84173.10359954658</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.13692624011207</v>
+        <v>1.136926240113014</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.13692624011207</v>
+        <v>1.136926240113014</v>
       </c>
       <c r="EX2" t="n">
-        <v>310165.5201772518</v>
+        <v>310165.5201785091</v>
       </c>
       <c r="EY2" t="n">
-        <v>384201.1969249409</v>
+        <v>384201.196926703</v>
       </c>
       <c r="EZ2" t="n">
-        <v>3788.783891563816</v>
+        <v>3788.783891568449</v>
       </c>
       <c r="FA2" t="n">
-        <v>716.4980321127338</v>
+        <v>716.4980321127749</v>
       </c>
       <c r="FB2" t="n">
-        <v>1005.154227239273</v>
+        <v>1005.1542272393</v>
       </c>
       <c r="FC2" t="n">
-        <v>322.167562574188</v>
+        <v>322.1675625752843</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.9993181540916094</v>
+        <v>0.9993181540916278</v>
       </c>
       <c r="FE2" t="n">
-        <v>1.645301935512576e-05</v>
+        <v>1.64530193552158e-05</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.02319180040359387</v>
+        <v>0.02319180040373085</v>
       </c>
       <c r="FG2" t="inlineStr">
         <is>
@@ -3750,97 +3750,97 @@
         <v>1</v>
       </c>
       <c r="FI2" t="n">
-        <v>295.5935241440332</v>
+        <v>295.593524144028</v>
       </c>
       <c r="FJ2" t="n">
-        <v>135206.9501606798</v>
+        <v>135206.950158496</v>
       </c>
       <c r="FK2" t="n">
-        <v>1.594232983784649</v>
+        <v>1.594232983758916</v>
       </c>
       <c r="FL2" t="n">
-        <v>336974.3992198327</v>
+        <v>336974.3992198334</v>
       </c>
       <c r="FM2" t="n">
-        <v>421784.4310883891</v>
+        <v>421784.4310883889</v>
       </c>
       <c r="FN2" t="n">
-        <v>3788.783891568304</v>
+        <v>3788.783891572938</v>
       </c>
       <c r="FO2" t="n">
-        <v>-698155.5516404305</v>
+        <v>-698155.5516417804</v>
       </c>
       <c r="FP2" t="n">
-        <v>717.855961368558</v>
+        <v>717.8559613685525</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1006.775725221366</v>
+        <v>1006.77572522133</v>
       </c>
       <c r="FR2" t="n">
-        <v>1.402475955346246</v>
+        <v>1.402475955346207</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.9995305694123415</v>
+        <v>0.999530569412349</v>
       </c>
       <c r="FT2" t="n">
-        <v>344.8025797536852</v>
+        <v>344.80257975368</v>
       </c>
       <c r="FU2" t="n">
-        <v>189536.4766606498</v>
+        <v>189536.4766575847</v>
       </c>
       <c r="FV2" t="n">
-        <v>5.276029277416724e-06</v>
+        <v>5.276029277502047e-06</v>
       </c>
       <c r="FW2" t="n">
-        <v>135144.1897724776</v>
+        <v>135144.1897702958</v>
       </c>
       <c r="FX2" t="n">
-        <v>7.39950420127978e-06</v>
+        <v>7.399504201399243e-06</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.003395614454317495</v>
+        <v>0.003395614454317354</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1.832923467031194e-05</v>
+        <v>1.832923467031137e-05</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.02606725562222959</v>
+        <v>0.02606725562222851</v>
       </c>
       <c r="GB2" t="n">
-        <v>135206.9501606798</v>
+        <v>135206.950158496</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.594232983784649</v>
+        <v>1.594232983758916</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.594232983784649</v>
+        <v>1.594232983758916</v>
       </c>
       <c r="GE2" t="n">
-        <v>336974.3992198327</v>
+        <v>336974.3992198334</v>
       </c>
       <c r="GF2" t="n">
-        <v>421784.4310883891</v>
+        <v>421784.4310883889</v>
       </c>
       <c r="GG2" t="n">
-        <v>3788.783891568304</v>
+        <v>3788.783891572938</v>
       </c>
       <c r="GH2" t="n">
-        <v>717.855961368558</v>
+        <v>717.8559613685525</v>
       </c>
       <c r="GI2" t="n">
-        <v>1006.775725221366</v>
+        <v>1006.77572522133</v>
       </c>
       <c r="GJ2" t="n">
-        <v>344.8025797536852</v>
+        <v>344.80257975368</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.9995305694123415</v>
+        <v>0.999530569412349</v>
       </c>
       <c r="GL2" t="n">
-        <v>1.832923467031194e-05</v>
+        <v>1.832923467031137e-05</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.02606725562222959</v>
+        <v>0.02606725562222851</v>
       </c>
       <c r="GN2" t="inlineStr">
         <is>
@@ -3851,97 +3851,97 @@
         <v>1</v>
       </c>
       <c r="GP2" t="n">
-        <v>295.5935241440332</v>
+        <v>295.593524144028</v>
       </c>
       <c r="GQ2" t="n">
-        <v>135206.9501606798</v>
+        <v>135206.950158496</v>
       </c>
       <c r="GR2" t="n">
-        <v>1.594232983784649</v>
+        <v>1.594232983758916</v>
       </c>
       <c r="GS2" t="n">
-        <v>336974.3992198327</v>
+        <v>336974.3992198334</v>
       </c>
       <c r="GT2" t="n">
-        <v>421784.4310883891</v>
+        <v>421784.4310883889</v>
       </c>
       <c r="GU2" t="n">
-        <v>3788.783891568304</v>
+        <v>3788.783891572938</v>
       </c>
       <c r="GV2" t="n">
-        <v>-698155.5516404305</v>
+        <v>-698155.5516417804</v>
       </c>
       <c r="GW2" t="n">
-        <v>717.855961368558</v>
+        <v>717.8559613685525</v>
       </c>
       <c r="GX2" t="n">
-        <v>1006.775725221366</v>
+        <v>1006.77572522133</v>
       </c>
       <c r="GY2" t="n">
-        <v>1.402475955346246</v>
+        <v>1.402475955346207</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.9995305694123415</v>
+        <v>0.999530569412349</v>
       </c>
       <c r="HA2" t="n">
-        <v>344.8025797536852</v>
+        <v>344.80257975368</v>
       </c>
       <c r="HB2" t="n">
-        <v>189536.4766606498</v>
+        <v>189536.4766575847</v>
       </c>
       <c r="HC2" t="n">
-        <v>5.276029277416724e-06</v>
+        <v>5.276029277502047e-06</v>
       </c>
       <c r="HD2" t="n">
-        <v>135144.1897724776</v>
+        <v>135144.1897702958</v>
       </c>
       <c r="HE2" t="n">
-        <v>7.39950420127978e-06</v>
+        <v>7.399504201399243e-06</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.003395614454317495</v>
+        <v>0.003395614454317354</v>
       </c>
       <c r="HG2" t="n">
-        <v>1.832923467031194e-05</v>
+        <v>1.832923467031137e-05</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.02606725562222959</v>
+        <v>0.02606725562222851</v>
       </c>
       <c r="HI2" t="n">
-        <v>135206.9501606798</v>
+        <v>135206.950158496</v>
       </c>
       <c r="HJ2" t="n">
-        <v>1.594232983784649</v>
+        <v>1.594232983758916</v>
       </c>
       <c r="HK2" t="n">
-        <v>1.594232983784649</v>
+        <v>1.594232983758916</v>
       </c>
       <c r="HL2" t="n">
-        <v>336974.3992198327</v>
+        <v>336974.3992198334</v>
       </c>
       <c r="HM2" t="n">
-        <v>421784.4310883891</v>
+        <v>421784.4310883889</v>
       </c>
       <c r="HN2" t="n">
-        <v>3788.783891568304</v>
+        <v>3788.783891572938</v>
       </c>
       <c r="HO2" t="n">
-        <v>717.855961368558</v>
+        <v>717.8559613685525</v>
       </c>
       <c r="HP2" t="n">
-        <v>1006.775725221366</v>
+        <v>1006.77572522133</v>
       </c>
       <c r="HQ2" t="n">
-        <v>344.8025797536852</v>
+        <v>344.80257975368</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.9995305694123415</v>
+        <v>0.999530569412349</v>
       </c>
       <c r="HS2" t="n">
-        <v>1.832923467031194e-05</v>
+        <v>1.832923467031137e-05</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.02606725562222959</v>
+        <v>0.02606725562222851</v>
       </c>
       <c r="HU2" t="inlineStr">
         <is>
@@ -3952,40 +3952,40 @@
         <v>1</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.8510013742330081</v>
+        <v>0.8510013742112991</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.8510013742330081</v>
+        <v>0.8510013742112991</v>
       </c>
       <c r="HY2" t="n">
-        <v>495605.9297040894</v>
+        <v>495605.9296908323</v>
       </c>
       <c r="HZ2" t="n">
-        <v>2.790805431866813</v>
+        <v>2.790805431870989</v>
       </c>
       <c r="IA2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IB2" t="n">
-        <v>0.01561897651784344</v>
+        <v>0.01561897651732149</v>
       </c>
       <c r="IC2" t="n">
-        <v>-1.808493700585868e-07</v>
+        <v>-1.808493700650828e-07</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.01378013287985714</v>
+        <v>0.01378013287983814</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.02533043296311476</v>
+        <v>0.02533043296337538</v>
       </c>
       <c r="IF2" t="n">
         <v>0</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.05472936151144529</v>
+        <v>0.05472936151116495</v>
       </c>
       <c r="IH2" t="n">
-        <v>-1.522120623986822e-11</v>
+        <v>-1.837905522217298e-11</v>
       </c>
       <c r="II2" t="n">
         <v>0</v>
@@ -3994,121 +3994,121 @@
         <v>165.3032</v>
       </c>
       <c r="IK2" t="n">
-        <v>274.1650384839326</v>
+        <v>274.1650384778716</v>
       </c>
       <c r="IL2" t="n">
-        <v>114.3396414257398</v>
+        <v>114.3396414258159</v>
       </c>
       <c r="IM2" t="n">
-        <v>249.184499368499</v>
+        <v>249.1844993617955</v>
       </c>
       <c r="IN2" t="n">
-        <v>65.35172290437835</v>
+        <v>65.35172290377963</v>
       </c>
       <c r="IO2" t="n">
-        <v>141.8084129560532</v>
+        <v>141.8084129521494</v>
       </c>
       <c r="IP2" t="n">
-        <v>114.3396414257398</v>
+        <v>114.3396414258159</v>
       </c>
       <c r="IQ2" t="n">
-        <v>83.88129936849904</v>
+        <v>83.8812993617955</v>
       </c>
       <c r="IR2" t="n">
-        <v>36.26433849275123</v>
+        <v>36.2643384905492</v>
       </c>
       <c r="IS2" t="n">
-        <v>258.095863045454</v>
+        <v>258.0958630469087</v>
       </c>
       <c r="IT2" t="n">
-        <v>84173.10359880676</v>
+        <v>84173.10359918969</v>
       </c>
       <c r="IU2" t="n">
-        <v>1.136926240110333</v>
+        <v>1.136926240109078</v>
       </c>
       <c r="IV2" t="n">
-        <v>310165.5201773233</v>
+        <v>310165.520178366</v>
       </c>
       <c r="IW2" t="n">
-        <v>384201.1969250411</v>
+        <v>384201.1969265023</v>
       </c>
       <c r="IX2" t="n">
-        <v>3788.78389156453</v>
+        <v>3788.783891568889</v>
       </c>
       <c r="IY2" t="n">
-        <v>-593668.2514610202</v>
+        <v>-593668.2514661954</v>
       </c>
       <c r="IZ2" t="n">
-        <v>716.4980321127358</v>
+        <v>716.4980321127695</v>
       </c>
       <c r="JA2" t="n">
-        <v>1005.154227239272</v>
+        <v>1005.154227239291</v>
       </c>
       <c r="JB2" t="n">
-        <v>1.402870883364992</v>
+        <v>1.402870883364952</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.9993181540916115</v>
+        <v>0.9993181540916281</v>
       </c>
       <c r="JD2" t="n">
-        <v>322.16756257425</v>
+        <v>322.1675625751588</v>
       </c>
       <c r="JE2" t="n">
-        <v>118003.7782504899</v>
+        <v>118003.7782510255</v>
       </c>
       <c r="JF2" t="n">
-        <v>8.474304931807115e-06</v>
+        <v>8.474304931768657e-06</v>
       </c>
       <c r="JG2" t="n">
-        <v>84115.92232026413</v>
+        <v>84115.92232064818</v>
       </c>
       <c r="JH2" t="n">
-        <v>1.188835564558855e-05</v>
+        <v>1.188835564553427e-05</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.003888006291887301</v>
+        <v>0.003888006291865226</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1.645301935513083e-05</v>
+        <v>1.645301935520545e-05</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.02319180040360157</v>
+        <v>0.02319180040371507</v>
       </c>
       <c r="JL2" t="n">
-        <v>84173.10359880676</v>
+        <v>84173.10359918969</v>
       </c>
       <c r="JM2" t="n">
-        <v>1.136926240110333</v>
+        <v>1.136926240109078</v>
       </c>
       <c r="JN2" t="n">
-        <v>1.136926240110333</v>
+        <v>1.136926240109078</v>
       </c>
       <c r="JO2" t="n">
-        <v>310165.5201773233</v>
+        <v>310165.520178366</v>
       </c>
       <c r="JP2" t="n">
-        <v>384201.1969250411</v>
+        <v>384201.1969265023</v>
       </c>
       <c r="JQ2" t="n">
-        <v>3788.78389156453</v>
+        <v>3788.783891568889</v>
       </c>
       <c r="JR2" t="n">
-        <v>716.4980321127358</v>
+        <v>716.4980321127695</v>
       </c>
       <c r="JS2" t="n">
-        <v>1005.154227239272</v>
+        <v>1005.154227239291</v>
       </c>
       <c r="JT2" t="n">
-        <v>322.16756257425</v>
+        <v>322.1675625751588</v>
       </c>
       <c r="JU2" t="n">
-        <v>0.9993181540916115</v>
+        <v>0.9993181540916281</v>
       </c>
       <c r="JV2" t="n">
-        <v>1.645301935513083e-05</v>
+        <v>1.645301935520545e-05</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.02319180040360157</v>
+        <v>0.02319180040371507</v>
       </c>
       <c r="JX2" t="inlineStr">
         <is>
@@ -4119,97 +4119,97 @@
         <v>1</v>
       </c>
       <c r="JZ2" t="n">
-        <v>295.5935241439324</v>
+        <v>295.5935241439275</v>
       </c>
       <c r="KA2" t="n">
-        <v>135206.950160182</v>
+        <v>135206.9501581291</v>
       </c>
       <c r="KB2" t="n">
-        <v>1.594232983779323</v>
+        <v>1.594232983755132</v>
       </c>
       <c r="KC2" t="n">
-        <v>336974.3992197612</v>
+        <v>336974.3992197619</v>
       </c>
       <c r="KD2" t="n">
-        <v>421784.4310882887</v>
+        <v>421784.4310882885</v>
       </c>
       <c r="KE2" t="n">
-        <v>3788.783891569019</v>
+        <v>3788.783891573376</v>
       </c>
       <c r="KF2" t="n">
-        <v>-698155.5516403607</v>
+        <v>-698155.5516416298</v>
       </c>
       <c r="KG2" t="n">
-        <v>717.8559613685526</v>
+        <v>717.8559613685474</v>
       </c>
       <c r="KH2" t="n">
-        <v>1006.775725221355</v>
+        <v>1006.775725221321</v>
       </c>
       <c r="KI2" t="n">
-        <v>1.402475955346241</v>
+        <v>1.402475955346204</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.999530569412342</v>
+        <v>0.999530569412349</v>
       </c>
       <c r="KK2" t="n">
-        <v>344.802579753626</v>
+        <v>344.8025797536211</v>
       </c>
       <c r="KL2" t="n">
-        <v>189536.4766599515</v>
+        <v>189536.47665707</v>
       </c>
       <c r="KM2" t="n">
-        <v>5.276029277436163e-06</v>
+        <v>5.276029277516373e-06</v>
       </c>
       <c r="KN2" t="n">
-        <v>135144.1897719801</v>
+        <v>135144.189769929</v>
       </c>
       <c r="KO2" t="n">
-        <v>7.399504201307019e-06</v>
+        <v>7.399504201419322e-06</v>
       </c>
       <c r="KP2" t="n">
-        <v>0.00339561445431862</v>
+        <v>0.003395614454318488</v>
       </c>
       <c r="KQ2" t="n">
-        <v>1.832923467030698e-05</v>
+        <v>1.832923467030645e-05</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.02606725562222191</v>
+        <v>0.02606725562222089</v>
       </c>
       <c r="KS2" t="n">
-        <v>135206.950160182</v>
+        <v>135206.9501581291</v>
       </c>
       <c r="KT2" t="n">
-        <v>1.594232983779323</v>
+        <v>1.594232983755132</v>
       </c>
       <c r="KU2" t="n">
-        <v>1.594232983779323</v>
+        <v>1.594232983755132</v>
       </c>
       <c r="KV2" t="n">
-        <v>336974.3992197612</v>
+        <v>336974.3992197619</v>
       </c>
       <c r="KW2" t="n">
-        <v>421784.4310882887</v>
+        <v>421784.4310882885</v>
       </c>
       <c r="KX2" t="n">
-        <v>3788.783891569019</v>
+        <v>3788.783891573376</v>
       </c>
       <c r="KY2" t="n">
-        <v>717.8559613685526</v>
+        <v>717.8559613685474</v>
       </c>
       <c r="KZ2" t="n">
-        <v>1006.775725221355</v>
+        <v>1006.775725221321</v>
       </c>
       <c r="LA2" t="n">
-        <v>344.802579753626</v>
+        <v>344.8025797536211</v>
       </c>
       <c r="LB2" t="n">
-        <v>0.999530569412342</v>
+        <v>0.999530569412349</v>
       </c>
       <c r="LC2" t="n">
-        <v>1.832923467030698e-05</v>
+        <v>1.832923467030645e-05</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.02606725562222191</v>
+        <v>0.02606725562222089</v>
       </c>
       <c r="LE2" t="inlineStr">
         <is>
@@ -4220,97 +4220,97 @@
         <v>1</v>
       </c>
       <c r="LG2" t="n">
-        <v>268.132547843293</v>
+        <v>268.1325478441947</v>
       </c>
       <c r="LH2" t="n">
-        <v>96169.14342792062</v>
+        <v>96169.1434275951</v>
       </c>
       <c r="LI2" t="n">
-        <v>1.250276210441363</v>
+        <v>1.250276210432908</v>
       </c>
       <c r="LJ2" t="n">
-        <v>317337.6916893631</v>
+        <v>317337.691690011</v>
       </c>
       <c r="LK2" t="n">
-        <v>394256.0099175983</v>
+        <v>394256.009918506</v>
       </c>
       <c r="LL2" t="n">
-        <v>3788.78389157048</v>
+        <v>3788.783891574836</v>
       </c>
       <c r="LM2" t="n">
-        <v>-621640.268156821</v>
+        <v>-621640.2681604981</v>
       </c>
       <c r="LN2" t="n">
-        <v>716.785370299458</v>
+        <v>716.7853702994814</v>
       </c>
       <c r="LO2" t="n">
-        <v>1005.511312851218</v>
+        <v>1005.511312851222</v>
       </c>
       <c r="LP2" t="n">
-        <v>1.402806690140922</v>
+        <v>1.402806690140882</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.9993647230925811</v>
+        <v>0.9993647230925952</v>
       </c>
       <c r="LR2" t="n">
-        <v>328.3798436111246</v>
+        <v>328.3798436116767</v>
       </c>
       <c r="LS2" t="n">
-        <v>134821.4368019609</v>
+        <v>134821.4368015026</v>
       </c>
       <c r="LT2" t="n">
-        <v>7.417218090242572e-06</v>
+        <v>7.417218090267785e-06</v>
       </c>
       <c r="LU2" t="n">
-        <v>96108.35031619157</v>
+        <v>96108.35031586762</v>
       </c>
       <c r="LV2" t="n">
-        <v>1.040492315922655e-05</v>
+        <v>1.040492315926162e-05</v>
       </c>
       <c r="LW2" t="n">
-        <v>0.003742747758413593</v>
+        <v>0.003742747758400829</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.696534104367001e-05</v>
+        <v>1.696534104371547e-05</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.02397353035653207</v>
+        <v>0.02397353035660138</v>
       </c>
       <c r="LZ2" t="n">
-        <v>96169.14342792062</v>
+        <v>96169.1434275951</v>
       </c>
       <c r="MA2" t="n">
-        <v>1.250276210441363</v>
+        <v>1.250276210432908</v>
       </c>
       <c r="MB2" t="n">
-        <v>1.250276210441363</v>
+        <v>1.250276210432908</v>
       </c>
       <c r="MC2" t="n">
-        <v>317337.6916893631</v>
+        <v>317337.691690011</v>
       </c>
       <c r="MD2" t="n">
-        <v>394256.0099175983</v>
+        <v>394256.009918506</v>
       </c>
       <c r="ME2" t="n">
-        <v>3788.78389157048</v>
+        <v>3788.783891574836</v>
       </c>
       <c r="MF2" t="n">
-        <v>716.785370299458</v>
+        <v>716.7853702994814</v>
       </c>
       <c r="MG2" t="n">
-        <v>1005.511312851218</v>
+        <v>1005.511312851222</v>
       </c>
       <c r="MH2" t="n">
-        <v>328.3798436111246</v>
+        <v>328.3798436116767</v>
       </c>
       <c r="MI2" t="n">
-        <v>0.9993647230925811</v>
+        <v>0.9993647230925952</v>
       </c>
       <c r="MJ2" t="n">
-        <v>1.696534104367001e-05</v>
+        <v>1.696534104371547e-05</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.02397353035653207</v>
+        <v>0.02397353035660138</v>
       </c>
       <c r="ML2" t="inlineStr">
         <is>
@@ -4321,139 +4321,139 @@
         <v>1</v>
       </c>
       <c r="MN2" t="n">
-        <v>0.8510013742328444</v>
+        <v>0.8510013742116306</v>
       </c>
       <c r="MO2" t="n">
-        <v>0.4401697421768543</v>
+        <v>0.4401697421634952</v>
       </c>
       <c r="MP2" t="n">
-        <v>255366.0092028556</v>
+        <v>255366.0091943856</v>
       </c>
       <c r="MQ2" t="n">
-        <v>2.790805431862548</v>
+        <v>2.790805431861326</v>
       </c>
       <c r="MR2" t="n">
-        <v>380593.4359523781</v>
+        <v>380593.4359534862</v>
       </c>
       <c r="MS2" t="n">
         <v>165.3032</v>
       </c>
       <c r="MT2" t="n">
-        <v>135.4695893152213</v>
+        <v>135.4695893152596</v>
       </c>
       <c r="MU2" t="n">
-        <v>125.5086189496349</v>
+        <v>125.5086189497928</v>
       </c>
       <c r="MV2" t="n">
-        <v>-50.98623538358225</v>
+        <v>-50.98623538329545</v>
       </c>
       <c r="MW2" t="n">
-        <v>-22.10880530628152</v>
+        <v>-22.108805306144</v>
       </c>
       <c r="MX2" t="n">
-        <v>250.0670575849475</v>
+        <v>250.0670575847787</v>
       </c>
       <c r="MY2" t="n">
-        <v>125.5086189496349</v>
+        <v>125.5086189497928</v>
       </c>
       <c r="MZ2" t="n">
-        <v>-216.2894353835823</v>
+        <v>-216.2894353832955</v>
       </c>
       <c r="NA2" t="n">
-        <v>-59.87422706606311</v>
+        <v>-59.87422706599884</v>
       </c>
       <c r="NB2" t="n">
-        <v>236.905773423246</v>
+        <v>236.9057734243912</v>
       </c>
       <c r="NC2" t="n">
-        <v>59999.99999991286</v>
+        <v>59999.999999896</v>
       </c>
       <c r="ND2" t="n">
-        <v>0.8829486054297597</v>
+        <v>0.8829486054252297</v>
       </c>
       <c r="NE2" t="n">
-        <v>295035.1181618511</v>
+        <v>295035.118162672</v>
       </c>
       <c r="NF2" t="n">
-        <v>362989.2432728012</v>
+        <v>362989.2432739516</v>
       </c>
       <c r="NG2" t="n">
-        <v>3800.133275763133</v>
+        <v>3800.133275768069</v>
       </c>
       <c r="NH2" t="n">
-        <v>-537284.2695332773</v>
+        <v>-537284.2695376482</v>
       </c>
       <c r="NI2" t="n">
-        <v>716.0331786757787</v>
+        <v>716.0331786757934</v>
       </c>
       <c r="NJ2" t="n">
-        <v>1004.487866949671</v>
+        <v>1004.487866949669</v>
       </c>
       <c r="NK2" t="n">
-        <v>1.402851008674426</v>
+        <v>1.402851008674394</v>
       </c>
       <c r="NL2" t="n">
-        <v>0.9992725343294139</v>
+        <v>0.9992725343294294</v>
       </c>
       <c r="NM2" t="n">
-        <v>308.6426631665533</v>
+        <v>308.6426631673006</v>
       </c>
       <c r="NN2" t="n">
-        <v>84109.94332209024</v>
+        <v>84109.94332206598</v>
       </c>
       <c r="NO2" t="n">
-        <v>1.188920073540657e-05</v>
+        <v>1.188920073541e-05</v>
       </c>
       <c r="NP2" t="n">
-        <v>59956.43357847883</v>
+        <v>59956.43357846293</v>
       </c>
       <c r="NQ2" t="n">
-        <v>1.667877724399783e-05</v>
+        <v>1.667877724400225e-05</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.004234486916513354</v>
+        <v>0.004234486916492695</v>
       </c>
       <c r="NS2" t="n">
-        <v>1.534470472108264e-05</v>
+        <v>1.534470472114335e-05</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.02150906073069287</v>
+        <v>0.02150906073078453</v>
       </c>
       <c r="NU2" t="n">
-        <v>59999.99999991286</v>
+        <v>59999.999999896</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.8829486054297597</v>
+        <v>0.8829486054252297</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.8829486054297597</v>
+        <v>0.8829486054252297</v>
       </c>
       <c r="NX2" t="n">
-        <v>295035.1181618511</v>
+        <v>295035.118162672</v>
       </c>
       <c r="NY2" t="n">
-        <v>362989.2432728012</v>
+        <v>362989.2432739516</v>
       </c>
       <c r="NZ2" t="n">
-        <v>3800.133275763133</v>
+        <v>3800.133275768069</v>
       </c>
       <c r="OA2" t="n">
-        <v>716.0331786757787</v>
+        <v>716.0331786757934</v>
       </c>
       <c r="OB2" t="n">
-        <v>1004.487866949671</v>
+        <v>1004.487866949669</v>
       </c>
       <c r="OC2" t="n">
-        <v>308.6426631665533</v>
+        <v>308.6426631673006</v>
       </c>
       <c r="OD2" t="n">
-        <v>0.9992725343294139</v>
+        <v>0.9992725343294294</v>
       </c>
       <c r="OE2" t="n">
-        <v>1.534470472108264e-05</v>
+        <v>1.534470472114335e-05</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.02150906073069287</v>
+        <v>0.02150906073078453</v>
       </c>
       <c r="OG2" t="inlineStr">
         <is>
@@ -4464,97 +4464,97 @@
         <v>1</v>
       </c>
       <c r="OI2" t="n">
-        <v>246.0690979966685</v>
+        <v>246.0690979978184</v>
       </c>
       <c r="OJ2" t="n">
-        <v>68499.67981583916</v>
+        <v>68499.67981578172</v>
       </c>
       <c r="OK2" t="n">
-        <v>0.9704638759024479</v>
+        <v>0.970463875897084</v>
       </c>
       <c r="OL2" t="n">
-        <v>301580.7765612214</v>
+        <v>301580.776562046</v>
       </c>
       <c r="OM2" t="n">
-        <v>372165.2480874185</v>
+        <v>372165.2480885741</v>
       </c>
       <c r="ON2" t="n">
-        <v>3800.133275771703</v>
+        <v>3800.133275776639</v>
       </c>
       <c r="OO2" t="n">
-        <v>-562930.1193488498</v>
+        <v>-562930.1193532787</v>
       </c>
       <c r="OP2" t="n">
-        <v>716.2056506674878</v>
+        <v>716.2056506675068</v>
       </c>
       <c r="OQ2" t="n">
-        <v>1004.720142897378</v>
+        <v>1004.72014289738</v>
       </c>
       <c r="OR2" t="n">
-        <v>1.402837497806672</v>
+        <v>1.402837497806637</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.9992999371498469</v>
+        <v>0.9992999371498626</v>
       </c>
       <c r="OT2" t="n">
-        <v>314.5622301054748</v>
+        <v>314.5622301062108</v>
       </c>
       <c r="OU2" t="n">
-        <v>96026.81495131046</v>
+        <v>96026.81495122903</v>
       </c>
       <c r="OV2" t="n">
-        <v>1.041375787072643e-05</v>
+        <v>1.041375787073526e-05</v>
       </c>
       <c r="OW2" t="n">
-        <v>68451.84499376996</v>
+        <v>68451.84499371365</v>
       </c>
       <c r="OX2" t="n">
-        <v>1.460881003413441e-05</v>
+        <v>1.460881003414643e-05</v>
       </c>
       <c r="OY2" t="n">
-        <v>0.004077109595090622</v>
+        <v>0.004077109595071382</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1.58282690395556e-05</v>
+        <v>1.582826903961566e-05</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.0222415854060507</v>
+        <v>0.02224158540614165</v>
       </c>
       <c r="PB2" t="n">
-        <v>68499.67981583916</v>
+        <v>68499.67981578172</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.9704638759024479</v>
+        <v>0.970463875897084</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.9704638759024479</v>
+        <v>0.970463875897084</v>
       </c>
       <c r="PE2" t="n">
-        <v>301580.7765612214</v>
+        <v>301580.776562046</v>
       </c>
       <c r="PF2" t="n">
-        <v>372165.2480874185</v>
+        <v>372165.2480885741</v>
       </c>
       <c r="PG2" t="n">
-        <v>3800.133275771703</v>
+        <v>3800.133275776639</v>
       </c>
       <c r="PH2" t="n">
-        <v>716.2056506674878</v>
+        <v>716.2056506675068</v>
       </c>
       <c r="PI2" t="n">
-        <v>1004.720142897378</v>
+        <v>1004.72014289738</v>
       </c>
       <c r="PJ2" t="n">
-        <v>314.5622301054748</v>
+        <v>314.5622301062108</v>
       </c>
       <c r="PK2" t="n">
-        <v>0.9992999371498469</v>
+        <v>0.9992999371498626</v>
       </c>
       <c r="PL2" t="n">
-        <v>1.58282690395556e-05</v>
+        <v>1.582826903961566e-05</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.0222415854060507</v>
+        <v>0.02224158540614165</v>
       </c>
       <c r="PN2" t="inlineStr">
         <is>
@@ -4565,97 +4565,97 @@
         <v>1</v>
       </c>
       <c r="PP2" t="n">
-        <v>268.1220053394098</v>
+        <v>268.122005340411</v>
       </c>
       <c r="PQ2" t="n">
-        <v>92438.70528950791</v>
+        <v>92438.70528912813</v>
       </c>
       <c r="PR2" t="n">
-        <v>1.20179543556477</v>
+        <v>1.201795435555326</v>
       </c>
       <c r="PS2" t="n">
-        <v>317338.8386969678</v>
+        <v>317338.838697687</v>
       </c>
       <c r="PT2" t="n">
-        <v>394256.0099175986</v>
+        <v>394256.0099186062</v>
       </c>
       <c r="PU2" t="n">
-        <v>3800.133275763133</v>
+        <v>3800.133275768069</v>
       </c>
       <c r="PV2" t="n">
-        <v>-624643.344537033</v>
+        <v>-624643.3445411538</v>
       </c>
       <c r="PW2" t="n">
-        <v>716.773015969465</v>
+        <v>716.773015969491</v>
       </c>
       <c r="PX2" t="n">
-        <v>1005.433966598986</v>
+        <v>1005.433966598991</v>
       </c>
       <c r="PY2" t="n">
-        <v>1.402722959986287</v>
+        <v>1.402722959986243</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.9993891147805181</v>
+        <v>0.9993891147805333</v>
       </c>
       <c r="QA2" t="n">
-        <v>328.3715632792267</v>
+        <v>328.3715632798396</v>
       </c>
       <c r="QB2" t="n">
-        <v>129587.058301568</v>
+        <v>129587.0583010336</v>
       </c>
       <c r="QC2" t="n">
-        <v>7.716819974976621e-06</v>
+        <v>7.716819975008447e-06</v>
       </c>
       <c r="QD2" t="n">
-        <v>92382.50317285385</v>
+        <v>92382.50317247571</v>
       </c>
       <c r="QE2" t="n">
-        <v>1.08245605569805e-05</v>
+        <v>1.082456055702481e-05</v>
       </c>
       <c r="QF2" t="n">
-        <v>0.003742382741108264</v>
+        <v>0.003742382741094097</v>
       </c>
       <c r="QG2" t="n">
-        <v>1.69642411032467e-05</v>
+        <v>1.696424110329718e-05</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.02397139285351674</v>
+        <v>0.0239713928535937</v>
       </c>
       <c r="QI2" t="n">
-        <v>92438.70528950791</v>
+        <v>92438.70528912813</v>
       </c>
       <c r="QJ2" t="n">
-        <v>1.20179543556477</v>
+        <v>1.201795435555326</v>
       </c>
       <c r="QK2" t="n">
-        <v>1.20179543556477</v>
+        <v>1.201795435555326</v>
       </c>
       <c r="QL2" t="n">
-        <v>317338.8386969678</v>
+        <v>317338.838697687</v>
       </c>
       <c r="QM2" t="n">
-        <v>394256.0099175986</v>
+        <v>394256.0099186062</v>
       </c>
       <c r="QN2" t="n">
-        <v>3800.133275763133</v>
+        <v>3800.133275768069</v>
       </c>
       <c r="QO2" t="n">
-        <v>716.773015969465</v>
+        <v>716.773015969491</v>
       </c>
       <c r="QP2" t="n">
-        <v>1005.433966598986</v>
+        <v>1005.433966598991</v>
       </c>
       <c r="QQ2" t="n">
-        <v>328.3715632792267</v>
+        <v>328.3715632798396</v>
       </c>
       <c r="QR2" t="n">
-        <v>0.9993891147805181</v>
+        <v>0.9993891147805333</v>
       </c>
       <c r="QS2" t="n">
-        <v>1.69642411032467e-05</v>
+        <v>1.696424110329718e-05</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.02397139285351674</v>
+        <v>0.0239713928535937</v>
       </c>
       <c r="QU2" t="inlineStr">
         <is>
@@ -4666,40 +4666,40 @@
         <v>1</v>
       </c>
       <c r="QW2" t="n">
-        <v>0.4389204911769363</v>
+        <v>0.4389204911759979</v>
       </c>
       <c r="QX2" t="n">
-        <v>0.8102154608807386</v>
+        <v>0.81021546087823</v>
       </c>
       <c r="QY2" t="n">
-        <v>374979.7236177719</v>
+        <v>374979.7236141113</v>
       </c>
       <c r="QZ2" t="n">
-        <v>2.790805431831895</v>
+        <v>2.790805431821088</v>
       </c>
       <c r="RA2" t="n">
-        <v>380593.4359523781</v>
+        <v>380593.4359534862</v>
       </c>
       <c r="RB2" t="n">
-        <v>0.0260738960300522</v>
+        <v>0.02607389602876673</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.002221780598053799</v>
+        <v>0.002221780596656373</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.01178846742606312</v>
+        <v>0.01178846742615993</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.03262518113021574</v>
+        <v>0.03262518112934391</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.04229027499554447</v>
+        <v>0.04229027499397901</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.1149996001799293</v>
+        <v>0.114999600174906</v>
       </c>
       <c r="RH2" t="n">
-        <v>-7.561479220541401e-12</v>
+        <v>-6.981901168323645e-12</v>
       </c>
       <c r="RI2" t="n">
         <v>0</v>
@@ -4713,10 +4713,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>82.52961504351579</v>
+        <v>82.52961504469843</v>
       </c>
       <c r="D3" t="n">
-        <v>82.52961504351579</v>
+        <v>82.52961504469843</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4725,10 +4725,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>82.52961504351579</v>
+        <v>82.52961504469843</v>
       </c>
       <c r="H3" t="n">
-        <v>82.52961504351579</v>
+        <v>82.52961504469843</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4737,97 +4737,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.2043807644795</v>
+        <v>292.2043807643822</v>
       </c>
       <c r="L3" t="n">
-        <v>132537.5531723653</v>
+        <v>132537.5531722111</v>
       </c>
       <c r="M3" t="n">
-        <v>1.580936880354189</v>
+        <v>1.580936880352878</v>
       </c>
       <c r="N3" t="n">
-        <v>334544.0459660356</v>
+        <v>334544.0459659661</v>
       </c>
       <c r="O3" t="n">
-        <v>418378.862408974</v>
+        <v>418378.8624088766</v>
       </c>
       <c r="P3" t="n">
         <v>3782.917347718243</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687006.1586642422</v>
+        <v>-687006.1586639713</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7062138288414</v>
+        <v>717.7062138288371</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.639892666687</v>
+        <v>1006.639892666681</v>
       </c>
       <c r="T3" t="n">
-        <v>1.402579319045369</v>
+        <v>1.402579319045371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994969313066012</v>
+        <v>0.9994969313066006</v>
       </c>
       <c r="V3" t="n">
-        <v>342.8212838341813</v>
+        <v>342.8212838341241</v>
       </c>
       <c r="W3" t="n">
-        <v>185801.8717923991</v>
+        <v>185801.8717921831</v>
       </c>
       <c r="X3" t="n">
-        <v>5.382077103708211e-06</v>
+        <v>5.382077103714469e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132471.560980138</v>
+        <v>132471.5609799839</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.548790039168737e-06</v>
+        <v>7.54879003917752e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003435197102769311</v>
+        <v>0.003435197102770453</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.816416388199864e-05</v>
+        <v>1.816416388199388e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02581314531334631</v>
+        <v>0.02581314531333897</v>
       </c>
       <c r="AD3" t="n">
-        <v>132537.5531723653</v>
+        <v>132537.5531722111</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.580936880354189</v>
+        <v>1.580936880352878</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.580936880354189</v>
+        <v>1.580936880352878</v>
       </c>
       <c r="AG3" t="n">
-        <v>334544.0459660356</v>
+        <v>334544.0459659661</v>
       </c>
       <c r="AH3" t="n">
-        <v>418378.862408974</v>
+        <v>418378.8624088766</v>
       </c>
       <c r="AI3" t="n">
         <v>3782.917347718243</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7062138288414</v>
+        <v>717.7062138288371</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.639892666687</v>
+        <v>1006.639892666681</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.8212838341813</v>
+        <v>342.8212838341241</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994969313066012</v>
+        <v>0.9994969313066006</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.816416388199864e-05</v>
+        <v>1.816416388199388e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02581314531334631</v>
+        <v>0.02581314531333897</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -5040,16 +5040,16 @@
         <v>1</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.2407365555618023</v>
+        <v>0.2407365555652922</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.2407365555618023</v>
+        <v>0.2407365555652922</v>
       </c>
       <c r="DH3" t="n">
-        <v>187908.609273369</v>
+        <v>187908.6092759552</v>
       </c>
       <c r="DI3" t="n">
-        <v>2.801075364075757</v>
+        <v>2.801075364113573</v>
       </c>
       <c r="DJ3" t="n">
         <v>421784.4310884894</v>
@@ -5098,121 +5098,121 @@
         <v>0</v>
       </c>
       <c r="DT3" t="n">
-        <v>278.0045424826552</v>
+        <v>278.0045424696512</v>
       </c>
       <c r="DU3" t="n">
-        <v>115.9958573891197</v>
+        <v>115.9958573884189</v>
       </c>
       <c r="DV3" t="n">
-        <v>252.6489396564993</v>
+        <v>252.648939642512</v>
       </c>
       <c r="DW3" t="n">
-        <v>65.33925894824918</v>
+        <v>65.33925894717763</v>
       </c>
       <c r="DX3" t="n">
-        <v>278.0045424826552</v>
+        <v>278.0045424696512</v>
       </c>
       <c r="DY3" t="n">
-        <v>115.9958573891197</v>
+        <v>115.9958573884189</v>
       </c>
       <c r="DZ3" t="n">
-        <v>252.6489396564993</v>
+        <v>252.648939642512</v>
       </c>
       <c r="EA3" t="n">
-        <v>65.33925894824918</v>
+        <v>65.33925894717763</v>
       </c>
       <c r="EB3" t="n">
-        <v>257.0374671004022</v>
+        <v>257.037467104007</v>
       </c>
       <c r="EC3" t="n">
-        <v>82934.74270017914</v>
+        <v>82934.74270288911</v>
       </c>
       <c r="ED3" t="n">
-        <v>1.124816998472552</v>
+        <v>1.124816998493503</v>
       </c>
       <c r="EE3" t="n">
-        <v>309409.4031784839</v>
+        <v>309409.4031810629</v>
       </c>
       <c r="EF3" t="n">
-        <v>383141.1682680945</v>
+        <v>383141.1682717095</v>
       </c>
       <c r="EG3" t="n">
-        <v>3788.919886547621</v>
+        <v>3788.919886552313</v>
       </c>
       <c r="EH3" t="n">
-        <v>-590753.2024164496</v>
+        <v>-590753.2024276988</v>
       </c>
       <c r="EI3" t="n">
-        <v>716.470492547921</v>
+        <v>716.4704925480085</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1005.118615028124</v>
+        <v>1005.118615028211</v>
       </c>
       <c r="EK3" t="n">
-        <v>1.402875101602174</v>
+        <v>1.402875101602123</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.9993139907805249</v>
+        <v>0.9993139907805511</v>
       </c>
       <c r="EM3" t="n">
-        <v>321.5054477190031</v>
+        <v>321.5054477212601</v>
       </c>
       <c r="EN3" t="n">
-        <v>116267.5559364524</v>
+        <v>116267.5559402503</v>
       </c>
       <c r="EO3" t="n">
-        <v>8.600851647269199e-06</v>
+        <v>8.600851646988246e-06</v>
       </c>
       <c r="EP3" t="n">
-        <v>82878.05222550982</v>
+        <v>82878.05222822011</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1.2065920628528e-05</v>
+        <v>1.206592062813342e-05</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.003903977621425344</v>
+        <v>0.003903977621370484</v>
       </c>
       <c r="ES3" t="n">
-        <v>1.639853367015956e-05</v>
+        <v>1.639853367034505e-05</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.02310880889609298</v>
+        <v>0.02310880889637527</v>
       </c>
       <c r="EU3" t="n">
-        <v>82934.74270017914</v>
+        <v>82934.74270288911</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.124816998472552</v>
+        <v>1.124816998493503</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.124816998472552</v>
+        <v>1.124816998493503</v>
       </c>
       <c r="EX3" t="n">
-        <v>309409.4031784839</v>
+        <v>309409.4031810629</v>
       </c>
       <c r="EY3" t="n">
-        <v>383141.1682680945</v>
+        <v>383141.1682717095</v>
       </c>
       <c r="EZ3" t="n">
-        <v>3788.919886547621</v>
+        <v>3788.919886552313</v>
       </c>
       <c r="FA3" t="n">
-        <v>716.470492547921</v>
+        <v>716.4704925480085</v>
       </c>
       <c r="FB3" t="n">
-        <v>1005.118615028124</v>
+        <v>1005.118615028211</v>
       </c>
       <c r="FC3" t="n">
-        <v>321.5054477190031</v>
+        <v>321.5054477212601</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.9993139907805249</v>
+        <v>0.9993139907805511</v>
       </c>
       <c r="FE3" t="n">
-        <v>1.639853367015956e-05</v>
+        <v>1.639853367034505e-05</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.02310880889609298</v>
+        <v>0.02310880889637527</v>
       </c>
       <c r="FG3" t="inlineStr">
         <is>
@@ -5223,97 +5223,97 @@
         <v>1</v>
       </c>
       <c r="FI3" t="n">
-        <v>295.5933755788784</v>
+        <v>295.5933755788733</v>
       </c>
       <c r="FJ3" t="n">
-        <v>135142.8784073823</v>
+        <v>135142.8784051725</v>
       </c>
       <c r="FK3" t="n">
-        <v>1.593477963214994</v>
+        <v>1.593477963188953</v>
       </c>
       <c r="FL3" t="n">
-        <v>336974.4233400556</v>
+        <v>336974.4233400564</v>
       </c>
       <c r="FM3" t="n">
         <v>421784.4310885899</v>
       </c>
       <c r="FN3" t="n">
-        <v>3788.919886547321</v>
+        <v>3788.919886552013</v>
       </c>
       <c r="FO3" t="n">
-        <v>-698195.1879738737</v>
+        <v>-698195.1879752415</v>
       </c>
       <c r="FP3" t="n">
-        <v>717.8557944799273</v>
+        <v>717.8557944799215</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1006.774673229023</v>
+        <v>1006.774673228987</v>
       </c>
       <c r="FR3" t="n">
-        <v>1.402474815932094</v>
+        <v>1.402474815932055</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.9995307875089355</v>
+        <v>0.9995307875089431</v>
       </c>
       <c r="FT3" t="n">
-        <v>344.8024274224544</v>
+        <v>344.8024274224492</v>
       </c>
       <c r="FU3" t="n">
-        <v>189446.5457645213</v>
+        <v>189446.5457614196</v>
       </c>
       <c r="FV3" t="n">
-        <v>5.278533825805314e-06</v>
+        <v>5.278533825891737e-06</v>
       </c>
       <c r="FW3" t="n">
-        <v>135080.1765653195</v>
+        <v>135080.1765631117</v>
       </c>
       <c r="FX3" t="n">
-        <v>7.403010755737641e-06</v>
+        <v>7.403010755858641e-06</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.003395610227215516</v>
+        <v>0.003395610227215371</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1.832921822184878e-05</v>
+        <v>1.832921822184822e-05</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.02606722400100811</v>
+        <v>0.02606722400100702</v>
       </c>
       <c r="GB3" t="n">
-        <v>135142.8784073823</v>
+        <v>135142.8784051725</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.593477963214994</v>
+        <v>1.593477963188953</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.593477963214994</v>
+        <v>1.593477963188953</v>
       </c>
       <c r="GE3" t="n">
-        <v>336974.4233400556</v>
+        <v>336974.4233400564</v>
       </c>
       <c r="GF3" t="n">
         <v>421784.4310885899</v>
       </c>
       <c r="GG3" t="n">
-        <v>3788.919886547321</v>
+        <v>3788.919886552013</v>
       </c>
       <c r="GH3" t="n">
-        <v>717.8557944799273</v>
+        <v>717.8557944799215</v>
       </c>
       <c r="GI3" t="n">
-        <v>1006.774673229023</v>
+        <v>1006.774673228987</v>
       </c>
       <c r="GJ3" t="n">
-        <v>344.8024274224544</v>
+        <v>344.8024274224492</v>
       </c>
       <c r="GK3" t="n">
-        <v>0.9995307875089355</v>
+        <v>0.9995307875089431</v>
       </c>
       <c r="GL3" t="n">
-        <v>1.832921822184878e-05</v>
+        <v>1.832921822184822e-05</v>
       </c>
       <c r="GM3" t="n">
-        <v>0.02606722400100811</v>
+        <v>0.02606722400100702</v>
       </c>
       <c r="GN3" t="inlineStr">
         <is>
@@ -5324,97 +5324,97 @@
         <v>1</v>
       </c>
       <c r="GP3" t="n">
-        <v>295.5933755788784</v>
+        <v>295.5933755788733</v>
       </c>
       <c r="GQ3" t="n">
-        <v>135142.8784073823</v>
+        <v>135142.8784051725</v>
       </c>
       <c r="GR3" t="n">
-        <v>1.593477963214994</v>
+        <v>1.593477963188953</v>
       </c>
       <c r="GS3" t="n">
-        <v>336974.4233400556</v>
+        <v>336974.4233400564</v>
       </c>
       <c r="GT3" t="n">
         <v>421784.4310885899</v>
       </c>
       <c r="GU3" t="n">
-        <v>3788.919886547321</v>
+        <v>3788.919886552013</v>
       </c>
       <c r="GV3" t="n">
-        <v>-698195.1879738737</v>
+        <v>-698195.1879752415</v>
       </c>
       <c r="GW3" t="n">
-        <v>717.8557944799273</v>
+        <v>717.8557944799215</v>
       </c>
       <c r="GX3" t="n">
-        <v>1006.774673229023</v>
+        <v>1006.774673228987</v>
       </c>
       <c r="GY3" t="n">
-        <v>1.402474815932094</v>
+        <v>1.402474815932055</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0.9995307875089355</v>
+        <v>0.9995307875089431</v>
       </c>
       <c r="HA3" t="n">
-        <v>344.8024274224544</v>
+        <v>344.8024274224492</v>
       </c>
       <c r="HB3" t="n">
-        <v>189446.5457645213</v>
+        <v>189446.5457614196</v>
       </c>
       <c r="HC3" t="n">
-        <v>5.278533825805314e-06</v>
+        <v>5.278533825891737e-06</v>
       </c>
       <c r="HD3" t="n">
-        <v>135080.1765653195</v>
+        <v>135080.1765631117</v>
       </c>
       <c r="HE3" t="n">
-        <v>7.403010755737641e-06</v>
+        <v>7.403010755858641e-06</v>
       </c>
       <c r="HF3" t="n">
-        <v>0.003395610227215516</v>
+        <v>0.003395610227215371</v>
       </c>
       <c r="HG3" t="n">
-        <v>1.832921822184878e-05</v>
+        <v>1.832921822184822e-05</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.02606722400100811</v>
+        <v>0.02606722400100702</v>
       </c>
       <c r="HI3" t="n">
-        <v>135142.8784073823</v>
+        <v>135142.8784051725</v>
       </c>
       <c r="HJ3" t="n">
-        <v>1.593477963214994</v>
+        <v>1.593477963188953</v>
       </c>
       <c r="HK3" t="n">
-        <v>1.593477963214994</v>
+        <v>1.593477963188953</v>
       </c>
       <c r="HL3" t="n">
-        <v>336974.4233400556</v>
+        <v>336974.4233400564</v>
       </c>
       <c r="HM3" t="n">
         <v>421784.4310885899</v>
       </c>
       <c r="HN3" t="n">
-        <v>3788.919886547321</v>
+        <v>3788.919886552013</v>
       </c>
       <c r="HO3" t="n">
-        <v>717.8557944799273</v>
+        <v>717.8557944799215</v>
       </c>
       <c r="HP3" t="n">
-        <v>1006.774673229023</v>
+        <v>1006.774673228987</v>
       </c>
       <c r="HQ3" t="n">
-        <v>344.8024274224544</v>
+        <v>344.8024274224492</v>
       </c>
       <c r="HR3" t="n">
-        <v>0.9995307875089355</v>
+        <v>0.9995307875089431</v>
       </c>
       <c r="HS3" t="n">
-        <v>1.832921822184878e-05</v>
+        <v>1.832921822184822e-05</v>
       </c>
       <c r="HT3" t="n">
-        <v>0.02606722400100811</v>
+        <v>0.02606722400100702</v>
       </c>
       <c r="HU3" t="inlineStr">
         <is>
@@ -5425,40 +5425,40 @@
         <v>1</v>
       </c>
       <c r="HW3" t="n">
-        <v>0.8646962110751919</v>
+        <v>0.8646962110286744</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.8646962110751919</v>
+        <v>0.8646962110286744</v>
       </c>
       <c r="HY3" t="n">
-        <v>498845.9915446999</v>
+        <v>498845.9915250145</v>
       </c>
       <c r="HZ3" t="n">
-        <v>2.801075364074723</v>
+        <v>2.801075364109972</v>
       </c>
       <c r="IA3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IB3" t="n">
-        <v>0.01561192565410023</v>
+        <v>0.01561192565311725</v>
       </c>
       <c r="IC3" t="n">
-        <v>-1.824277019609385e-07</v>
+        <v>-1.824277019747002e-07</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.0137798123650324</v>
+        <v>0.01377981236499877</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.0253340451530291</v>
+        <v>0.02533404515348691</v>
       </c>
       <c r="IF3" t="n">
         <v>0</v>
       </c>
       <c r="IG3" t="n">
-        <v>0.05472560074445977</v>
+        <v>0.05472560074390097</v>
       </c>
       <c r="IH3" t="n">
-        <v>-9.93580218100476e-14</v>
+        <v>-2.156469447456288e-13</v>
       </c>
       <c r="II3" t="n">
         <v>0</v>
@@ -5467,121 +5467,121 @@
         <v>165.3032</v>
       </c>
       <c r="IK3" t="n">
-        <v>278.0045424826552</v>
+        <v>278.0045424696513</v>
       </c>
       <c r="IL3" t="n">
-        <v>115.9958573891197</v>
+        <v>115.995857388419</v>
       </c>
       <c r="IM3" t="n">
-        <v>252.6489396564993</v>
+        <v>252.6489396425121</v>
       </c>
       <c r="IN3" t="n">
-        <v>65.33925894824918</v>
+        <v>65.33925894717763</v>
       </c>
       <c r="IO3" t="n">
-        <v>145.2043978933763</v>
+        <v>145.2043978844027</v>
       </c>
       <c r="IP3" t="n">
-        <v>115.9958573891197</v>
+        <v>115.995857388419</v>
       </c>
       <c r="IQ3" t="n">
-        <v>87.34573965649929</v>
+        <v>87.34573964251206</v>
       </c>
       <c r="IR3" t="n">
-        <v>36.98001800755651</v>
+        <v>36.98001800331385</v>
       </c>
       <c r="IS3" t="n">
-        <v>257.0374671004975</v>
+        <v>257.0374671039026</v>
       </c>
       <c r="IT3" t="n">
-        <v>82934.74269870049</v>
+        <v>82934.74270118482</v>
       </c>
       <c r="IU3" t="n">
-        <v>1.124816998452066</v>
+        <v>1.12481699847083</v>
       </c>
       <c r="IV3" t="n">
-        <v>309409.4031785561</v>
+        <v>309409.4031809922</v>
       </c>
       <c r="IW3" t="n">
-        <v>383141.168268195</v>
+        <v>383141.1682716098</v>
       </c>
       <c r="IX3" t="n">
-        <v>3788.919886553126</v>
+        <v>3788.919886557818</v>
       </c>
       <c r="IY3" t="n">
-        <v>-590753.2024181251</v>
+        <v>-590753.2024288179</v>
       </c>
       <c r="IZ3" t="n">
-        <v>716.470492547918</v>
+        <v>716.4704925480002</v>
       </c>
       <c r="JA3" t="n">
-        <v>1005.118615028091</v>
+        <v>1005.118615028171</v>
       </c>
       <c r="JB3" t="n">
-        <v>1.402875101602133</v>
+        <v>1.402875101602084</v>
       </c>
       <c r="JC3" t="n">
-        <v>0.9993139907805383</v>
+        <v>0.9993139907805637</v>
       </c>
       <c r="JD3" t="n">
-        <v>321.5054477190624</v>
+        <v>321.5054477211944</v>
       </c>
       <c r="JE3" t="n">
-        <v>116267.5559343777</v>
+        <v>116267.5559378593</v>
       </c>
       <c r="JF3" t="n">
-        <v>8.600851647422673e-06</v>
+        <v>8.600851647165124e-06</v>
       </c>
       <c r="JG3" t="n">
-        <v>82878.05222403329</v>
+        <v>82878.05222651803</v>
       </c>
       <c r="JH3" t="n">
-        <v>1.206592062874296e-05</v>
+        <v>1.206592062838122e-05</v>
       </c>
       <c r="JI3" t="n">
-        <v>0.003903977621423642</v>
+        <v>0.003903977621371807</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1.639853367016422e-05</v>
+        <v>1.639853367033942e-05</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.02310880889609986</v>
+        <v>0.02310880889636648</v>
       </c>
       <c r="JL3" t="n">
-        <v>82934.74269870049</v>
+        <v>82934.74270118482</v>
       </c>
       <c r="JM3" t="n">
-        <v>1.124816998452066</v>
+        <v>1.12481699847083</v>
       </c>
       <c r="JN3" t="n">
-        <v>1.124816998452066</v>
+        <v>1.12481699847083</v>
       </c>
       <c r="JO3" t="n">
-        <v>309409.4031785561</v>
+        <v>309409.4031809922</v>
       </c>
       <c r="JP3" t="n">
-        <v>383141.168268195</v>
+        <v>383141.1682716098</v>
       </c>
       <c r="JQ3" t="n">
-        <v>3788.919886553126</v>
+        <v>3788.919886557818</v>
       </c>
       <c r="JR3" t="n">
-        <v>716.470492547918</v>
+        <v>716.4704925480002</v>
       </c>
       <c r="JS3" t="n">
-        <v>1005.118615028091</v>
+        <v>1005.118615028171</v>
       </c>
       <c r="JT3" t="n">
-        <v>321.5054477190624</v>
+        <v>321.5054477211944</v>
       </c>
       <c r="JU3" t="n">
-        <v>0.9993139907805383</v>
+        <v>0.9993139907805637</v>
       </c>
       <c r="JV3" t="n">
-        <v>1.639853367016422e-05</v>
+        <v>1.639853367033942e-05</v>
       </c>
       <c r="JW3" t="n">
-        <v>0.02310880889609986</v>
+        <v>0.02310880889636648</v>
       </c>
       <c r="JX3" t="inlineStr">
         <is>
@@ -5592,97 +5592,97 @@
         <v>1</v>
       </c>
       <c r="JZ3" t="n">
-        <v>295.5933755789725</v>
+        <v>295.5933755787673</v>
       </c>
       <c r="KA3" t="n">
-        <v>135142.8784049493</v>
+        <v>135142.8784024192</v>
       </c>
       <c r="KB3" t="n">
-        <v>1.593477963185783</v>
+        <v>1.593477963157048</v>
       </c>
       <c r="KC3" t="n">
-        <v>336974.4233401282</v>
+        <v>336974.4233399856</v>
       </c>
       <c r="KD3" t="n">
-        <v>421784.4310886904</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="KE3" t="n">
-        <v>3788.919886552826</v>
+        <v>3788.919886557518</v>
       </c>
       <c r="KF3" t="n">
-        <v>-698195.1879757574</v>
+        <v>-698195.1879765674</v>
       </c>
       <c r="KG3" t="n">
-        <v>717.8557944799251</v>
+        <v>717.8557944799099</v>
       </c>
       <c r="KH3" t="n">
-        <v>1006.774673228986</v>
+        <v>1006.774673228939</v>
       </c>
       <c r="KI3" t="n">
-        <v>1.402474815932047</v>
+        <v>1.402474815932011</v>
       </c>
       <c r="KJ3" t="n">
-        <v>0.9995307875089451</v>
+        <v>0.9995307875089512</v>
       </c>
       <c r="KK3" t="n">
-        <v>344.8024274225067</v>
+        <v>344.8024274223846</v>
       </c>
       <c r="KL3" t="n">
-        <v>189446.5457611059</v>
+        <v>189446.5457575554</v>
       </c>
       <c r="KM3" t="n">
-        <v>5.278533825900475e-06</v>
+        <v>5.278533825999403e-06</v>
       </c>
       <c r="KN3" t="n">
-        <v>135080.1765628889</v>
+        <v>135080.1765603607</v>
       </c>
       <c r="KO3" t="n">
-        <v>7.403010755870851e-06</v>
+        <v>7.403010756009404e-06</v>
       </c>
       <c r="KP3" t="n">
-        <v>0.003395610227214197</v>
+        <v>0.003395610227216347</v>
       </c>
       <c r="KQ3" t="n">
-        <v>1.832921822185299e-05</v>
+        <v>1.832921822184268e-05</v>
       </c>
       <c r="KR3" t="n">
-        <v>0.02606722400101434</v>
+        <v>0.02606722400099823</v>
       </c>
       <c r="KS3" t="n">
-        <v>135142.8784049493</v>
+        <v>135142.8784024192</v>
       </c>
       <c r="KT3" t="n">
-        <v>1.593477963185783</v>
+        <v>1.593477963157048</v>
       </c>
       <c r="KU3" t="n">
-        <v>1.593477963185783</v>
+        <v>1.593477963157048</v>
       </c>
       <c r="KV3" t="n">
-        <v>336974.4233401282</v>
+        <v>336974.4233399856</v>
       </c>
       <c r="KW3" t="n">
-        <v>421784.4310886904</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="KX3" t="n">
-        <v>3788.919886552826</v>
+        <v>3788.919886557518</v>
       </c>
       <c r="KY3" t="n">
-        <v>717.8557944799251</v>
+        <v>717.8557944799099</v>
       </c>
       <c r="KZ3" t="n">
-        <v>1006.774673228986</v>
+        <v>1006.774673228939</v>
       </c>
       <c r="LA3" t="n">
-        <v>344.8024274225067</v>
+        <v>344.8024274223846</v>
       </c>
       <c r="LB3" t="n">
-        <v>0.9995307875089451</v>
+        <v>0.9995307875089512</v>
       </c>
       <c r="LC3" t="n">
-        <v>1.832921822185299e-05</v>
+        <v>1.832921822184268e-05</v>
       </c>
       <c r="LD3" t="n">
-        <v>0.02606722400101434</v>
+        <v>0.02606722400099823</v>
       </c>
       <c r="LE3" t="inlineStr">
         <is>
@@ -5693,97 +5693,97 @@
         <v>1</v>
       </c>
       <c r="LG3" t="n">
-        <v>267.5608469981621</v>
+        <v>267.5608470004655</v>
       </c>
       <c r="LH3" t="n">
-        <v>95409.78892479197</v>
+        <v>95409.78892610568</v>
       </c>
       <c r="LI3" t="n">
-        <v>1.243057550910265</v>
+        <v>1.243057550916652</v>
       </c>
       <c r="LJ3" t="n">
-        <v>316929.2064534149</v>
+        <v>316929.2064550648</v>
       </c>
       <c r="LK3" t="n">
-        <v>393683.3268518836</v>
+        <v>393683.3268541959</v>
       </c>
       <c r="LL3" t="n">
-        <v>3788.919886554326</v>
+        <v>3788.919886559017</v>
       </c>
       <c r="LM3" t="n">
-        <v>-620083.287202772</v>
+        <v>-620083.2872104424</v>
       </c>
       <c r="LN3" t="n">
-        <v>716.7674741389465</v>
+        <v>716.7674741390125</v>
       </c>
       <c r="LO3" t="n">
-        <v>1005.488635078815</v>
+        <v>1005.48863507887</v>
       </c>
       <c r="LP3" t="n">
-        <v>1.402810076289678</v>
+        <v>1.402810076289625</v>
       </c>
       <c r="LQ3" t="n">
-        <v>0.999362173009757</v>
+        <v>0.9993621730097788</v>
       </c>
       <c r="LR3" t="n">
-        <v>328.0291303255604</v>
+        <v>328.0291303269733</v>
       </c>
       <c r="LS3" t="n">
-        <v>133756.8588122319</v>
+        <v>133756.8588140714</v>
       </c>
       <c r="LT3" t="n">
-        <v>7.476252125536246e-06</v>
+        <v>7.476252125433425e-06</v>
       </c>
       <c r="LU3" t="n">
-        <v>95349.22871812287</v>
+        <v>95349.22871943784</v>
       </c>
       <c r="LV3" t="n">
-        <v>1.048776181458437e-05</v>
+        <v>1.048776181443973e-05</v>
       </c>
       <c r="LW3" t="n">
-        <v>0.003750723525144064</v>
+        <v>0.00375072352511162</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.693635799610137e-05</v>
+        <v>1.693635799621793e-05</v>
       </c>
       <c r="LY3" t="n">
-        <v>0.02392923167039839</v>
+        <v>0.02392923167057631</v>
       </c>
       <c r="LZ3" t="n">
-        <v>95409.78892479197</v>
+        <v>95409.78892610568</v>
       </c>
       <c r="MA3" t="n">
-        <v>1.243057550910265</v>
+        <v>1.243057550916652</v>
       </c>
       <c r="MB3" t="n">
-        <v>1.243057550910265</v>
+        <v>1.243057550916652</v>
       </c>
       <c r="MC3" t="n">
-        <v>316929.2064534149</v>
+        <v>316929.2064550648</v>
       </c>
       <c r="MD3" t="n">
-        <v>393683.3268518836</v>
+        <v>393683.3268541959</v>
       </c>
       <c r="ME3" t="n">
-        <v>3788.919886554326</v>
+        <v>3788.919886559017</v>
       </c>
       <c r="MF3" t="n">
-        <v>716.7674741389465</v>
+        <v>716.7674741390125</v>
       </c>
       <c r="MG3" t="n">
-        <v>1005.488635078815</v>
+        <v>1005.48863507887</v>
       </c>
       <c r="MH3" t="n">
-        <v>328.0291303255604</v>
+        <v>328.0291303269733</v>
       </c>
       <c r="MI3" t="n">
-        <v>0.999362173009757</v>
+        <v>0.9993621730097788</v>
       </c>
       <c r="MJ3" t="n">
-        <v>1.693635799610137e-05</v>
+        <v>1.693635799621793e-05</v>
       </c>
       <c r="MK3" t="n">
-        <v>0.02392923167039839</v>
+        <v>0.02392923167057631</v>
       </c>
       <c r="ML3" t="inlineStr">
         <is>
@@ -5794,139 +5794,139 @@
         <v>1</v>
       </c>
       <c r="MN3" t="n">
-        <v>0.8646962110750324</v>
+        <v>0.8646962110288514</v>
       </c>
       <c r="MO3" t="n">
-        <v>0.4516389968615981</v>
+        <v>0.4516389968306919</v>
       </c>
       <c r="MP3" t="n">
-        <v>259555.9784870416</v>
+        <v>259555.9784725579</v>
       </c>
       <c r="MQ3" t="n">
-        <v>2.801075364023707</v>
+        <v>2.801075364053514</v>
       </c>
       <c r="MR3" t="n">
-        <v>380020.7528867636</v>
+        <v>380020.7528890758</v>
       </c>
       <c r="MS3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MT3" t="n">
-        <v>142.2541798754744</v>
+        <v>142.2541798786463</v>
       </c>
       <c r="MU3" t="n">
-        <v>129.9830867725786</v>
+        <v>129.9830867753115</v>
       </c>
       <c r="MV3" t="n">
-        <v>-57.79834638738487</v>
+        <v>-57.79834638904552</v>
       </c>
       <c r="MW3" t="n">
-        <v>-23.9728260560818</v>
+        <v>-23.97282605624575</v>
       </c>
       <c r="MX3" t="n">
-        <v>258.2051565080956</v>
+        <v>258.2051565109062</v>
       </c>
       <c r="MY3" t="n">
-        <v>129.9830867725786</v>
+        <v>129.9830867753115</v>
       </c>
       <c r="MZ3" t="n">
-        <v>-223.1015463873849</v>
+        <v>-223.1015463890455</v>
       </c>
       <c r="NA3" t="n">
-        <v>-59.77413117820592</v>
+        <v>-59.77413117786745</v>
       </c>
       <c r="NB3" t="n">
-        <v>234.267576075325</v>
+        <v>234.2675760771039</v>
       </c>
       <c r="NC3" t="n">
-        <v>57500.0000000181</v>
+        <v>57500.00000196266</v>
       </c>
       <c r="ND3" t="n">
-        <v>0.8556917874260295</v>
+        <v>0.8556917874484709</v>
       </c>
       <c r="NE3" t="n">
-        <v>293151.2831514793</v>
+        <v>293151.2831527487</v>
       </c>
       <c r="NF3" t="n">
-        <v>360348.3754281055</v>
+        <v>360348.3754298851</v>
       </c>
       <c r="NG3" t="n">
-        <v>3801.13119429782</v>
+        <v>3801.131194295716</v>
       </c>
       <c r="NH3" t="n">
-        <v>-530133.4158043501</v>
+        <v>-530133.4158088396</v>
       </c>
       <c r="NI3" t="n">
-        <v>715.9885931999555</v>
+        <v>715.988593199986</v>
       </c>
       <c r="NJ3" t="n">
-        <v>1004.42137728268</v>
+        <v>1004.421377282732</v>
       </c>
       <c r="NK3" t="n">
-        <v>1.402845501760911</v>
+        <v>1.402845501760924</v>
       </c>
       <c r="NL3" t="n">
-        <v>0.9992681996164673</v>
+        <v>0.9992681996164664</v>
       </c>
       <c r="NM3" t="n">
-        <v>306.9173694663211</v>
+        <v>306.9173694674876</v>
       </c>
       <c r="NN3" t="n">
-        <v>80604.68746640999</v>
+        <v>80604.68746913662</v>
       </c>
       <c r="NO3" t="n">
-        <v>1.240622638003187e-05</v>
+        <v>1.24062263796122e-05</v>
       </c>
       <c r="NP3" t="n">
-        <v>57457.99331803226</v>
+        <v>57457.99331997534</v>
       </c>
       <c r="NQ3" t="n">
-        <v>1.740401887105525e-05</v>
+        <v>1.740401887046669e-05</v>
       </c>
       <c r="NR3" t="n">
-        <v>0.004282029684711031</v>
+        <v>0.00428202968467868</v>
       </c>
       <c r="NS3" t="n">
-        <v>1.520413469668154e-05</v>
+        <v>1.520413469677658e-05</v>
       </c>
       <c r="NT3" t="n">
-        <v>0.02129651313162147</v>
+        <v>0.02129651313176515</v>
       </c>
       <c r="NU3" t="n">
-        <v>57500.0000000181</v>
+        <v>57500.00000196266</v>
       </c>
       <c r="NV3" t="n">
-        <v>0.8556917874260295</v>
+        <v>0.8556917874484709</v>
       </c>
       <c r="NW3" t="n">
-        <v>0.8556917874260295</v>
+        <v>0.8556917874484709</v>
       </c>
       <c r="NX3" t="n">
-        <v>293151.2831514793</v>
+        <v>293151.2831527487</v>
       </c>
       <c r="NY3" t="n">
-        <v>360348.3754281055</v>
+        <v>360348.3754298851</v>
       </c>
       <c r="NZ3" t="n">
-        <v>3801.13119429782</v>
+        <v>3801.131194295716</v>
       </c>
       <c r="OA3" t="n">
-        <v>715.9885931999555</v>
+        <v>715.988593199986</v>
       </c>
       <c r="OB3" t="n">
-        <v>1004.42137728268</v>
+        <v>1004.421377282732</v>
       </c>
       <c r="OC3" t="n">
-        <v>306.9173694663211</v>
+        <v>306.9173694674876</v>
       </c>
       <c r="OD3" t="n">
-        <v>0.9992681996164673</v>
+        <v>0.9992681996164664</v>
       </c>
       <c r="OE3" t="n">
-        <v>1.520413469668154e-05</v>
+        <v>1.520413469677658e-05</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.02129651313162147</v>
+        <v>0.02129651313176515</v>
       </c>
       <c r="OG3" t="inlineStr">
         <is>
@@ -5937,97 +5937,97 @@
         <v>1</v>
       </c>
       <c r="OI3" t="n">
-        <v>244.3720243349253</v>
+        <v>244.3720243368539</v>
       </c>
       <c r="OJ3" t="n">
-        <v>66632.99544947936</v>
+        <v>66632.99544954914</v>
       </c>
       <c r="OK3" t="n">
-        <v>0.9505765335569319</v>
+        <v>0.9505765335504015</v>
       </c>
       <c r="OL3" t="n">
-        <v>300369.0466273525</v>
+        <v>300369.0466287349</v>
       </c>
       <c r="OM3" t="n">
-        <v>370466.5012743207</v>
+        <v>370466.5012762581</v>
       </c>
       <c r="ON3" t="n">
-        <v>3801.131194296764</v>
+        <v>3801.131194304392</v>
       </c>
       <c r="OO3" t="n">
-        <v>-558423.6234386117</v>
+        <v>-558423.6234458694</v>
       </c>
       <c r="OP3" t="n">
-        <v>716.1701763799407</v>
+        <v>716.1701763799717</v>
       </c>
       <c r="OQ3" t="n">
-        <v>1004.668498245157</v>
+        <v>1004.668498245162</v>
       </c>
       <c r="OR3" t="n">
-        <v>1.402834872744216</v>
+        <v>1.402834872744163</v>
       </c>
       <c r="OS3" t="n">
-        <v>0.9992968807355859</v>
+        <v>0.9992968807356106</v>
       </c>
       <c r="OT3" t="n">
-        <v>313.4743613857352</v>
+        <v>313.474361386974</v>
       </c>
       <c r="OU3" t="n">
-        <v>93409.52023142559</v>
+        <v>93409.52023152214</v>
       </c>
       <c r="OV3" t="n">
-        <v>1.070554690274035e-05</v>
+        <v>1.070554690272928e-05</v>
       </c>
       <c r="OW3" t="n">
-        <v>66586.25476617823</v>
+        <v>66586.25476624958</v>
       </c>
       <c r="OX3" t="n">
-        <v>1.501811452696299e-05</v>
+        <v>1.50181145269469e-05</v>
       </c>
       <c r="OY3" t="n">
-        <v>0.004105321302563143</v>
+        <v>0.004105321302530458</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1.573920277611143e-05</v>
+        <v>1.573920277621246e-05</v>
       </c>
       <c r="PA3" t="n">
-        <v>0.02210645759383597</v>
+        <v>0.02210645759398889</v>
       </c>
       <c r="PB3" t="n">
-        <v>66632.99544947936</v>
+        <v>66632.99544954914</v>
       </c>
       <c r="PC3" t="n">
-        <v>0.9505765335569319</v>
+        <v>0.9505765335504015</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.9505765335569319</v>
+        <v>0.9505765335504015</v>
       </c>
       <c r="PE3" t="n">
-        <v>300369.0466273525</v>
+        <v>300369.0466287349</v>
       </c>
       <c r="PF3" t="n">
-        <v>370466.5012743207</v>
+        <v>370466.5012762581</v>
       </c>
       <c r="PG3" t="n">
-        <v>3801.131194296764</v>
+        <v>3801.131194304392</v>
       </c>
       <c r="PH3" t="n">
-        <v>716.1701763799407</v>
+        <v>716.1701763799717</v>
       </c>
       <c r="PI3" t="n">
-        <v>1004.668498245157</v>
+        <v>1004.668498245162</v>
       </c>
       <c r="PJ3" t="n">
-        <v>313.4743613857352</v>
+        <v>313.474361386974</v>
       </c>
       <c r="PK3" t="n">
-        <v>0.9992968807355859</v>
+        <v>0.9992968807356106</v>
       </c>
       <c r="PL3" t="n">
-        <v>1.573920277611143e-05</v>
+        <v>1.573920277621246e-05</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.02210645759383597</v>
+        <v>0.02210645759398889</v>
       </c>
       <c r="PN3" t="inlineStr">
         <is>
@@ -6038,97 +6038,97 @@
         <v>1</v>
       </c>
       <c r="PP3" t="n">
-        <v>267.5495628178502</v>
+        <v>267.5495628200571</v>
       </c>
       <c r="PQ3" t="n">
-        <v>91433.66777780077</v>
+        <v>91433.66777801182</v>
       </c>
       <c r="PR3" t="n">
-        <v>1.191273068332467</v>
+        <v>1.191273068325359</v>
       </c>
       <c r="PS3" t="n">
-        <v>316930.4225780744</v>
+        <v>316930.4225796575</v>
       </c>
       <c r="PT3" t="n">
-        <v>393683.3268519776</v>
+        <v>393683.3268541959</v>
       </c>
       <c r="PU3" t="n">
-        <v>3801.131194288087</v>
+        <v>3801.131194295715</v>
       </c>
       <c r="PV3" t="n">
-        <v>-623307.662393093</v>
+        <v>-623307.6624013042</v>
       </c>
       <c r="PW3" t="n">
-        <v>716.7542328845673</v>
+        <v>716.7542328846273</v>
       </c>
       <c r="PX3" t="n">
-        <v>1005.405768332105</v>
+        <v>1005.405768332137</v>
       </c>
       <c r="PY3" t="n">
-        <v>1.402720377786767</v>
+        <v>1.402720377786695</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.9993884871635166</v>
+        <v>0.9993884871635432</v>
       </c>
       <c r="QA3" t="n">
-        <v>328.0203213056613</v>
+        <v>328.0203213070143</v>
       </c>
       <c r="QB3" t="n">
-        <v>128177.8028704637</v>
+        <v>128177.8028707563</v>
       </c>
       <c r="QC3" t="n">
-        <v>7.801662827772129e-06</v>
+        <v>7.801662827754318e-06</v>
       </c>
       <c r="QD3" t="n">
-        <v>91378.01439279329</v>
+        <v>91378.01439300667</v>
       </c>
       <c r="QE3" t="n">
-        <v>1.09435514291375e-05</v>
+        <v>1.094355142911195e-05</v>
       </c>
       <c r="QF3" t="n">
-        <v>0.003750331145279656</v>
+        <v>0.003750331145248441</v>
       </c>
       <c r="QG3" t="n">
-        <v>1.693518207720568e-05</v>
+        <v>1.693518207731719e-05</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.02392694597243779</v>
+        <v>0.02392694597260789</v>
       </c>
       <c r="QI3" t="n">
-        <v>91433.66777780077</v>
+        <v>91433.66777801182</v>
       </c>
       <c r="QJ3" t="n">
-        <v>1.191273068332467</v>
+        <v>1.191273068325359</v>
       </c>
       <c r="QK3" t="n">
-        <v>1.191273068332467</v>
+        <v>1.191273068325359</v>
       </c>
       <c r="QL3" t="n">
-        <v>316930.4225780744</v>
+        <v>316930.4225796575</v>
       </c>
       <c r="QM3" t="n">
-        <v>393683.3268519776</v>
+        <v>393683.3268541959</v>
       </c>
       <c r="QN3" t="n">
-        <v>3801.131194288087</v>
+        <v>3801.131194295715</v>
       </c>
       <c r="QO3" t="n">
-        <v>716.7542328845673</v>
+        <v>716.7542328846273</v>
       </c>
       <c r="QP3" t="n">
-        <v>1005.405768332105</v>
+        <v>1005.405768332137</v>
       </c>
       <c r="QQ3" t="n">
-        <v>328.0203213056613</v>
+        <v>328.0203213070143</v>
       </c>
       <c r="QR3" t="n">
-        <v>0.9993884871635166</v>
+        <v>0.9993884871635432</v>
       </c>
       <c r="QS3" t="n">
-        <v>1.693518207720568e-05</v>
+        <v>1.693518207731719e-05</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.02392694597243779</v>
+        <v>0.02392694597260789</v>
       </c>
       <c r="QU3" t="inlineStr">
         <is>
@@ -6139,40 +6139,40 @@
         <v>1</v>
       </c>
       <c r="QW3" t="n">
-        <v>0.4634934155822822</v>
+        <v>0.4634934155908551</v>
       </c>
       <c r="QX3" t="n">
-        <v>0.8412855777992362</v>
+        <v>0.8412855778051963</v>
       </c>
       <c r="QY3" t="n">
-        <v>378699.7146533556</v>
+        <v>378699.7146650424</v>
       </c>
       <c r="QZ3" t="n">
-        <v>2.801075364017715</v>
+        <v>2.801075364150067</v>
       </c>
       <c r="RA3" t="n">
-        <v>380020.7528867636</v>
+        <v>380020.7528890758</v>
       </c>
       <c r="RB3" t="n">
-        <v>0.02693962188780752</v>
+        <v>0.02693962188409724</v>
       </c>
       <c r="RC3" t="n">
-        <v>0.002766125131425959</v>
+        <v>0.002766125128198385</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.01174717696683481</v>
+        <v>0.01174717696701128</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.03296430785492225</v>
+        <v>0.03296430785326795</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.04275610682293819</v>
+        <v>0.04275610681975486</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.1171733386639287</v>
+        <v>0.1171733386523297</v>
       </c>
       <c r="RH3" t="n">
-        <v>1.048572340067722e-11</v>
+        <v>2.946490273991742e-12</v>
       </c>
       <c r="RI3" t="n">
         <v>0</v>
@@ -7559,145 +7559,145 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01561897651784344</v>
+        <v>0.01561897651732149</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.808493700585868e-07</v>
+        <v>-1.808493700650828e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01378013287985714</v>
+        <v>0.01378013287983814</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02533043296311476</v>
+        <v>0.02533043296337538</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05472936151144529</v>
+        <v>0.05472936151116495</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.522120623986822e-11</v>
+        <v>-1.837905522217298e-11</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>274.1678062554757</v>
+        <v>274.167806249784</v>
       </c>
       <c r="K2" t="n">
-        <v>112.0265245588695</v>
+        <v>112.0265245565439</v>
       </c>
       <c r="L2" t="n">
-        <v>250.235976194873</v>
+        <v>250.2359761896782</v>
       </c>
       <c r="M2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="N2" t="n">
-        <v>274.1678062554757</v>
+        <v>274.167806249784</v>
       </c>
       <c r="O2" t="n">
-        <v>112.0265245588695</v>
+        <v>112.0265245565439</v>
       </c>
       <c r="P2" t="n">
-        <v>250.235976194873</v>
+        <v>250.2359761896782</v>
       </c>
       <c r="Q2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="R2" t="n">
-        <v>258.1003988415964</v>
+        <v>258.1003988430543</v>
       </c>
       <c r="S2" t="n">
-        <v>85911.41387245944</v>
+        <v>85911.41387415427</v>
       </c>
       <c r="T2" t="n">
-        <v>1.16040142395032</v>
+        <v>1.16040142396665</v>
       </c>
       <c r="U2" t="n">
-        <v>310164.4949297706</v>
+        <v>310164.4949308123</v>
       </c>
       <c r="V2" t="n">
-        <v>384200.4380950193</v>
+        <v>384200.4380964796</v>
       </c>
       <c r="W2" t="n">
-        <v>3782.917347718243</v>
+        <v>3782.917347718242</v>
       </c>
       <c r="X2" t="n">
-        <v>-592172.0381358532</v>
+        <v>-592172.038139908</v>
       </c>
       <c r="Y2" t="n">
-        <v>716.5043828472915</v>
+        <v>716.5043828473296</v>
       </c>
       <c r="Z2" t="n">
-        <v>1005.193756831143</v>
+        <v>1005.193756831191</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.402913619085816</v>
+        <v>1.402913619085809</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.9993041882928936</v>
+        <v>0.9993041882928999</v>
       </c>
       <c r="AC2" t="n">
-        <v>322.1708149417944</v>
+        <v>322.1708149427056</v>
       </c>
       <c r="AD2" t="n">
-        <v>120442.7448514495</v>
+        <v>120442.7448538258</v>
       </c>
       <c r="AE2" t="n">
-        <v>8.302700185331796e-06</v>
+        <v>8.30270018516799e-06</v>
       </c>
       <c r="AF2" t="n">
-        <v>85851.86087931332</v>
+        <v>85851.86088100757</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.164797116518831e-05</v>
+        <v>1.164797116495845e-05</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.003888215538543939</v>
+        <v>0.00388821553852202</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.645352168418702e-05</v>
+        <v>1.645352168426201e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.02319279784473733</v>
+        <v>0.02319279784485157</v>
       </c>
       <c r="AK2" t="n">
-        <v>85911.41387245944</v>
+        <v>85911.41387415427</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.16040142395032</v>
+        <v>1.16040142396665</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.16040142395032</v>
+        <v>1.16040142396665</v>
       </c>
       <c r="AN2" t="n">
-        <v>310164.4949297706</v>
+        <v>310164.4949308123</v>
       </c>
       <c r="AO2" t="n">
-        <v>384200.4380950193</v>
+        <v>384200.4380964796</v>
       </c>
       <c r="AP2" t="n">
-        <v>3782.917347718243</v>
+        <v>3782.917347718242</v>
       </c>
       <c r="AQ2" t="n">
-        <v>716.5043828472915</v>
+        <v>716.5043828473296</v>
       </c>
       <c r="AR2" t="n">
-        <v>1005.193756831143</v>
+        <v>1005.193756831191</v>
       </c>
       <c r="AS2" t="n">
-        <v>322.1708149417944</v>
+        <v>322.1708149427056</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.9993041882928936</v>
+        <v>0.9993041882928999</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.645352168418702e-05</v>
+        <v>1.645352168426201e-05</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.02319279784473733</v>
+        <v>0.02319279784485157</v>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
@@ -7711,10 +7711,10 @@
         <v>295.6000000000885</v>
       </c>
       <c r="AZ2" t="n">
-        <v>137999.9999951876</v>
+        <v>137999.9999951881</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.627145819755043</v>
+        <v>1.62714581975505</v>
       </c>
       <c r="BB2" t="n">
         <v>336973.3475828946</v>
@@ -7723,10 +7723,10 @@
         <v>421784.4310885896</v>
       </c>
       <c r="BD2" t="n">
-        <v>3782.91734772336</v>
+        <v>3782.917347723359</v>
       </c>
       <c r="BE2" t="n">
-        <v>-696445.9368987705</v>
+        <v>-696445.9368987699</v>
       </c>
       <c r="BF2" t="n">
         <v>717.8632360362554</v>
@@ -7741,37 +7741,37 @@
         <v>0.9995210660216021</v>
       </c>
       <c r="BJ2" t="n">
-        <v>344.8092213940488</v>
+        <v>344.8092213940487</v>
       </c>
       <c r="BK2" t="n">
-        <v>193456.8974370098</v>
+        <v>193456.8974370105</v>
       </c>
       <c r="BL2" t="n">
-        <v>5.169110087303055e-06</v>
+        <v>5.169110087303036e-06</v>
       </c>
       <c r="BM2" t="n">
-        <v>137934.6617460247</v>
+        <v>137934.6617460252</v>
       </c>
       <c r="BN2" t="n">
-        <v>7.249809346988306e-06</v>
+        <v>7.24980934698828e-06</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.003395798695745237</v>
+        <v>0.003395798695745238</v>
       </c>
       <c r="BP2" t="n">
         <v>1.832995174012118e-05</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.02606863419706635</v>
+        <v>0.02606863419706634</v>
       </c>
       <c r="BR2" t="n">
-        <v>137999.9999951876</v>
+        <v>137999.9999951881</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.627145819755043</v>
+        <v>1.62714581975505</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.627145819755043</v>
+        <v>1.62714581975505</v>
       </c>
       <c r="BU2" t="n">
         <v>336973.3475828946</v>
@@ -7780,7 +7780,7 @@
         <v>421784.4310885896</v>
       </c>
       <c r="BW2" t="n">
-        <v>3782.91734772336</v>
+        <v>3782.917347723359</v>
       </c>
       <c r="BX2" t="n">
         <v>717.8632360362554</v>
@@ -7789,7 +7789,7 @@
         <v>1006.821582550249</v>
       </c>
       <c r="BZ2" t="n">
-        <v>344.8092213940488</v>
+        <v>344.8092213940487</v>
       </c>
       <c r="CA2" t="n">
         <v>0.9995210660216021</v>
@@ -7798,7 +7798,7 @@
         <v>1.832995174012118e-05</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.02606863419706635</v>
+        <v>0.02606863419706634</v>
       </c>
       <c r="CD2" t="inlineStr">
         <is>
@@ -7812,10 +7812,10 @@
         <v>295.6000000000885</v>
       </c>
       <c r="CG2" t="n">
-        <v>137999.9999951876</v>
+        <v>137999.9999951881</v>
       </c>
       <c r="CH2" t="n">
-        <v>1.627145819755043</v>
+        <v>1.62714581975505</v>
       </c>
       <c r="CI2" t="n">
         <v>336973.3475828946</v>
@@ -7824,10 +7824,10 @@
         <v>421784.4310885896</v>
       </c>
       <c r="CK2" t="n">
-        <v>3782.91734772336</v>
+        <v>3782.917347723359</v>
       </c>
       <c r="CL2" t="n">
-        <v>-696445.9368987705</v>
+        <v>-696445.9368987699</v>
       </c>
       <c r="CM2" t="n">
         <v>717.8632360362554</v>
@@ -7842,37 +7842,37 @@
         <v>0.9995210660216021</v>
       </c>
       <c r="CQ2" t="n">
-        <v>344.8092213940488</v>
+        <v>344.8092213940487</v>
       </c>
       <c r="CR2" t="n">
-        <v>193456.8974370098</v>
+        <v>193456.8974370105</v>
       </c>
       <c r="CS2" t="n">
-        <v>5.169110087303055e-06</v>
+        <v>5.169110087303036e-06</v>
       </c>
       <c r="CT2" t="n">
-        <v>137934.6617460247</v>
+        <v>137934.6617460252</v>
       </c>
       <c r="CU2" t="n">
-        <v>7.249809346988306e-06</v>
+        <v>7.24980934698828e-06</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.003395798695745237</v>
+        <v>0.003395798695745238</v>
       </c>
       <c r="CW2" t="n">
         <v>1.832995174012118e-05</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.02606863419706635</v>
+        <v>0.02606863419706634</v>
       </c>
       <c r="CY2" t="n">
-        <v>137999.9999951876</v>
+        <v>137999.9999951881</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.627145819755043</v>
+        <v>1.62714581975505</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.627145819755043</v>
+        <v>1.62714581975505</v>
       </c>
       <c r="DB2" t="n">
         <v>336973.3475828946</v>
@@ -7881,7 +7881,7 @@
         <v>421784.4310885896</v>
       </c>
       <c r="DD2" t="n">
-        <v>3782.91734772336</v>
+        <v>3782.917347723359</v>
       </c>
       <c r="DE2" t="n">
         <v>717.8632360362554</v>
@@ -7890,7 +7890,7 @@
         <v>1006.821582550249</v>
       </c>
       <c r="DG2" t="n">
-        <v>344.8092213940488</v>
+        <v>344.8092213940487</v>
       </c>
       <c r="DH2" t="n">
         <v>0.9995210660216021</v>
@@ -7899,7 +7899,7 @@
         <v>1.832995174012118e-05</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.02606863419706635</v>
+        <v>0.02606863419706634</v>
       </c>
       <c r="DK2" t="inlineStr">
         <is>
@@ -7910,37 +7910,37 @@
         <v>1</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.01607522977162882</v>
+        <v>0.0160752297716175</v>
       </c>
       <c r="DN2" t="n">
-        <v>-1.810779379335246e-07</v>
+        <v>-1.810779379397664e-07</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.01379738282249345</v>
+        <v>0.01379738282249341</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.02509842428959957</v>
+        <v>0.02509842428960061</v>
       </c>
       <c r="DQ2" t="n">
         <v>0</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.05497085580578391</v>
+        <v>0.05497085580577357</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.05497085575751014</v>
+        <v>-0.05497085580577357</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.8510013742399626</v>
+        <v>0.851001374219889</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.8510013742399626</v>
+        <v>0.851001374219889</v>
       </c>
       <c r="DV2" t="n">
-        <v>505828.833855576</v>
+        <v>505828.8338498881</v>
       </c>
       <c r="DW2" t="n">
-        <v>2.79080543178929</v>
+        <v>2.790805431770627</v>
       </c>
       <c r="DX2" t="n">
         <v>421784.4310884894</v>
@@ -7949,166 +7949,166 @@
         <v>0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>1509.720682851854</v>
+        <v>1509.720684051514</v>
       </c>
       <c r="EA2" t="n">
         <v>0</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.006627777970247791</v>
+        <v>0.006627777975076455</v>
       </c>
       <c r="EC2" t="n">
-        <v>-7.674187034202614e-08</v>
+        <v>-7.674187040325745e-08</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.01074875075059981</v>
+        <v>0.0107487507589006</v>
       </c>
       <c r="EE2" t="n">
         <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.005847480532662639</v>
+        <v>0.005847480537110164</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.0260738960300522</v>
+        <v>0.02607389602876673</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.002221780598053799</v>
+        <v>0.002221780596656373</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.01178846742606312</v>
+        <v>0.01178846742615993</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.03262518113021574</v>
+        <v>0.03262518112934391</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.04229027499554447</v>
+        <v>0.04229027499397901</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.1149996001799293</v>
+        <v>0.114999600174906</v>
       </c>
       <c r="EM2" t="n">
-        <v>-7.561479220541401e-12</v>
+        <v>-6.981901168323645e-12</v>
       </c>
       <c r="EN2" t="n">
         <v>165.3032</v>
       </c>
       <c r="EO2" t="n">
-        <v>132.0703461818253</v>
+        <v>132.0703461818481</v>
       </c>
       <c r="EP2" t="n">
-        <v>120.6414700990293</v>
+        <v>120.6414700990431</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-53.74208809612992</v>
+        <v>-53.74208809615493</v>
       </c>
       <c r="ER2" t="n">
-        <v>-24.01151114216649</v>
+        <v>-24.01151114217397</v>
       </c>
       <c r="ES2" t="n">
-        <v>250.0703951785808</v>
+        <v>250.0703951786093</v>
       </c>
       <c r="ET2" t="n">
-        <v>120.6414700990293</v>
+        <v>120.6414700990431</v>
       </c>
       <c r="EU2" t="n">
-        <v>-219.0452880961299</v>
+        <v>-219.0452880961549</v>
       </c>
       <c r="EV2" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="EW2" t="n">
-        <v>236.9136066839527</v>
+        <v>236.9136066848488</v>
       </c>
       <c r="EX2" t="n">
-        <v>62420.87548250058</v>
+        <v>62420.87548237953</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.918570206254728</v>
+        <v>0.9185702062494592</v>
       </c>
       <c r="EZ2" t="n">
-        <v>295034.0214274861</v>
+        <v>295034.0214281289</v>
       </c>
       <c r="FA2" t="n">
-        <v>362988.4086452124</v>
+        <v>362988.4086461133</v>
       </c>
       <c r="FB2" t="n">
-        <v>3788.783891572444</v>
+        <v>3788.783891576802</v>
       </c>
       <c r="FC2" t="n">
-        <v>-534626.0480532771</v>
+        <v>-534626.0480568042</v>
       </c>
       <c r="FD2" t="n">
-        <v>716.044456807906</v>
+        <v>716.0444568079171</v>
       </c>
       <c r="FE2" t="n">
-        <v>1004.555855530269</v>
+        <v>1004.555855530264</v>
       </c>
       <c r="FF2" t="n">
-        <v>1.402923863147455</v>
+        <v>1.402923863147426</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.9992433487767295</v>
+        <v>0.9992433487767434</v>
       </c>
       <c r="FH2" t="n">
-        <v>308.6467825568907</v>
+        <v>308.6467825574756</v>
       </c>
       <c r="FI2" t="n">
-        <v>87505.60326448605</v>
+        <v>87505.60326431577</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.142783962048117e-05</v>
+        <v>1.142783962050341e-05</v>
       </c>
       <c r="FK2" t="n">
-        <v>62373.73642513109</v>
+        <v>62373.736425011</v>
       </c>
       <c r="FL2" t="n">
-        <v>1.603238890779499e-05</v>
+        <v>1.603238890782586e-05</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.004234886576984875</v>
+        <v>0.004234886576968679</v>
       </c>
       <c r="FN2" t="n">
-        <v>1.534551064528071e-05</v>
+        <v>1.534551064532819e-05</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.0215106706060391</v>
+        <v>0.02151067060611077</v>
       </c>
       <c r="FP2" t="n">
-        <v>62420.87548250058</v>
+        <v>62420.87548237953</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.918570206254728</v>
+        <v>0.9185702062494592</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.918570206254728</v>
+        <v>0.9185702062494592</v>
       </c>
       <c r="FS2" t="n">
-        <v>295034.0214274861</v>
+        <v>295034.0214281289</v>
       </c>
       <c r="FT2" t="n">
-        <v>362988.4086452124</v>
+        <v>362988.4086461133</v>
       </c>
       <c r="FU2" t="n">
-        <v>3788.783891572444</v>
+        <v>3788.783891576802</v>
       </c>
       <c r="FV2" t="n">
-        <v>716.044456807906</v>
+        <v>716.0444568079171</v>
       </c>
       <c r="FW2" t="n">
-        <v>1004.555855530269</v>
+        <v>1004.555855530264</v>
       </c>
       <c r="FX2" t="n">
-        <v>308.6467825568907</v>
+        <v>308.6467825574756</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.9992433487767295</v>
+        <v>0.9992433487767434</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1.534551064528071e-05</v>
+        <v>1.534551064532819e-05</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.0215106706060391</v>
+        <v>0.02151067060611077</v>
       </c>
       <c r="GB2" t="inlineStr">
         <is>
@@ -8119,97 +8119,97 @@
         <v>1</v>
       </c>
       <c r="GD2" t="n">
-        <v>245.6233998719747</v>
+        <v>245.6233998730733</v>
       </c>
       <c r="GE2" t="n">
-        <v>70805.41930789572</v>
+        <v>70805.41930792959</v>
       </c>
       <c r="GF2" t="n">
-        <v>1.004980274764218</v>
+        <v>1.004980274760189</v>
       </c>
       <c r="GG2" t="n">
-        <v>301255.1604570611</v>
+        <v>301255.160457849</v>
       </c>
       <c r="GH2" t="n">
-        <v>371709.6968155061</v>
+        <v>371709.6968166102</v>
       </c>
       <c r="GI2" t="n">
-        <v>3788.783891564531</v>
+        <v>3788.783891568888</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-558904.2840107449</v>
+        <v>-558904.2840148737</v>
       </c>
       <c r="GK2" t="n">
-        <v>716.2078264161166</v>
+        <v>716.2078264161347</v>
       </c>
       <c r="GL2" t="n">
-        <v>1004.778332387539</v>
+        <v>1004.778332387541</v>
       </c>
       <c r="GM2" t="n">
-        <v>1.402914482819073</v>
+        <v>1.402914482819041</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.9992703300967103</v>
+        <v>0.9992703300967251</v>
       </c>
       <c r="GO2" t="n">
-        <v>314.2765528741238</v>
+        <v>314.2765528748276</v>
       </c>
       <c r="GP2" t="n">
-        <v>99261.65218823402</v>
+        <v>99261.65218828067</v>
       </c>
       <c r="GQ2" t="n">
-        <v>1.007438399376688e-05</v>
+        <v>1.007438399376215e-05</v>
       </c>
       <c r="GR2" t="n">
-        <v>70753.88657245424</v>
+        <v>70753.88657248912</v>
       </c>
       <c r="GS2" t="n">
-        <v>1.413349921033621e-05</v>
+        <v>1.413349921032925e-05</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.004085025008028762</v>
+        <v>0.004085025008010319</v>
       </c>
       <c r="GU2" t="n">
-        <v>1.580534532948441e-05</v>
+        <v>1.580534532954185e-05</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.02220721764171745</v>
+        <v>0.02220721764180443</v>
       </c>
       <c r="GW2" t="n">
-        <v>70805.41930789572</v>
+        <v>70805.41930792959</v>
       </c>
       <c r="GX2" t="n">
-        <v>1.004980274764218</v>
+        <v>1.004980274760189</v>
       </c>
       <c r="GY2" t="n">
-        <v>1.004980274764218</v>
+        <v>1.004980274760189</v>
       </c>
       <c r="GZ2" t="n">
-        <v>301255.1604570611</v>
+        <v>301255.160457849</v>
       </c>
       <c r="HA2" t="n">
-        <v>371709.6968155061</v>
+        <v>371709.6968166102</v>
       </c>
       <c r="HB2" t="n">
-        <v>3788.783891564531</v>
+        <v>3788.783891568888</v>
       </c>
       <c r="HC2" t="n">
-        <v>716.2078264161166</v>
+        <v>716.2078264161347</v>
       </c>
       <c r="HD2" t="n">
-        <v>1004.778332387539</v>
+        <v>1004.778332387541</v>
       </c>
       <c r="HE2" t="n">
-        <v>314.2765528741238</v>
+        <v>314.2765528748276</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.9992703300967103</v>
+        <v>0.9992703300967251</v>
       </c>
       <c r="HG2" t="n">
-        <v>1.580534532948441e-05</v>
+        <v>1.580534532954185e-05</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.02220721764171745</v>
+        <v>0.02220721764180443</v>
       </c>
       <c r="HI2" t="inlineStr">
         <is>
@@ -8220,97 +8220,97 @@
         <v>1</v>
       </c>
       <c r="HK2" t="n">
-        <v>268.1325478431922</v>
+        <v>268.132547844194</v>
       </c>
       <c r="HL2" t="n">
-        <v>96169.14342755642</v>
+        <v>96169.14342735495</v>
       </c>
       <c r="HM2" t="n">
-        <v>1.250276210437096</v>
+        <v>1.250276210429788</v>
       </c>
       <c r="HN2" t="n">
-        <v>317337.6916892919</v>
+        <v>317337.6916900111</v>
       </c>
       <c r="HO2" t="n">
-        <v>394256.0099174982</v>
+        <v>394256.009918506</v>
       </c>
       <c r="HP2" t="n">
-        <v>3788.783891571194</v>
+        <v>3788.783891575552</v>
       </c>
       <c r="HQ2" t="n">
-        <v>-621640.268156731</v>
+        <v>-621640.2681606873</v>
       </c>
       <c r="HR2" t="n">
-        <v>716.7853702994541</v>
+        <v>716.7853702994807</v>
       </c>
       <c r="HS2" t="n">
-        <v>1005.511312851209</v>
+        <v>1005.511312851217</v>
       </c>
       <c r="HT2" t="n">
-        <v>1.402806690140917</v>
+        <v>1.402806690140876</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.9993647230925822</v>
+        <v>0.9993647230925967</v>
       </c>
       <c r="HV2" t="n">
-        <v>328.3798436110627</v>
+        <v>328.3798436116762</v>
       </c>
       <c r="HW2" t="n">
-        <v>134821.4368014501</v>
+        <v>134821.4368011657</v>
       </c>
       <c r="HX2" t="n">
-        <v>7.417218090270675e-06</v>
+        <v>7.41721809028632e-06</v>
       </c>
       <c r="HY2" t="n">
-        <v>96108.35031582773</v>
+        <v>96108.35031562779</v>
       </c>
       <c r="HZ2" t="n">
-        <v>1.040492315926594e-05</v>
+        <v>1.040492315928759e-05</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.003742747758414963</v>
+        <v>0.003742747758400805</v>
       </c>
       <c r="IB2" t="n">
-        <v>1.696534104366487e-05</v>
+        <v>1.69653410437154e-05</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.02397353035652419</v>
+        <v>0.02397353035660124</v>
       </c>
       <c r="ID2" t="n">
-        <v>96169.14342755642</v>
+        <v>96169.14342735495</v>
       </c>
       <c r="IE2" t="n">
-        <v>1.250276210437096</v>
+        <v>1.250276210429788</v>
       </c>
       <c r="IF2" t="n">
-        <v>1.250276210437096</v>
+        <v>1.250276210429788</v>
       </c>
       <c r="IG2" t="n">
-        <v>317337.6916892919</v>
+        <v>317337.6916900111</v>
       </c>
       <c r="IH2" t="n">
-        <v>394256.0099174982</v>
+        <v>394256.009918506</v>
       </c>
       <c r="II2" t="n">
-        <v>3788.783891571194</v>
+        <v>3788.783891575552</v>
       </c>
       <c r="IJ2" t="n">
-        <v>716.7853702994541</v>
+        <v>716.7853702994807</v>
       </c>
       <c r="IK2" t="n">
-        <v>1005.511312851209</v>
+        <v>1005.511312851217</v>
       </c>
       <c r="IL2" t="n">
-        <v>328.3798436110627</v>
+        <v>328.3798436116762</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.9993647230925822</v>
+        <v>0.9993647230925967</v>
       </c>
       <c r="IN2" t="n">
-        <v>1.696534104366487e-05</v>
+        <v>1.69653410437154e-05</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.02397353035652419</v>
+        <v>0.02397353035660124</v>
       </c>
       <c r="IP2" t="inlineStr">
         <is>
@@ -8321,64 +8321,64 @@
         <v>1</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.02589546160863865</v>
+        <v>0.02589546160736598</v>
       </c>
       <c r="IS2" t="n">
-        <v>0.00222937381014615</v>
+        <v>0.002229373808745562</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.01188913901088907</v>
+        <v>0.01188913901098997</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.03204945912042027</v>
+        <v>0.03204945911953596</v>
       </c>
       <c r="IV2" t="n">
-        <v>0.04286665274758036</v>
+        <v>0.04286665274612254</v>
       </c>
       <c r="IW2" t="n">
-        <v>0.1149300862976745</v>
+        <v>0.11493008629276</v>
       </c>
       <c r="IX2" t="n">
-        <v>-0.1149300862868831</v>
+        <v>-0.11493008629276</v>
       </c>
       <c r="IY2" t="n">
-        <v>0.4279012568597947</v>
+        <v>0.4279012568590576</v>
       </c>
       <c r="IZ2" t="n">
-        <v>0.81021546088039</v>
+        <v>0.8102154608789471</v>
       </c>
       <c r="JA2" t="n">
-        <v>390092.5910941746</v>
+        <v>390092.5910907744</v>
       </c>
       <c r="JB2" t="n">
-        <v>2.790805431850623</v>
+        <v>2.790805431834934</v>
       </c>
       <c r="JC2" t="n">
-        <v>380593.4359523782</v>
+        <v>380593.4359534862</v>
       </c>
       <c r="JD2" t="n">
         <v>0</v>
       </c>
       <c r="JE2" t="n">
-        <v>2673.602138465852</v>
+        <v>2673.602138614282</v>
       </c>
       <c r="JF2" t="n">
-        <v>6.664338492751227</v>
+        <v>6.664338490549198</v>
       </c>
       <c r="JG2" t="n">
-        <v>0.009324929023230986</v>
+        <v>0.009324929023343991</v>
       </c>
       <c r="JH2" t="n">
-        <v>0.0007945857557368611</v>
+        <v>0.000794585755285896</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.01166789566310576</v>
+        <v>0.01166789566351061</v>
       </c>
       <c r="JJ2" t="n">
-        <v>0.01512446825176601</v>
+        <v>0.01512446825213508</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.004215964576755619</v>
+        <v>0.004215964577049184</v>
       </c>
     </row>
     <row r="3">
@@ -8386,145 +8386,145 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01561192565410023</v>
+        <v>0.01561192565311725</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.824277019609385e-07</v>
+        <v>-1.824277019747002e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0137798123650324</v>
+        <v>0.01377981236499877</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0253340451530291</v>
+        <v>0.02533404515348691</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05472560074445977</v>
+        <v>0.05472560074390097</v>
       </c>
       <c r="H3" t="n">
-        <v>-9.93580218100476e-14</v>
+        <v>-2.156469447456288e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>278.0073547227532</v>
+        <v>278.0073547097061</v>
       </c>
       <c r="K3" t="n">
-        <v>113.595385894338</v>
+        <v>113.5953858890069</v>
       </c>
       <c r="L3" t="n">
-        <v>253.7403743661209</v>
+        <v>253.7403743542126</v>
       </c>
       <c r="M3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="N3" t="n">
-        <v>278.0073547227532</v>
+        <v>278.0073547097061</v>
       </c>
       <c r="O3" t="n">
-        <v>113.595385894338</v>
+        <v>113.5953858890069</v>
       </c>
       <c r="P3" t="n">
-        <v>253.7403743661209</v>
+        <v>253.7403743542126</v>
       </c>
       <c r="Q3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="R3" t="n">
-        <v>257.042066663145</v>
+        <v>257.0420666665661</v>
       </c>
       <c r="S3" t="n">
-        <v>84687.59710221463</v>
+        <v>84687.59710615034</v>
       </c>
       <c r="T3" t="n">
-        <v>1.148586371851311</v>
+        <v>1.148586371889386</v>
       </c>
       <c r="U3" t="n">
-        <v>309408.3631740308</v>
+        <v>309408.3631764752</v>
       </c>
       <c r="V3" t="n">
-        <v>383140.3864486181</v>
+        <v>383140.3864520449</v>
       </c>
       <c r="W3" t="n">
         <v>3782.917347718243</v>
       </c>
       <c r="X3" t="n">
-        <v>-589228.5066247421</v>
+        <v>-589228.5066342573</v>
       </c>
       <c r="Y3" t="n">
-        <v>716.4769681993747</v>
+        <v>716.4769681994625</v>
       </c>
       <c r="Z3" t="n">
-        <v>1005.158877009308</v>
+        <v>1005.15887700942</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.402918616540374</v>
+        <v>1.402918616540358</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.9992996080680464</v>
+        <v>0.9992996080680611</v>
       </c>
       <c r="AC3" t="n">
-        <v>321.5087000057066</v>
+        <v>321.5087000078491</v>
       </c>
       <c r="AD3" t="n">
-        <v>118726.8971120621</v>
+        <v>118726.8971175802</v>
       </c>
       <c r="AE3" t="n">
-        <v>8.422691271516472e-06</v>
+        <v>8.422691271125013e-06</v>
       </c>
       <c r="AF3" t="n">
-        <v>84628.49926736673</v>
+        <v>84628.49927130094</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.181635038618257e-05</v>
+        <v>1.181635038563325e-05</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.003904192220047245</v>
+        <v>0.003904192219995387</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.639904245959804e-05</v>
+        <v>1.639904245977428e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.02310982003023106</v>
+        <v>0.02310982003049946</v>
       </c>
       <c r="AK3" t="n">
-        <v>84687.59710221463</v>
+        <v>84687.59710615034</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.148586371851311</v>
+        <v>1.148586371889386</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.148586371851311</v>
+        <v>1.148586371889386</v>
       </c>
       <c r="AN3" t="n">
-        <v>309408.3631740308</v>
+        <v>309408.3631764752</v>
       </c>
       <c r="AO3" t="n">
-        <v>383140.3864486181</v>
+        <v>383140.3864520449</v>
       </c>
       <c r="AP3" t="n">
         <v>3782.917347718243</v>
       </c>
       <c r="AQ3" t="n">
-        <v>716.4769681993747</v>
+        <v>716.4769681994625</v>
       </c>
       <c r="AR3" t="n">
-        <v>1005.158877009308</v>
+        <v>1005.15887700942</v>
       </c>
       <c r="AS3" t="n">
-        <v>321.5087000057066</v>
+        <v>321.5087000078491</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.9992996080680464</v>
+        <v>0.9992996080680611</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.639904245959804e-05</v>
+        <v>1.639904245977428e-05</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.02310982003023106</v>
+        <v>0.02310982003049946</v>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
@@ -8737,37 +8737,37 @@
         <v>1</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.01607888984664742</v>
+        <v>0.01607888984657418</v>
       </c>
       <c r="DN3" t="n">
-        <v>-1.826635900963838e-07</v>
+        <v>-1.826635901105562e-07</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.01379745678869783</v>
+        <v>0.0137974567886981</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.02509665026847635</v>
+        <v>0.02509665026846983</v>
       </c>
       <c r="DQ3" t="n">
         <v>0</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.0549728142402315</v>
+        <v>0.054972814240152</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0.05497281419306969</v>
+        <v>-0.054972814240152</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.8646962110755284</v>
+        <v>0.8646962110291853</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.8646962110755284</v>
+        <v>0.8646962110291853</v>
       </c>
       <c r="DV3" t="n">
-        <v>509376.8386562167</v>
+        <v>509376.838643722</v>
       </c>
       <c r="DW3" t="n">
-        <v>2.801075364069303</v>
+        <v>2.801075364030698</v>
       </c>
       <c r="DX3" t="n">
         <v>421784.4310884894</v>
@@ -8776,166 +8776,166 @@
         <v>0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>1538.279510077613</v>
+        <v>1538.279511297646</v>
       </c>
       <c r="EA3" t="n">
         <v>0</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.00644929990897364</v>
+        <v>0.006449299916950106</v>
       </c>
       <c r="EC3" t="n">
-        <v>-7.536104050956411e-08</v>
+        <v>-7.536104061320026e-08</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.0104655158318957</v>
+        <v>0.01046551584568747</v>
       </c>
       <c r="EE3" t="n">
         <v>0</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.005692452334228026</v>
+        <v>0.005692452341612953</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.02693962188780752</v>
+        <v>0.02693962188409724</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.002766125131425959</v>
+        <v>0.002766125128198385</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.01174717696683481</v>
+        <v>0.01174717696701128</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.03296430785492225</v>
+        <v>0.03296430785326795</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.04275610682293819</v>
+        <v>0.04275610681975486</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.1171733386639287</v>
+        <v>0.1171733386523297</v>
       </c>
       <c r="EM3" t="n">
-        <v>1.048572340067722e-11</v>
+        <v>2.946490273991742e-12</v>
       </c>
       <c r="EN3" t="n">
         <v>165.3032</v>
       </c>
       <c r="EO3" t="n">
-        <v>138.6446015411038</v>
+        <v>138.6446015433664</v>
       </c>
       <c r="EP3" t="n">
-        <v>124.5676052473967</v>
+        <v>124.5676052487311</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-60.87066008694319</v>
+        <v>-60.870660089366</v>
       </c>
       <c r="ER3" t="n">
-        <v>-26.04270713302939</v>
+        <v>-26.04270713368686</v>
       </c>
       <c r="ES3" t="n">
-        <v>258.2086428911693</v>
+        <v>258.2086428939353</v>
       </c>
       <c r="ET3" t="n">
-        <v>124.5676052473967</v>
+        <v>124.5676052487311</v>
       </c>
       <c r="EU3" t="n">
-        <v>-226.1738600869432</v>
+        <v>-226.173860089366</v>
       </c>
       <c r="EV3" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="EW3" t="n">
-        <v>234.2758147183421</v>
+        <v>234.2758147201345</v>
       </c>
       <c r="EX3" t="n">
-        <v>59999.97848272046</v>
+        <v>59999.97848334451</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.8928923345260584</v>
+        <v>0.8928923345284984</v>
       </c>
       <c r="EZ3" t="n">
-        <v>293150.1478797143</v>
+        <v>293150.147880997</v>
       </c>
       <c r="FA3" t="n">
-        <v>360347.4752199339</v>
+        <v>360347.4752217319</v>
       </c>
       <c r="FB3" t="n">
-        <v>3788.919886555309</v>
+        <v>3788.919886560001</v>
       </c>
       <c r="FC3" t="n">
-        <v>-527304.8181053394</v>
+        <v>-527304.818111432</v>
       </c>
       <c r="FD3" t="n">
-        <v>716.0006319736767</v>
+        <v>716.0006319737008</v>
       </c>
       <c r="FE3" t="n">
-        <v>1004.49357621828</v>
+        <v>1004.493576218292</v>
       </c>
       <c r="FF3" t="n">
-        <v>1.402922750849205</v>
+        <v>1.402922750849175</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.9992365543642836</v>
+        <v>0.9992365543643007</v>
       </c>
       <c r="FH3" t="n">
-        <v>306.9215135799394</v>
+        <v>306.9215135811156</v>
       </c>
       <c r="FI3" t="n">
-        <v>84111.18606444713</v>
+        <v>84111.18606532163</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1.188902507252467e-05</v>
+        <v>1.188902507240107e-05</v>
       </c>
       <c r="FK3" t="n">
-        <v>59954.25337106672</v>
+        <v>59954.25337169132</v>
       </c>
       <c r="FL3" t="n">
-        <v>1.667938375966148e-05</v>
+        <v>1.667938375948772e-05</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.00428246100774862</v>
+        <v>0.004282461007715696</v>
       </c>
       <c r="FN3" t="n">
-        <v>1.520497864508107e-05</v>
+        <v>1.520497864517661e-05</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.02129820211863093</v>
+        <v>0.02129820211877514</v>
       </c>
       <c r="FP3" t="n">
-        <v>59999.97848272046</v>
+        <v>59999.97848334451</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.8928923345260584</v>
+        <v>0.8928923345284984</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.8928923345260584</v>
+        <v>0.8928923345284984</v>
       </c>
       <c r="FS3" t="n">
-        <v>293150.1478797143</v>
+        <v>293150.147880997</v>
       </c>
       <c r="FT3" t="n">
-        <v>360347.4752199339</v>
+        <v>360347.4752217319</v>
       </c>
       <c r="FU3" t="n">
-        <v>3788.919886555309</v>
+        <v>3788.919886560001</v>
       </c>
       <c r="FV3" t="n">
-        <v>716.0006319736767</v>
+        <v>716.0006319737008</v>
       </c>
       <c r="FW3" t="n">
-        <v>1004.49357621828</v>
+        <v>1004.493576218292</v>
       </c>
       <c r="FX3" t="n">
-        <v>306.9215135799394</v>
+        <v>306.9215135811156</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.9992365543642836</v>
+        <v>0.9992365543643007</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1.520497864508107e-05</v>
+        <v>1.520497864517661e-05</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.02129820211863093</v>
+        <v>0.02129820211877514</v>
       </c>
       <c r="GB3" t="inlineStr">
         <is>
@@ -8946,97 +8946,97 @@
         <v>1</v>
       </c>
       <c r="GD3" t="n">
-        <v>243.8746425921048</v>
+        <v>243.8746425940102</v>
       </c>
       <c r="GE3" t="n">
-        <v>69028.44858544775</v>
+        <v>69028.44858620506</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.9867897489365784</v>
+        <v>0.986789748939677</v>
       </c>
       <c r="GG3" t="n">
-        <v>300006.0987975992</v>
+        <v>300006.0987989631</v>
       </c>
       <c r="GH3" t="n">
-        <v>369958.6379882796</v>
+        <v>369958.6379901913</v>
       </c>
       <c r="GI3" t="n">
-        <v>3788.919886561566</v>
+        <v>3788.919886566258</v>
       </c>
       <c r="GJ3" t="n">
-        <v>-554062.8451570406</v>
+        <v>-554062.8451634924</v>
       </c>
       <c r="GK3" t="n">
-        <v>716.1724365116561</v>
+        <v>716.1724365116893</v>
       </c>
       <c r="GL3" t="n">
-        <v>1004.730309428899</v>
+        <v>1004.73030942892</v>
       </c>
       <c r="GM3" t="n">
-        <v>1.40291675329304</v>
+        <v>1.402916753293005</v>
       </c>
       <c r="GN3" t="n">
-        <v>0.9992648418853525</v>
+        <v>0.9992648418853707</v>
       </c>
       <c r="GO3" t="n">
-        <v>313.1543021801103</v>
+        <v>313.1543021813355</v>
       </c>
       <c r="GP3" t="n">
-        <v>96770.14555299716</v>
+        <v>96770.14555405818</v>
       </c>
       <c r="GQ3" t="n">
-        <v>1.03337655873664e-05</v>
+        <v>1.03337655872531e-05</v>
       </c>
       <c r="GR3" t="n">
-        <v>68977.82446880786</v>
+        <v>68977.82446956588</v>
       </c>
       <c r="GS3" t="n">
-        <v>1.449741286711942e-05</v>
+        <v>1.44974128669601e-05</v>
       </c>
       <c r="GT3" t="n">
-        <v>0.004114250297845455</v>
+        <v>0.004114250297813152</v>
       </c>
       <c r="GU3" t="n">
-        <v>1.571352198244906e-05</v>
+        <v>1.571352198254906e-05</v>
       </c>
       <c r="GV3" t="n">
-        <v>0.02206795606646116</v>
+        <v>0.02206795606661261</v>
       </c>
       <c r="GW3" t="n">
-        <v>69028.44858544775</v>
+        <v>69028.44858620506</v>
       </c>
       <c r="GX3" t="n">
-        <v>0.9867897489365784</v>
+        <v>0.986789748939677</v>
       </c>
       <c r="GY3" t="n">
-        <v>0.9867897489365784</v>
+        <v>0.986789748939677</v>
       </c>
       <c r="GZ3" t="n">
-        <v>300006.0987975992</v>
+        <v>300006.0987989631</v>
       </c>
       <c r="HA3" t="n">
-        <v>369958.6379882796</v>
+        <v>369958.6379901913</v>
       </c>
       <c r="HB3" t="n">
-        <v>3788.919886561566</v>
+        <v>3788.919886566258</v>
       </c>
       <c r="HC3" t="n">
-        <v>716.1724365116561</v>
+        <v>716.1724365116893</v>
       </c>
       <c r="HD3" t="n">
-        <v>1004.730309428899</v>
+        <v>1004.73030942892</v>
       </c>
       <c r="HE3" t="n">
-        <v>313.1543021801103</v>
+        <v>313.1543021813355</v>
       </c>
       <c r="HF3" t="n">
-        <v>0.9992648418853525</v>
+        <v>0.9992648418853707</v>
       </c>
       <c r="HG3" t="n">
-        <v>1.571352198244906e-05</v>
+        <v>1.571352198254906e-05</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.02206795606646116</v>
+        <v>0.02206795606661261</v>
       </c>
       <c r="HI3" t="inlineStr">
         <is>
@@ -9047,97 +9047,97 @@
         <v>1</v>
       </c>
       <c r="HK3" t="n">
-        <v>267.560846998257</v>
+        <v>267.5608470003602</v>
       </c>
       <c r="HL3" t="n">
-        <v>95409.78892308639</v>
+        <v>95409.78892415046</v>
       </c>
       <c r="HM3" t="n">
-        <v>1.243057550887587</v>
+        <v>1.243057550891653</v>
       </c>
       <c r="HN3" t="n">
-        <v>316929.2064534871</v>
+        <v>316929.2064549936</v>
       </c>
       <c r="HO3" t="n">
-        <v>393683.3268519839</v>
+        <v>393683.3268540953</v>
       </c>
       <c r="HP3" t="n">
-        <v>3788.919886559828</v>
+        <v>3788.91988656452</v>
       </c>
       <c r="HQ3" t="n">
-        <v>-620083.2872045034</v>
+        <v>-620083.2872116163</v>
       </c>
       <c r="HR3" t="n">
-        <v>716.7674741389436</v>
+        <v>716.7674741390033</v>
       </c>
       <c r="HS3" t="n">
-        <v>1005.488635078781</v>
+        <v>1005.488635078828</v>
       </c>
       <c r="HT3" t="n">
-        <v>1.402810076289635</v>
+        <v>1.402810076289584</v>
       </c>
       <c r="HU3" t="n">
-        <v>0.9993621730097696</v>
+        <v>0.9993621730097905</v>
       </c>
       <c r="HV3" t="n">
-        <v>328.0291303256178</v>
+        <v>328.0291303269079</v>
       </c>
       <c r="HW3" t="n">
-        <v>133756.8588098385</v>
+        <v>133756.8588113281</v>
       </c>
       <c r="HX3" t="n">
-        <v>7.476252125670022e-06</v>
+        <v>7.476252125586762e-06</v>
       </c>
       <c r="HY3" t="n">
-        <v>95349.2287164196</v>
+        <v>95349.22871748492</v>
       </c>
       <c r="HZ3" t="n">
-        <v>1.048776181477171e-05</v>
+        <v>1.048776181465453e-05</v>
       </c>
       <c r="IA3" t="n">
-        <v>0.003750723525142484</v>
+        <v>0.003750723525112841</v>
       </c>
       <c r="IB3" t="n">
-        <v>1.693635799610591e-05</v>
+        <v>1.693635799621231e-05</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.02392923167040509</v>
+        <v>0.0239292316705675</v>
       </c>
       <c r="ID3" t="n">
-        <v>95409.78892308639</v>
+        <v>95409.78892415046</v>
       </c>
       <c r="IE3" t="n">
-        <v>1.243057550887587</v>
+        <v>1.243057550891653</v>
       </c>
       <c r="IF3" t="n">
-        <v>1.243057550887587</v>
+        <v>1.243057550891653</v>
       </c>
       <c r="IG3" t="n">
-        <v>316929.2064534871</v>
+        <v>316929.2064549936</v>
       </c>
       <c r="IH3" t="n">
-        <v>393683.3268519839</v>
+        <v>393683.3268540953</v>
       </c>
       <c r="II3" t="n">
-        <v>3788.919886559828</v>
+        <v>3788.91988656452</v>
       </c>
       <c r="IJ3" t="n">
-        <v>716.7674741389436</v>
+        <v>716.7674741390033</v>
       </c>
       <c r="IK3" t="n">
-        <v>1005.488635078781</v>
+        <v>1005.488635078828</v>
       </c>
       <c r="IL3" t="n">
-        <v>328.0291303256178</v>
+        <v>328.0291303269079</v>
       </c>
       <c r="IM3" t="n">
-        <v>0.9993621730097696</v>
+        <v>0.9993621730097905</v>
       </c>
       <c r="IN3" t="n">
-        <v>1.693635799610591e-05</v>
+        <v>1.693635799621231e-05</v>
       </c>
       <c r="IO3" t="n">
-        <v>0.02392923167040509</v>
+        <v>0.0239292316705675</v>
       </c>
       <c r="IP3" t="inlineStr">
         <is>
@@ -9148,64 +9148,64 @@
         <v>1</v>
       </c>
       <c r="IR3" t="n">
-        <v>0.02671664060560636</v>
+        <v>0.02671664060160873</v>
       </c>
       <c r="IS3" t="n">
-        <v>0.002776408418249965</v>
+        <v>0.002776408415011858</v>
       </c>
       <c r="IT3" t="n">
-        <v>0.01185591895981899</v>
+        <v>0.01185591896001971</v>
       </c>
       <c r="IU3" t="n">
-        <v>0.0323388479031454</v>
+        <v>0.03233884790137494</v>
       </c>
       <c r="IV3" t="n">
-        <v>0.0433459173977836</v>
+        <v>0.0433459173949095</v>
       </c>
       <c r="IW3" t="n">
-        <v>0.1170337332846043</v>
+        <v>0.1170337332729248</v>
       </c>
       <c r="IX3" t="n">
-        <v>-0.1170337332364377</v>
+        <v>-0.1170337332729248</v>
       </c>
       <c r="IY3" t="n">
-        <v>0.4517265665868451</v>
+        <v>0.4517265665924859</v>
       </c>
       <c r="IZ3" t="n">
-        <v>0.8412855777994118</v>
+        <v>0.8412855778051999</v>
       </c>
       <c r="JA3" t="n">
-        <v>395146.797500692</v>
+        <v>395146.7975035217</v>
       </c>
       <c r="JB3" t="n">
-        <v>2.801075364019931</v>
+        <v>2.80107536405759</v>
       </c>
       <c r="JC3" t="n">
-        <v>380020.7528867636</v>
+        <v>380020.7528890758</v>
       </c>
       <c r="JD3" t="n">
         <v>0</v>
       </c>
       <c r="JE3" t="n">
-        <v>2843.394128125103</v>
+        <v>2843.394126573927</v>
       </c>
       <c r="JF3" t="n">
-        <v>7.380018007556508</v>
+        <v>7.38001800331385</v>
       </c>
       <c r="JG3" t="n">
-        <v>0.009607516404181048</v>
+        <v>0.009607516403337131</v>
       </c>
       <c r="JH3" t="n">
-        <v>0.0009864872152574675</v>
+        <v>0.0009864872141556256</v>
       </c>
       <c r="JI3" t="n">
-        <v>0.01175610889371747</v>
+        <v>0.01175610889371396</v>
       </c>
       <c r="JJ3" t="n">
-        <v>0.0152481723533844</v>
+        <v>0.0152481723530098</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.004189412749804129</v>
+        <v>0.004189412750076058</v>
       </c>
     </row>
   </sheetData>
@@ -9244,7 +9244,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3827762379398531</v>
+        <v>0.3827762379580084</v>
       </c>
     </row>
     <row r="3">
@@ -9252,7 +9252,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3927727307803455</v>
+        <v>0.3927727308246772</v>
       </c>
     </row>
   </sheetData>
@@ -9266,7 +9266,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS3"/>
+  <dimension ref="A1:CK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9500,6 +9500,226 @@
           <t>gauging_angle_1</t>
         </is>
       </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>cascade_type_2</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_in_2</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_out_2</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_in_2</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_out_2</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>pitch_2</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>chord_2</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>stagger_angle_2</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>opening_2</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_angle_2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_wedge_angle_2</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_diameter_2</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>trailing_edge_thickness_2</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>maximum_thickness_2</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>tip_clearance_2</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>throat_location_fraction_2</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>axial_chord_2</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_in_2</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_out_2</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_throat_2</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_throat_2</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_throat_2</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_in_2</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_out_2</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_throat_2</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_in_2</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_out_2</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_throat_2</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>A_in_2</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>A_out_2</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>A_throat_2</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>height_2</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>height_in_2</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>height_throat_2</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>height_out_2</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>flaring_angle_2</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>aspect_ratio_2</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>pitch_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>solidity_2</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>maximum_thickness_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>trailing_edge_thickness_opening_ratio_2</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>tip_clearance_height_ratio_2</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_diameter_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>gauging_angle_2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -9507,223 +9727,271 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['stator' 'rotor']</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.084785]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118415]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>[0.018294 0.01524 ]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>[0.02616 0.02606]</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>[ 43.03 -31.05]</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>[0.00747503 0.00735223]</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>[ 0.  29.6]</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>[50. 50.]</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>[0.00254 0.00162]</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>[0.0005 0.0005]</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>[0.00505 0.00447]</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>[0.     0.0003]</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>[1. 1.]</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>[0.01912287 0.02232606]</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118715]</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.71599882]</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02146844]</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02518376]</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>[0.00877213 0.0121494 ]</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03654]</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03363]</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>[0.         0.12961029]</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>[1.28555046 1.40214889]</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>[0.69931193 0.5848043 ]</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>[1.42997704 1.70997375]</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>[0.19304281 0.17152724]</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>[0.06688934 0.06800654]</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>[0.         0.00821018]</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>[0.0970948  0.06216424]</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>[ 65.88272377 -61.15576778]</t>
-        </is>
+          <t>stator</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.018294</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.02616</v>
+      </c>
+      <c r="I2" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.00747503242</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.00254</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.00505</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.01912286864605749</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.008772125764408025</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1.285550458715597</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.6993119266055047</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1.429977041653001</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.1930428134556575</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.06688934199966989</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.0970948012232416</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>65.88272377225761</v>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>rotor</t>
+        </is>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.01524</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.02606</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-31.05</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.00735223377</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.00162</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.00447</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.02232605854162319</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.118715</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.02518376069341265</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.01214940261323537</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.03654</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>7.426122439075676</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1.402148887183423</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.5848042977743668</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1.70997375328084</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.171527244819647</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.06800654272449773</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.008210180623973726</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.06216423637759017</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>-61.15576777799674</v>
       </c>
     </row>
     <row r="3">
@@ -9732,223 +10000,271 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['stator' 'rotor']</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.084785]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118415]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>[0.018294 0.01524 ]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>[0.02616 0.02606]</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[ 43.03 -31.05]</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>[0.00747503 0.00735223]</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>[ 0.  29.6]</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>[50. 50.]</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>[0.00254 0.00162]</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>[0.0005 0.0005]</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>[0.00505 0.00447]</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>[0.     0.0003]</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>[1. 1.]</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>[0.01912287 0.02232606]</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118715]</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.71599882]</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02146844]</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02518376]</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>[0.00877213 0.0121494 ]</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03654]</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03363]</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>[0.         0.12961029]</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>[1.28555046 1.40214889]</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>[0.69931193 0.5848043 ]</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>[1.42997704 1.70997375]</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>[0.19304281 0.17152724]</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>[0.06688934 0.06800654]</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>[0.         0.00821018]</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>[0.0970948  0.06216424]</t>
-        </is>
-      </c>
-      <c r="AS3" t="inlineStr">
-        <is>
-          <t>[ 65.88272377 -61.15576778]</t>
-        </is>
+          <t>stator</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.018294</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.02616</v>
+      </c>
+      <c r="I3" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.00747503242</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>50</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.00254</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.00505</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.01912286864605749</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.008772125764408025</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1.285550458715597</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.6993119266055047</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1.429977041653001</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.1930428134556575</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.06688934199966989</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.0970948012232416</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>65.88272377225761</v>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>rotor</t>
+        </is>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.01524</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.02606</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>-31.05</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.00735223377</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.00162</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.00447</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.02232605854162319</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.118715</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0.02518376069341265</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.01214940261323537</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.03654</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>7.426122439075676</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>1.402148887183423</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.5848042977743668</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>1.70997375328084</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0.171527244819647</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0.06800654272449773</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0.008210180623973726</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0.06216423637759017</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>-61.15576777799674</v>
       </c>
     </row>
   </sheetData>
@@ -10042,7 +10358,7 @@
         <v>31</v>
       </c>
       <c r="H2" t="n">
-        <v>2.044661449491323e-11</v>
+        <v>2.440448117039274e-11</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -10073,7 +10389,7 @@
         <v>28</v>
       </c>
       <c r="H3" t="n">
-        <v>1.056363372286597e-11</v>
+        <v>2.162688248957933e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>

--- a/tests/regression_data_windows/performance_analysis_evaluate_cascade_isentropic_throat_windows.xlsx
+++ b/tests/regression_data_windows/performance_analysis_evaluate_cascade_isentropic_throat_windows.xlsx
@@ -689,40 +689,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.014607956837605</v>
+        <v>2.014607956726567</v>
       </c>
       <c r="C2" t="n">
-        <v>2.299999999965688</v>
+        <v>2.299999999898287</v>
       </c>
       <c r="D2" t="n">
-        <v>2.790805431821088</v>
+        <v>2.790805432350554</v>
       </c>
       <c r="E2" t="n">
-        <v>92.46445086732538</v>
+        <v>92.4644508680141</v>
       </c>
       <c r="F2" t="n">
-        <v>78.962415438758</v>
+        <v>78.96241543684657</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1460240698118792</v>
+        <v>0.1460240698389119</v>
       </c>
       <c r="H2" t="n">
-        <v>-78.10843950856987</v>
+        <v>-78.10843950668549</v>
       </c>
       <c r="I2" t="n">
-        <v>138477.4854389683</v>
+        <v>138477.4854618879</v>
       </c>
       <c r="J2" t="n">
-        <v>85.11216068774945</v>
+        <v>85.11216070183647</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-22.108805306144</v>
+        <v>-22.10880529692902</v>
       </c>
       <c r="M2" t="n">
-        <v>135.4695893152596</v>
+        <v>135.4695893277991</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -737,13 +737,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R2" t="n">
-        <v>372165.2480885741</v>
+        <v>372165.2480897752</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7225683790723005</v>
+        <v>0.7225683791408426</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -760,40 +760,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.071046019568311</v>
+        <v>2.071046019639105</v>
       </c>
       <c r="C3" t="n">
-        <v>2.399999999878117</v>
+        <v>2.399999999877856</v>
       </c>
       <c r="D3" t="n">
-        <v>2.801075364150067</v>
+        <v>2.801075364102432</v>
       </c>
       <c r="E3" t="n">
-        <v>92.38751733575596</v>
+        <v>92.38751733911434</v>
       </c>
       <c r="F3" t="n">
-        <v>78.15169257515588</v>
+        <v>78.15169257830159</v>
       </c>
       <c r="G3" t="n">
-        <v>0.154088183892463</v>
+        <v>0.1540881838891637</v>
       </c>
       <c r="H3" t="n">
-        <v>-77.30578075904835</v>
+        <v>-77.30578076219075</v>
       </c>
       <c r="I3" t="n">
-        <v>143745.3889365044</v>
+        <v>143745.3889398458</v>
       </c>
       <c r="J3" t="n">
-        <v>88.34996246865666</v>
+        <v>88.34996247071038</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-23.97282605624575</v>
+        <v>-23.97282605814604</v>
       </c>
       <c r="M3" t="n">
-        <v>142.2541798786463</v>
+        <v>142.2541798771233</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -808,13 +808,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R3" t="n">
-        <v>370466.5012762581</v>
+        <v>370466.5012741925</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7111199635350104</v>
+        <v>0.7111199635289638</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -837,7 +837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:RI3"/>
+  <dimension ref="A1:RL3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1458,1777 +1458,1792 @@
       </c>
       <c r="DS1" s="1" t="inlineStr">
         <is>
+          <t>h_is_1</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
           <t>blade_speed_2</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>v_2</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>v_m_2</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>v_t_2</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>alpha_2</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>w_2</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>w_m_2</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>w_t_2</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>beta_2</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>T_2</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>p_2</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>rhomass_2</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>umass_2</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>hmass_2</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>smass_2</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>gibbsmass_2</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>cvmass_2</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>cpmass_2</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>gamma_2</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>compressibility_factor_2</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>speed_sound_2</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>isentropic_bulk_modulus_2</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>isentropic_compressibility_2</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>isothermal_bulk_modulus_2</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>isothermal_compressibility_2</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>isobaric_expansion_coefficient_2</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>viscosity_2</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>conductivity_2</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>P_2</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>rho_2</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>d_2</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>u_2</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>h_2</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>s_2</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>cv_2</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>cp_2</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>a_2</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>Z_2</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>mu_2</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>k_2</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>fluid_name_2</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>converged_2</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>T0_2</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>p0_2</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>rhomass0_2</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>umass0_2</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>hmass0_2</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>smass0_2</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
         <is>
           <t>gibbsmass0_2</t>
         </is>
       </c>
-      <c r="FP1" s="1" t="inlineStr">
+      <c r="FQ1" s="1" t="inlineStr">
         <is>
           <t>cvmass0_2</t>
         </is>
       </c>
-      <c r="FQ1" s="1" t="inlineStr">
+      <c r="FR1" s="1" t="inlineStr">
         <is>
           <t>cpmass0_2</t>
         </is>
       </c>
-      <c r="FR1" s="1" t="inlineStr">
+      <c r="FS1" s="1" t="inlineStr">
         <is>
           <t>gamma0_2</t>
         </is>
       </c>
-      <c r="FS1" s="1" t="inlineStr">
+      <c r="FT1" s="1" t="inlineStr">
         <is>
           <t>compressibility_factor0_2</t>
         </is>
       </c>
-      <c r="FT1" s="1" t="inlineStr">
+      <c r="FU1" s="1" t="inlineStr">
         <is>
           <t>speed_sound0_2</t>
         </is>
       </c>
-      <c r="FU1" s="1" t="inlineStr">
+      <c r="FV1" s="1" t="inlineStr">
         <is>
           <t>isentropic_bulk_modulus0_2</t>
         </is>
       </c>
-      <c r="FV1" s="1" t="inlineStr">
+      <c r="FW1" s="1" t="inlineStr">
         <is>
           <t>isentropic_compressibility0_2</t>
         </is>
       </c>
-      <c r="FW1" s="1" t="inlineStr">
+      <c r="FX1" s="1" t="inlineStr">
         <is>
           <t>isothermal_bulk_modulus0_2</t>
         </is>
       </c>
-      <c r="FX1" s="1" t="inlineStr">
+      <c r="FY1" s="1" t="inlineStr">
         <is>
           <t>isothermal_compressibility0_2</t>
         </is>
       </c>
-      <c r="FY1" s="1" t="inlineStr">
+      <c r="FZ1" s="1" t="inlineStr">
         <is>
           <t>isobaric_expansion_coefficient0_2</t>
         </is>
       </c>
-      <c r="FZ1" s="1" t="inlineStr">
+      <c r="GA1" s="1" t="inlineStr">
         <is>
           <t>viscosity0_2</t>
         </is>
       </c>
-      <c r="GA1" s="1" t="inlineStr">
+      <c r="GB1" s="1" t="inlineStr">
         <is>
           <t>conductivity0_2</t>
         </is>
       </c>
-      <c r="GB1" s="1" t="inlineStr">
+      <c r="GC1" s="1" t="inlineStr">
         <is>
           <t>P0_2</t>
         </is>
       </c>
-      <c r="GC1" s="1" t="inlineStr">
+      <c r="GD1" s="1" t="inlineStr">
         <is>
           <t>rho0_2</t>
         </is>
       </c>
-      <c r="GD1" s="1" t="inlineStr">
+      <c r="GE1" s="1" t="inlineStr">
         <is>
           <t>d0_2</t>
         </is>
       </c>
-      <c r="GE1" s="1" t="inlineStr">
+      <c r="GF1" s="1" t="inlineStr">
         <is>
           <t>u0_2</t>
         </is>
       </c>
-      <c r="GF1" s="1" t="inlineStr">
+      <c r="GG1" s="1" t="inlineStr">
         <is>
           <t>h0_2</t>
         </is>
       </c>
-      <c r="GG1" s="1" t="inlineStr">
+      <c r="GH1" s="1" t="inlineStr">
         <is>
           <t>s0_2</t>
         </is>
       </c>
-      <c r="GH1" s="1" t="inlineStr">
+      <c r="GI1" s="1" t="inlineStr">
         <is>
           <t>cv0_2</t>
         </is>
       </c>
-      <c r="GI1" s="1" t="inlineStr">
+      <c r="GJ1" s="1" t="inlineStr">
         <is>
           <t>cp0_2</t>
         </is>
       </c>
-      <c r="GJ1" s="1" t="inlineStr">
+      <c r="GK1" s="1" t="inlineStr">
         <is>
           <t>a0_2</t>
         </is>
       </c>
-      <c r="GK1" s="1" t="inlineStr">
+      <c r="GL1" s="1" t="inlineStr">
         <is>
           <t>Z0_2</t>
         </is>
       </c>
-      <c r="GL1" s="1" t="inlineStr">
+      <c r="GM1" s="1" t="inlineStr">
         <is>
           <t>mu0_2</t>
         </is>
       </c>
-      <c r="GM1" s="1" t="inlineStr">
+      <c r="GN1" s="1" t="inlineStr">
         <is>
           <t>k0_2</t>
         </is>
       </c>
-      <c r="GN1" s="1" t="inlineStr">
+      <c r="GO1" s="1" t="inlineStr">
         <is>
           <t>fluid_name0_2</t>
         </is>
       </c>
-      <c r="GO1" s="1" t="inlineStr">
+      <c r="GP1" s="1" t="inlineStr">
         <is>
           <t>converged0_2</t>
         </is>
       </c>
-      <c r="GP1" s="1" t="inlineStr">
+      <c r="GQ1" s="1" t="inlineStr">
         <is>
           <t>T0_rel_2</t>
         </is>
       </c>
-      <c r="GQ1" s="1" t="inlineStr">
+      <c r="GR1" s="1" t="inlineStr">
         <is>
           <t>p0_rel_2</t>
         </is>
       </c>
-      <c r="GR1" s="1" t="inlineStr">
+      <c r="GS1" s="1" t="inlineStr">
         <is>
           <t>rhomass0_rel_2</t>
         </is>
       </c>
-      <c r="GS1" s="1" t="inlineStr">
+      <c r="GT1" s="1" t="inlineStr">
         <is>
           <t>umass0_rel_2</t>
         </is>
       </c>
-      <c r="GT1" s="1" t="inlineStr">
+      <c r="GU1" s="1" t="inlineStr">
         <is>
           <t>hmass0_rel_2</t>
         </is>
       </c>
-      <c r="GU1" s="1" t="inlineStr">
+      <c r="GV1" s="1" t="inlineStr">
         <is>
           <t>smass0_rel_2</t>
         </is>
       </c>
-      <c r="GV1" s="1" t="inlineStr">
+      <c r="GW1" s="1" t="inlineStr">
         <is>
           <t>gibbsmass0_rel_2</t>
         </is>
       </c>
-      <c r="GW1" s="1" t="inlineStr">
+      <c r="GX1" s="1" t="inlineStr">
         <is>
           <t>cvmass0_rel_2</t>
         </is>
       </c>
-      <c r="GX1" s="1" t="inlineStr">
+      <c r="GY1" s="1" t="inlineStr">
         <is>
           <t>cpmass0_rel_2</t>
         </is>
       </c>
-      <c r="GY1" s="1" t="inlineStr">
+      <c r="GZ1" s="1" t="inlineStr">
         <is>
           <t>gamma0_rel_2</t>
         </is>
       </c>
-      <c r="GZ1" s="1" t="inlineStr">
+      <c r="HA1" s="1" t="inlineStr">
         <is>
           <t>compressibility_factor0_rel_2</t>
         </is>
       </c>
-      <c r="HA1" s="1" t="inlineStr">
+      <c r="HB1" s="1" t="inlineStr">
         <is>
           <t>speed_sound0_rel_2</t>
         </is>
       </c>
-      <c r="HB1" s="1" t="inlineStr">
+      <c r="HC1" s="1" t="inlineStr">
         <is>
           <t>isentropic_bulk_modulus0_rel_2</t>
         </is>
       </c>
-      <c r="HC1" s="1" t="inlineStr">
+      <c r="HD1" s="1" t="inlineStr">
         <is>
           <t>isentropic_compressibility0_rel_2</t>
         </is>
       </c>
-      <c r="HD1" s="1" t="inlineStr">
+      <c r="HE1" s="1" t="inlineStr">
         <is>
           <t>isothermal_bulk_modulus0_rel_2</t>
         </is>
       </c>
-      <c r="HE1" s="1" t="inlineStr">
+      <c r="HF1" s="1" t="inlineStr">
         <is>
           <t>isothermal_compressibility0_rel_2</t>
         </is>
       </c>
-      <c r="HF1" s="1" t="inlineStr">
+      <c r="HG1" s="1" t="inlineStr">
         <is>
           <t>isobaric_expansion_coefficient0_rel_2</t>
         </is>
       </c>
-      <c r="HG1" s="1" t="inlineStr">
+      <c r="HH1" s="1" t="inlineStr">
         <is>
           <t>viscosity0_rel_2</t>
         </is>
       </c>
-      <c r="HH1" s="1" t="inlineStr">
+      <c r="HI1" s="1" t="inlineStr">
         <is>
           <t>conductivity0_rel_2</t>
         </is>
       </c>
-      <c r="HI1" s="1" t="inlineStr">
+      <c r="HJ1" s="1" t="inlineStr">
         <is>
           <t>P0_rel_2</t>
         </is>
       </c>
-      <c r="HJ1" s="1" t="inlineStr">
+      <c r="HK1" s="1" t="inlineStr">
         <is>
           <t>rho0_rel_2</t>
         </is>
       </c>
-      <c r="HK1" s="1" t="inlineStr">
+      <c r="HL1" s="1" t="inlineStr">
         <is>
           <t>d0_rel_2</t>
         </is>
       </c>
-      <c r="HL1" s="1" t="inlineStr">
+      <c r="HM1" s="1" t="inlineStr">
         <is>
           <t>u0_rel_2</t>
         </is>
       </c>
-      <c r="HM1" s="1" t="inlineStr">
+      <c r="HN1" s="1" t="inlineStr">
         <is>
           <t>h0_rel_2</t>
         </is>
       </c>
-      <c r="HN1" s="1" t="inlineStr">
+      <c r="HO1" s="1" t="inlineStr">
         <is>
           <t>s0_rel_2</t>
         </is>
       </c>
-      <c r="HO1" s="1" t="inlineStr">
+      <c r="HP1" s="1" t="inlineStr">
         <is>
           <t>cv0_rel_2</t>
         </is>
       </c>
-      <c r="HP1" s="1" t="inlineStr">
+      <c r="HQ1" s="1" t="inlineStr">
         <is>
           <t>cp0_rel_2</t>
         </is>
       </c>
-      <c r="HQ1" s="1" t="inlineStr">
+      <c r="HR1" s="1" t="inlineStr">
         <is>
           <t>a0_rel_2</t>
         </is>
       </c>
-      <c r="HR1" s="1" t="inlineStr">
+      <c r="HS1" s="1" t="inlineStr">
         <is>
           <t>Z0_rel_2</t>
         </is>
       </c>
-      <c r="HS1" s="1" t="inlineStr">
+      <c r="HT1" s="1" t="inlineStr">
         <is>
           <t>mu0_rel_2</t>
         </is>
       </c>
-      <c r="HT1" s="1" t="inlineStr">
+      <c r="HU1" s="1" t="inlineStr">
         <is>
           <t>k0_rel_2</t>
         </is>
       </c>
-      <c r="HU1" s="1" t="inlineStr">
+      <c r="HV1" s="1" t="inlineStr">
         <is>
           <t>fluid_name0_rel_2</t>
         </is>
       </c>
-      <c r="HV1" s="1" t="inlineStr">
+      <c r="HW1" s="1" t="inlineStr">
         <is>
           <t>converged0_rel_2</t>
         </is>
       </c>
-      <c r="HW1" s="1" t="inlineStr">
+      <c r="HX1" s="1" t="inlineStr">
         <is>
           <t>Ma_2</t>
         </is>
       </c>
-      <c r="HX1" s="1" t="inlineStr">
+      <c r="HY1" s="1" t="inlineStr">
         <is>
           <t>Ma_rel_2</t>
         </is>
       </c>
-      <c r="HY1" s="1" t="inlineStr">
+      <c r="HZ1" s="1" t="inlineStr">
         <is>
           <t>Re_2</t>
         </is>
       </c>
-      <c r="HZ1" s="1" t="inlineStr">
+      <c r="IA1" s="1" t="inlineStr">
         <is>
           <t>mass_flow_2</t>
         </is>
       </c>
-      <c r="IA1" s="1" t="inlineStr">
+      <c r="IB1" s="1" t="inlineStr">
         <is>
           <t>rothalpy_2</t>
         </is>
       </c>
-      <c r="IB1" s="1" t="inlineStr">
+      <c r="IC1" s="1" t="inlineStr">
         <is>
           <t>loss_profile_2</t>
         </is>
       </c>
-      <c r="IC1" s="1" t="inlineStr">
+      <c r="ID1" s="1" t="inlineStr">
         <is>
           <t>loss_incidence_2</t>
         </is>
       </c>
-      <c r="ID1" s="1" t="inlineStr">
+      <c r="IE1" s="1" t="inlineStr">
         <is>
           <t>loss_trailing_2</t>
         </is>
       </c>
-      <c r="IE1" s="1" t="inlineStr">
+      <c r="IF1" s="1" t="inlineStr">
         <is>
           <t>loss_secondary_2</t>
         </is>
       </c>
-      <c r="IF1" s="1" t="inlineStr">
+      <c r="IG1" s="1" t="inlineStr">
         <is>
           <t>loss_clearance_2</t>
         </is>
       </c>
-      <c r="IG1" s="1" t="inlineStr">
+      <c r="IH1" s="1" t="inlineStr">
         <is>
           <t>loss_total_2</t>
         </is>
       </c>
-      <c r="IH1" s="1" t="inlineStr">
+      <c r="II1" s="1" t="inlineStr">
         <is>
           <t>loss_error_2</t>
         </is>
       </c>
-      <c r="II1" s="1" t="inlineStr">
+      <c r="IJ1" s="1" t="inlineStr">
         <is>
           <t>blockage_2</t>
         </is>
       </c>
-      <c r="IJ1" s="1" t="inlineStr">
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>h_is_2</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
         <is>
           <t>blade_speed_3</t>
         </is>
       </c>
-      <c r="IK1" s="1" t="inlineStr">
+      <c r="IM1" s="1" t="inlineStr">
         <is>
           <t>v_3</t>
         </is>
       </c>
-      <c r="IL1" s="1" t="inlineStr">
+      <c r="IN1" s="1" t="inlineStr">
         <is>
           <t>v_m_3</t>
         </is>
       </c>
-      <c r="IM1" s="1" t="inlineStr">
+      <c r="IO1" s="1" t="inlineStr">
         <is>
           <t>v_t_3</t>
         </is>
       </c>
-      <c r="IN1" s="1" t="inlineStr">
+      <c r="IP1" s="1" t="inlineStr">
         <is>
           <t>alpha_3</t>
         </is>
       </c>
-      <c r="IO1" s="1" t="inlineStr">
+      <c r="IQ1" s="1" t="inlineStr">
         <is>
           <t>w_3</t>
         </is>
       </c>
-      <c r="IP1" s="1" t="inlineStr">
+      <c r="IR1" s="1" t="inlineStr">
         <is>
           <t>w_m_3</t>
         </is>
       </c>
-      <c r="IQ1" s="1" t="inlineStr">
+      <c r="IS1" s="1" t="inlineStr">
         <is>
           <t>w_t_3</t>
         </is>
       </c>
-      <c r="IR1" s="1" t="inlineStr">
+      <c r="IT1" s="1" t="inlineStr">
         <is>
           <t>beta_3</t>
         </is>
       </c>
-      <c r="IS1" s="1" t="inlineStr">
+      <c r="IU1" s="1" t="inlineStr">
         <is>
           <t>T_3</t>
         </is>
       </c>
-      <c r="IT1" s="1" t="inlineStr">
+      <c r="IV1" s="1" t="inlineStr">
         <is>
           <t>p_3</t>
         </is>
       </c>
-      <c r="IU1" s="1" t="inlineStr">
+      <c r="IW1" s="1" t="inlineStr">
         <is>
           <t>rhomass_3</t>
         </is>
       </c>
-      <c r="IV1" s="1" t="inlineStr">
+      <c r="IX1" s="1" t="inlineStr">
         <is>
           <t>umass_3</t>
         </is>
       </c>
-      <c r="IW1" s="1" t="inlineStr">
+      <c r="IY1" s="1" t="inlineStr">
         <is>
           <t>hmass_3</t>
         </is>
       </c>
-      <c r="IX1" s="1" t="inlineStr">
+      <c r="IZ1" s="1" t="inlineStr">
         <is>
           <t>smass_3</t>
         </is>
       </c>
-      <c r="IY1" s="1" t="inlineStr">
+      <c r="JA1" s="1" t="inlineStr">
         <is>
           <t>gibbsmass_3</t>
         </is>
       </c>
-      <c r="IZ1" s="1" t="inlineStr">
+      <c r="JB1" s="1" t="inlineStr">
         <is>
           <t>cvmass_3</t>
         </is>
       </c>
-      <c r="JA1" s="1" t="inlineStr">
+      <c r="JC1" s="1" t="inlineStr">
         <is>
           <t>cpmass_3</t>
         </is>
       </c>
-      <c r="JB1" s="1" t="inlineStr">
+      <c r="JD1" s="1" t="inlineStr">
         <is>
           <t>gamma_3</t>
         </is>
       </c>
-      <c r="JC1" s="1" t="inlineStr">
+      <c r="JE1" s="1" t="inlineStr">
         <is>
           <t>compressibility_factor_3</t>
         </is>
       </c>
-      <c r="JD1" s="1" t="inlineStr">
+      <c r="JF1" s="1" t="inlineStr">
         <is>
           <t>speed_sound_3</t>
         </is>
       </c>
-      <c r="JE1" s="1" t="inlineStr">
+      <c r="JG1" s="1" t="inlineStr">
         <is>
           <t>isentropic_bulk_modulus_3</t>
         </is>
       </c>
-      <c r="JF1" s="1" t="inlineStr">
+      <c r="JH1" s="1" t="inlineStr">
         <is>
           <t>isentropic_compressibility_3</t>
         </is>
       </c>
-      <c r="JG1" s="1" t="inlineStr">
+      <c r="JI1" s="1" t="inlineStr">
         <is>
           <t>isothermal_bulk_modulus_3</t>
         </is>
       </c>
-      <c r="JH1" s="1" t="inlineStr">
+      <c r="JJ1" s="1" t="inlineStr">
         <is>
           <t>isothermal_compressibility_3</t>
         </is>
       </c>
-      <c r="JI1" s="1" t="inlineStr">
+      <c r="JK1" s="1" t="inlineStr">
         <is>
           <t>isobaric_expansion_coefficient_3</t>
         </is>
       </c>
-      <c r="JJ1" s="1" t="inlineStr">
+      <c r="JL1" s="1" t="inlineStr">
         <is>
           <t>viscosity_3</t>
         </is>
       </c>
-      <c r="JK1" s="1" t="inlineStr">
+      <c r="JM1" s="1" t="inlineStr">
         <is>
           <t>conductivity_3</t>
         </is>
       </c>
-      <c r="JL1" s="1" t="inlineStr">
+      <c r="JN1" s="1" t="inlineStr">
         <is>
           <t>P_3</t>
         </is>
       </c>
-      <c r="JM1" s="1" t="inlineStr">
+      <c r="JO1" s="1" t="inlineStr">
         <is>
           <t>rho_3</t>
         </is>
       </c>
-      <c r="JN1" s="1" t="inlineStr">
+      <c r="JP1" s="1" t="inlineStr">
         <is>
           <t>d_3</t>
         </is>
       </c>
-      <c r="JO1" s="1" t="inlineStr">
+      <c r="JQ1" s="1" t="inlineStr">
         <is>
           <t>u_3</t>
         </is>
       </c>
-      <c r="JP1" s="1" t="inlineStr">
+      <c r="JR1" s="1" t="inlineStr">
         <is>
           <t>h_3</t>
         </is>
       </c>
-      <c r="JQ1" s="1" t="inlineStr">
+      <c r="JS1" s="1" t="inlineStr">
         <is>
           <t>s_3</t>
         </is>
       </c>
-      <c r="JR1" s="1" t="inlineStr">
+      <c r="JT1" s="1" t="inlineStr">
         <is>
           <t>cv_3</t>
         </is>
       </c>
-      <c r="JS1" s="1" t="inlineStr">
+      <c r="JU1" s="1" t="inlineStr">
         <is>
           <t>cp_3</t>
         </is>
       </c>
-      <c r="JT1" s="1" t="inlineStr">
+      <c r="JV1" s="1" t="inlineStr">
         <is>
           <t>a_3</t>
         </is>
       </c>
-      <c r="JU1" s="1" t="inlineStr">
+      <c r="JW1" s="1" t="inlineStr">
         <is>
           <t>Z_3</t>
         </is>
       </c>
-      <c r="JV1" s="1" t="inlineStr">
+      <c r="JX1" s="1" t="inlineStr">
         <is>
           <t>mu_3</t>
         </is>
       </c>
-      <c r="JW1" s="1" t="inlineStr">
+      <c r="JY1" s="1" t="inlineStr">
         <is>
           <t>k_3</t>
         </is>
       </c>
-      <c r="JX1" s="1" t="inlineStr">
+      <c r="JZ1" s="1" t="inlineStr">
         <is>
           <t>fluid_name_3</t>
         </is>
       </c>
-      <c r="JY1" s="1" t="inlineStr">
+      <c r="KA1" s="1" t="inlineStr">
         <is>
           <t>converged_3</t>
         </is>
       </c>
-      <c r="JZ1" s="1" t="inlineStr">
+      <c r="KB1" s="1" t="inlineStr">
         <is>
           <t>T0_3</t>
         </is>
       </c>
-      <c r="KA1" s="1" t="inlineStr">
+      <c r="KC1" s="1" t="inlineStr">
         <is>
           <t>p0_3</t>
         </is>
       </c>
-      <c r="KB1" s="1" t="inlineStr">
+      <c r="KD1" s="1" t="inlineStr">
         <is>
           <t>rhomass0_3</t>
         </is>
       </c>
-      <c r="KC1" s="1" t="inlineStr">
+      <c r="KE1" s="1" t="inlineStr">
         <is>
           <t>umass0_3</t>
         </is>
       </c>
-      <c r="KD1" s="1" t="inlineStr">
+      <c r="KF1" s="1" t="inlineStr">
         <is>
           <t>hmass0_3</t>
         </is>
       </c>
-      <c r="KE1" s="1" t="inlineStr">
+      <c r="KG1" s="1" t="inlineStr">
         <is>
           <t>smass0_3</t>
         </is>
       </c>
-      <c r="KF1" s="1" t="inlineStr">
+      <c r="KH1" s="1" t="inlineStr">
         <is>
           <t>gibbsmass0_3</t>
         </is>
       </c>
-      <c r="KG1" s="1" t="inlineStr">
+      <c r="KI1" s="1" t="inlineStr">
         <is>
           <t>cvmass0_3</t>
         </is>
       </c>
-      <c r="KH1" s="1" t="inlineStr">
+      <c r="KJ1" s="1" t="inlineStr">
         <is>
           <t>cpmass0_3</t>
         </is>
       </c>
-      <c r="KI1" s="1" t="inlineStr">
+      <c r="KK1" s="1" t="inlineStr">
         <is>
           <t>gamma0_3</t>
         </is>
       </c>
-      <c r="KJ1" s="1" t="inlineStr">
+      <c r="KL1" s="1" t="inlineStr">
         <is>
           <t>compressibility_factor0_3</t>
         </is>
       </c>
-      <c r="KK1" s="1" t="inlineStr">
+      <c r="KM1" s="1" t="inlineStr">
         <is>
           <t>speed_sound0_3</t>
         </is>
       </c>
-      <c r="KL1" s="1" t="inlineStr">
+      <c r="KN1" s="1" t="inlineStr">
         <is>
           <t>isentropic_bulk_modulus0_3</t>
         </is>
       </c>
-      <c r="KM1" s="1" t="inlineStr">
+      <c r="KO1" s="1" t="inlineStr">
         <is>
           <t>isentropic_compressibility0_3</t>
         </is>
       </c>
-      <c r="KN1" s="1" t="inlineStr">
+      <c r="KP1" s="1" t="inlineStr">
         <is>
           <t>isothermal_bulk_modulus0_3</t>
         </is>
       </c>
-      <c r="KO1" s="1" t="inlineStr">
+      <c r="KQ1" s="1" t="inlineStr">
         <is>
           <t>isothermal_compressibility0_3</t>
         </is>
       </c>
-      <c r="KP1" s="1" t="inlineStr">
+      <c r="KR1" s="1" t="inlineStr">
         <is>
           <t>isobaric_expansion_coefficient0_3</t>
         </is>
       </c>
-      <c r="KQ1" s="1" t="inlineStr">
+      <c r="KS1" s="1" t="inlineStr">
         <is>
           <t>viscosity0_3</t>
         </is>
       </c>
-      <c r="KR1" s="1" t="inlineStr">
+      <c r="KT1" s="1" t="inlineStr">
         <is>
           <t>conductivity0_3</t>
         </is>
       </c>
-      <c r="KS1" s="1" t="inlineStr">
+      <c r="KU1" s="1" t="inlineStr">
         <is>
           <t>P0_3</t>
         </is>
       </c>
-      <c r="KT1" s="1" t="inlineStr">
+      <c r="KV1" s="1" t="inlineStr">
         <is>
           <t>rho0_3</t>
         </is>
       </c>
-      <c r="KU1" s="1" t="inlineStr">
+      <c r="KW1" s="1" t="inlineStr">
         <is>
           <t>d0_3</t>
         </is>
       </c>
-      <c r="KV1" s="1" t="inlineStr">
+      <c r="KX1" s="1" t="inlineStr">
         <is>
           <t>u0_3</t>
         </is>
       </c>
-      <c r="KW1" s="1" t="inlineStr">
+      <c r="KY1" s="1" t="inlineStr">
         <is>
           <t>h0_3</t>
         </is>
       </c>
-      <c r="KX1" s="1" t="inlineStr">
+      <c r="KZ1" s="1" t="inlineStr">
         <is>
           <t>s0_3</t>
         </is>
       </c>
-      <c r="KY1" s="1" t="inlineStr">
+      <c r="LA1" s="1" t="inlineStr">
         <is>
           <t>cv0_3</t>
         </is>
       </c>
-      <c r="KZ1" s="1" t="inlineStr">
+      <c r="LB1" s="1" t="inlineStr">
         <is>
           <t>cp0_3</t>
         </is>
       </c>
-      <c r="LA1" s="1" t="inlineStr">
+      <c r="LC1" s="1" t="inlineStr">
         <is>
           <t>a0_3</t>
         </is>
       </c>
-      <c r="LB1" s="1" t="inlineStr">
+      <c r="LD1" s="1" t="inlineStr">
         <is>
           <t>Z0_3</t>
         </is>
       </c>
-      <c r="LC1" s="1" t="inlineStr">
+      <c r="LE1" s="1" t="inlineStr">
         <is>
           <t>mu0_3</t>
         </is>
       </c>
-      <c r="LD1" s="1" t="inlineStr">
+      <c r="LF1" s="1" t="inlineStr">
         <is>
           <t>k0_3</t>
         </is>
       </c>
-      <c r="LE1" s="1" t="inlineStr">
+      <c r="LG1" s="1" t="inlineStr">
         <is>
           <t>fluid_name0_3</t>
         </is>
       </c>
-      <c r="LF1" s="1" t="inlineStr">
+      <c r="LH1" s="1" t="inlineStr">
         <is>
           <t>converged0_3</t>
         </is>
       </c>
-      <c r="LG1" s="1" t="inlineStr">
+      <c r="LI1" s="1" t="inlineStr">
         <is>
           <t>T0_rel_3</t>
         </is>
       </c>
-      <c r="LH1" s="1" t="inlineStr">
+      <c r="LJ1" s="1" t="inlineStr">
         <is>
           <t>p0_rel_3</t>
         </is>
       </c>
-      <c r="LI1" s="1" t="inlineStr">
+      <c r="LK1" s="1" t="inlineStr">
         <is>
           <t>rhomass0_rel_3</t>
         </is>
       </c>
-      <c r="LJ1" s="1" t="inlineStr">
+      <c r="LL1" s="1" t="inlineStr">
         <is>
           <t>umass0_rel_3</t>
         </is>
       </c>
-      <c r="LK1" s="1" t="inlineStr">
+      <c r="LM1" s="1" t="inlineStr">
         <is>
           <t>hmass0_rel_3</t>
         </is>
       </c>
-      <c r="LL1" s="1" t="inlineStr">
+      <c r="LN1" s="1" t="inlineStr">
         <is>
           <t>smass0_rel_3</t>
         </is>
       </c>
-      <c r="LM1" s="1" t="inlineStr">
+      <c r="LO1" s="1" t="inlineStr">
         <is>
           <t>gibbsmass0_rel_3</t>
         </is>
       </c>
-      <c r="LN1" s="1" t="inlineStr">
+      <c r="LP1" s="1" t="inlineStr">
         <is>
           <t>cvmass0_rel_3</t>
         </is>
       </c>
-      <c r="LO1" s="1" t="inlineStr">
+      <c r="LQ1" s="1" t="inlineStr">
         <is>
           <t>cpmass0_rel_3</t>
         </is>
       </c>
-      <c r="LP1" s="1" t="inlineStr">
+      <c r="LR1" s="1" t="inlineStr">
         <is>
           <t>gamma0_rel_3</t>
         </is>
       </c>
-      <c r="LQ1" s="1" t="inlineStr">
+      <c r="LS1" s="1" t="inlineStr">
         <is>
           <t>compressibility_factor0_rel_3</t>
         </is>
       </c>
-      <c r="LR1" s="1" t="inlineStr">
+      <c r="LT1" s="1" t="inlineStr">
         <is>
           <t>speed_sound0_rel_3</t>
         </is>
       </c>
-      <c r="LS1" s="1" t="inlineStr">
+      <c r="LU1" s="1" t="inlineStr">
         <is>
           <t>isentropic_bulk_modulus0_rel_3</t>
         </is>
       </c>
-      <c r="LT1" s="1" t="inlineStr">
+      <c r="LV1" s="1" t="inlineStr">
         <is>
           <t>isentropic_compressibility0_rel_3</t>
         </is>
       </c>
-      <c r="LU1" s="1" t="inlineStr">
+      <c r="LW1" s="1" t="inlineStr">
         <is>
           <t>isothermal_bulk_modulus0_rel_3</t>
         </is>
       </c>
-      <c r="LV1" s="1" t="inlineStr">
+      <c r="LX1" s="1" t="inlineStr">
         <is>
           <t>isothermal_compressibility0_rel_3</t>
         </is>
       </c>
-      <c r="LW1" s="1" t="inlineStr">
+      <c r="LY1" s="1" t="inlineStr">
         <is>
           <t>isobaric_expansion_coefficient0_rel_3</t>
         </is>
       </c>
-      <c r="LX1" s="1" t="inlineStr">
+      <c r="LZ1" s="1" t="inlineStr">
         <is>
           <t>viscosity0_rel_3</t>
         </is>
       </c>
-      <c r="LY1" s="1" t="inlineStr">
+      <c r="MA1" s="1" t="inlineStr">
         <is>
           <t>conductivity0_rel_3</t>
         </is>
       </c>
-      <c r="LZ1" s="1" t="inlineStr">
+      <c r="MB1" s="1" t="inlineStr">
         <is>
           <t>P0_rel_3</t>
         </is>
       </c>
-      <c r="MA1" s="1" t="inlineStr">
+      <c r="MC1" s="1" t="inlineStr">
         <is>
           <t>rho0_rel_3</t>
         </is>
       </c>
-      <c r="MB1" s="1" t="inlineStr">
+      <c r="MD1" s="1" t="inlineStr">
         <is>
           <t>d0_rel_3</t>
         </is>
       </c>
-      <c r="MC1" s="1" t="inlineStr">
+      <c r="ME1" s="1" t="inlineStr">
         <is>
           <t>u0_rel_3</t>
         </is>
       </c>
-      <c r="MD1" s="1" t="inlineStr">
+      <c r="MF1" s="1" t="inlineStr">
         <is>
           <t>h0_rel_3</t>
         </is>
       </c>
-      <c r="ME1" s="1" t="inlineStr">
+      <c r="MG1" s="1" t="inlineStr">
         <is>
           <t>s0_rel_3</t>
         </is>
       </c>
-      <c r="MF1" s="1" t="inlineStr">
+      <c r="MH1" s="1" t="inlineStr">
         <is>
           <t>cv0_rel_3</t>
         </is>
       </c>
-      <c r="MG1" s="1" t="inlineStr">
+      <c r="MI1" s="1" t="inlineStr">
         <is>
           <t>cp0_rel_3</t>
         </is>
       </c>
-      <c r="MH1" s="1" t="inlineStr">
+      <c r="MJ1" s="1" t="inlineStr">
         <is>
           <t>a0_rel_3</t>
         </is>
       </c>
-      <c r="MI1" s="1" t="inlineStr">
+      <c r="MK1" s="1" t="inlineStr">
         <is>
           <t>Z0_rel_3</t>
         </is>
       </c>
-      <c r="MJ1" s="1" t="inlineStr">
+      <c r="ML1" s="1" t="inlineStr">
         <is>
           <t>mu0_rel_3</t>
         </is>
       </c>
-      <c r="MK1" s="1" t="inlineStr">
+      <c r="MM1" s="1" t="inlineStr">
         <is>
           <t>k0_rel_3</t>
         </is>
       </c>
-      <c r="ML1" s="1" t="inlineStr">
+      <c r="MN1" s="1" t="inlineStr">
         <is>
           <t>fluid_name0_rel_3</t>
         </is>
       </c>
-      <c r="MM1" s="1" t="inlineStr">
+      <c r="MO1" s="1" t="inlineStr">
         <is>
           <t>converged0_rel_3</t>
         </is>
       </c>
-      <c r="MN1" s="1" t="inlineStr">
+      <c r="MP1" s="1" t="inlineStr">
         <is>
           <t>Ma_3</t>
         </is>
       </c>
-      <c r="MO1" s="1" t="inlineStr">
+      <c r="MQ1" s="1" t="inlineStr">
         <is>
           <t>Ma_rel_3</t>
         </is>
       </c>
-      <c r="MP1" s="1" t="inlineStr">
+      <c r="MR1" s="1" t="inlineStr">
         <is>
           <t>Re_3</t>
         </is>
       </c>
-      <c r="MQ1" s="1" t="inlineStr">
+      <c r="MS1" s="1" t="inlineStr">
         <is>
           <t>mass_flow_3</t>
         </is>
       </c>
-      <c r="MR1" s="1" t="inlineStr">
+      <c r="MT1" s="1" t="inlineStr">
         <is>
           <t>rothalpy_3</t>
         </is>
       </c>
-      <c r="MS1" s="1" t="inlineStr">
+      <c r="MU1" s="1" t="inlineStr">
         <is>
           <t>blade_speed_4</t>
         </is>
       </c>
-      <c r="MT1" s="1" t="inlineStr">
+      <c r="MV1" s="1" t="inlineStr">
         <is>
           <t>v_4</t>
         </is>
       </c>
-      <c r="MU1" s="1" t="inlineStr">
+      <c r="MW1" s="1" t="inlineStr">
         <is>
           <t>v_m_4</t>
         </is>
       </c>
-      <c r="MV1" s="1" t="inlineStr">
+      <c r="MX1" s="1" t="inlineStr">
         <is>
           <t>v_t_4</t>
         </is>
       </c>
-      <c r="MW1" s="1" t="inlineStr">
+      <c r="MY1" s="1" t="inlineStr">
         <is>
           <t>alpha_4</t>
         </is>
       </c>
-      <c r="MX1" s="1" t="inlineStr">
+      <c r="MZ1" s="1" t="inlineStr">
         <is>
           <t>w_4</t>
         </is>
       </c>
-      <c r="MY1" s="1" t="inlineStr">
+      <c r="NA1" s="1" t="inlineStr">
         <is>
           <t>w_m_4</t>
         </is>
       </c>
-      <c r="MZ1" s="1" t="inlineStr">
+      <c r="NB1" s="1" t="inlineStr">
         <is>
           <t>w_t_4</t>
         </is>
       </c>
-      <c r="NA1" s="1" t="inlineStr">
+      <c r="NC1" s="1" t="inlineStr">
         <is>
           <t>beta_4</t>
         </is>
       </c>
-      <c r="NB1" s="1" t="inlineStr">
+      <c r="ND1" s="1" t="inlineStr">
         <is>
           <t>T_4</t>
         </is>
       </c>
-      <c r="NC1" s="1" t="inlineStr">
+      <c r="NE1" s="1" t="inlineStr">
         <is>
           <t>p_4</t>
         </is>
       </c>
-      <c r="ND1" s="1" t="inlineStr">
+      <c r="NF1" s="1" t="inlineStr">
         <is>
           <t>rhomass_4</t>
         </is>
       </c>
-      <c r="NE1" s="1" t="inlineStr">
+      <c r="NG1" s="1" t="inlineStr">
         <is>
           <t>umass_4</t>
         </is>
       </c>
-      <c r="NF1" s="1" t="inlineStr">
+      <c r="NH1" s="1" t="inlineStr">
         <is>
           <t>hmass_4</t>
         </is>
       </c>
-      <c r="NG1" s="1" t="inlineStr">
+      <c r="NI1" s="1" t="inlineStr">
         <is>
           <t>smass_4</t>
         </is>
       </c>
-      <c r="NH1" s="1" t="inlineStr">
+      <c r="NJ1" s="1" t="inlineStr">
         <is>
           <t>gibbsmass_4</t>
         </is>
       </c>
-      <c r="NI1" s="1" t="inlineStr">
+      <c r="NK1" s="1" t="inlineStr">
         <is>
           <t>cvmass_4</t>
         </is>
       </c>
-      <c r="NJ1" s="1" t="inlineStr">
+      <c r="NL1" s="1" t="inlineStr">
         <is>
           <t>cpmass_4</t>
         </is>
       </c>
-      <c r="NK1" s="1" t="inlineStr">
+      <c r="NM1" s="1" t="inlineStr">
         <is>
           <t>gamma_4</t>
         </is>
       </c>
-      <c r="NL1" s="1" t="inlineStr">
+      <c r="NN1" s="1" t="inlineStr">
         <is>
           <t>compressibility_factor_4</t>
         </is>
       </c>
-      <c r="NM1" s="1" t="inlineStr">
+      <c r="NO1" s="1" t="inlineStr">
         <is>
           <t>speed_sound_4</t>
         </is>
       </c>
-      <c r="NN1" s="1" t="inlineStr">
+      <c r="NP1" s="1" t="inlineStr">
         <is>
           <t>isentropic_bulk_modulus_4</t>
         </is>
       </c>
-      <c r="NO1" s="1" t="inlineStr">
+      <c r="NQ1" s="1" t="inlineStr">
         <is>
           <t>isentropic_compressibility_4</t>
         </is>
       </c>
-      <c r="NP1" s="1" t="inlineStr">
+      <c r="NR1" s="1" t="inlineStr">
         <is>
           <t>isothermal_bulk_modulus_4</t>
         </is>
       </c>
-      <c r="NQ1" s="1" t="inlineStr">
+      <c r="NS1" s="1" t="inlineStr">
         <is>
           <t>isothermal_compressibility_4</t>
         </is>
       </c>
-      <c r="NR1" s="1" t="inlineStr">
+      <c r="NT1" s="1" t="inlineStr">
         <is>
           <t>isobaric_expansion_coefficient_4</t>
         </is>
       </c>
-      <c r="NS1" s="1" t="inlineStr">
+      <c r="NU1" s="1" t="inlineStr">
         <is>
           <t>viscosity_4</t>
         </is>
       </c>
-      <c r="NT1" s="1" t="inlineStr">
+      <c r="NV1" s="1" t="inlineStr">
         <is>
           <t>conductivity_4</t>
         </is>
       </c>
-      <c r="NU1" s="1" t="inlineStr">
+      <c r="NW1" s="1" t="inlineStr">
         <is>
           <t>P_4</t>
         </is>
       </c>
-      <c r="NV1" s="1" t="inlineStr">
+      <c r="NX1" s="1" t="inlineStr">
         <is>
           <t>rho_4</t>
         </is>
       </c>
-      <c r="NW1" s="1" t="inlineStr">
+      <c r="NY1" s="1" t="inlineStr">
         <is>
           <t>d_4</t>
         </is>
       </c>
-      <c r="NX1" s="1" t="inlineStr">
+      <c r="NZ1" s="1" t="inlineStr">
         <is>
           <t>u_4</t>
         </is>
       </c>
-      <c r="NY1" s="1" t="inlineStr">
+      <c r="OA1" s="1" t="inlineStr">
         <is>
           <t>h_4</t>
         </is>
       </c>
-      <c r="NZ1" s="1" t="inlineStr">
+      <c r="OB1" s="1" t="inlineStr">
         <is>
           <t>s_4</t>
         </is>
       </c>
-      <c r="OA1" s="1" t="inlineStr">
+      <c r="OC1" s="1" t="inlineStr">
         <is>
           <t>cv_4</t>
         </is>
       </c>
-      <c r="OB1" s="1" t="inlineStr">
+      <c r="OD1" s="1" t="inlineStr">
         <is>
           <t>cp_4</t>
         </is>
       </c>
-      <c r="OC1" s="1" t="inlineStr">
+      <c r="OE1" s="1" t="inlineStr">
         <is>
           <t>a_4</t>
         </is>
       </c>
-      <c r="OD1" s="1" t="inlineStr">
+      <c r="OF1" s="1" t="inlineStr">
         <is>
           <t>Z_4</t>
         </is>
       </c>
-      <c r="OE1" s="1" t="inlineStr">
+      <c r="OG1" s="1" t="inlineStr">
         <is>
           <t>mu_4</t>
         </is>
       </c>
-      <c r="OF1" s="1" t="inlineStr">
+      <c r="OH1" s="1" t="inlineStr">
         <is>
           <t>k_4</t>
         </is>
       </c>
-      <c r="OG1" s="1" t="inlineStr">
+      <c r="OI1" s="1" t="inlineStr">
         <is>
           <t>fluid_name_4</t>
         </is>
       </c>
-      <c r="OH1" s="1" t="inlineStr">
+      <c r="OJ1" s="1" t="inlineStr">
         <is>
           <t>converged_4</t>
         </is>
       </c>
-      <c r="OI1" s="1" t="inlineStr">
+      <c r="OK1" s="1" t="inlineStr">
         <is>
           <t>T0_4</t>
         </is>
       </c>
-      <c r="OJ1" s="1" t="inlineStr">
+      <c r="OL1" s="1" t="inlineStr">
         <is>
           <t>p0_4</t>
         </is>
       </c>
-      <c r="OK1" s="1" t="inlineStr">
+      <c r="OM1" s="1" t="inlineStr">
         <is>
           <t>rhomass0_4</t>
         </is>
       </c>
-      <c r="OL1" s="1" t="inlineStr">
+      <c r="ON1" s="1" t="inlineStr">
         <is>
           <t>umass0_4</t>
         </is>
       </c>
-      <c r="OM1" s="1" t="inlineStr">
+      <c r="OO1" s="1" t="inlineStr">
         <is>
           <t>hmass0_4</t>
         </is>
       </c>
-      <c r="ON1" s="1" t="inlineStr">
+      <c r="OP1" s="1" t="inlineStr">
         <is>
           <t>smass0_4</t>
         </is>
       </c>
-      <c r="OO1" s="1" t="inlineStr">
+      <c r="OQ1" s="1" t="inlineStr">
         <is>
           <t>gibbsmass0_4</t>
         </is>
       </c>
-      <c r="OP1" s="1" t="inlineStr">
+      <c r="OR1" s="1" t="inlineStr">
         <is>
           <t>cvmass0_4</t>
         </is>
       </c>
-      <c r="OQ1" s="1" t="inlineStr">
+      <c r="OS1" s="1" t="inlineStr">
         <is>
           <t>cpmass0_4</t>
         </is>
       </c>
-      <c r="OR1" s="1" t="inlineStr">
+      <c r="OT1" s="1" t="inlineStr">
         <is>
           <t>gamma0_4</t>
         </is>
       </c>
-      <c r="OS1" s="1" t="inlineStr">
+      <c r="OU1" s="1" t="inlineStr">
         <is>
           <t>compressibility_factor0_4</t>
         </is>
       </c>
-      <c r="OT1" s="1" t="inlineStr">
+      <c r="OV1" s="1" t="inlineStr">
         <is>
           <t>speed_sound0_4</t>
         </is>
       </c>
-      <c r="OU1" s="1" t="inlineStr">
+      <c r="OW1" s="1" t="inlineStr">
         <is>
           <t>isentropic_bulk_modulus0_4</t>
         </is>
       </c>
-      <c r="OV1" s="1" t="inlineStr">
+      <c r="OX1" s="1" t="inlineStr">
         <is>
           <t>isentropic_compressibility0_4</t>
         </is>
       </c>
-      <c r="OW1" s="1" t="inlineStr">
+      <c r="OY1" s="1" t="inlineStr">
         <is>
           <t>isothermal_bulk_modulus0_4</t>
         </is>
       </c>
-      <c r="OX1" s="1" t="inlineStr">
+      <c r="OZ1" s="1" t="inlineStr">
         <is>
           <t>isothermal_compressibility0_4</t>
         </is>
       </c>
-      <c r="OY1" s="1" t="inlineStr">
+      <c r="PA1" s="1" t="inlineStr">
         <is>
           <t>isobaric_expansion_coefficient0_4</t>
         </is>
       </c>
-      <c r="OZ1" s="1" t="inlineStr">
+      <c r="PB1" s="1" t="inlineStr">
         <is>
           <t>viscosity0_4</t>
         </is>
       </c>
-      <c r="PA1" s="1" t="inlineStr">
+      <c r="PC1" s="1" t="inlineStr">
         <is>
           <t>conductivity0_4</t>
         </is>
       </c>
-      <c r="PB1" s="1" t="inlineStr">
+      <c r="PD1" s="1" t="inlineStr">
         <is>
           <t>P0_4</t>
         </is>
       </c>
-      <c r="PC1" s="1" t="inlineStr">
+      <c r="PE1" s="1" t="inlineStr">
         <is>
           <t>rho0_4</t>
         </is>
       </c>
-      <c r="PD1" s="1" t="inlineStr">
+      <c r="PF1" s="1" t="inlineStr">
         <is>
           <t>d0_4</t>
         </is>
       </c>
-      <c r="PE1" s="1" t="inlineStr">
+      <c r="PG1" s="1" t="inlineStr">
         <is>
           <t>u0_4</t>
         </is>
       </c>
-      <c r="PF1" s="1" t="inlineStr">
+      <c r="PH1" s="1" t="inlineStr">
         <is>
           <t>h0_4</t>
         </is>
       </c>
-      <c r="PG1" s="1" t="inlineStr">
+      <c r="PI1" s="1" t="inlineStr">
         <is>
           <t>s0_4</t>
         </is>
       </c>
-      <c r="PH1" s="1" t="inlineStr">
+      <c r="PJ1" s="1" t="inlineStr">
         <is>
           <t>cv0_4</t>
         </is>
       </c>
-      <c r="PI1" s="1" t="inlineStr">
+      <c r="PK1" s="1" t="inlineStr">
         <is>
           <t>cp0_4</t>
         </is>
       </c>
-      <c r="PJ1" s="1" t="inlineStr">
+      <c r="PL1" s="1" t="inlineStr">
         <is>
           <t>a0_4</t>
         </is>
       </c>
-      <c r="PK1" s="1" t="inlineStr">
+      <c r="PM1" s="1" t="inlineStr">
         <is>
           <t>Z0_4</t>
         </is>
       </c>
-      <c r="PL1" s="1" t="inlineStr">
+      <c r="PN1" s="1" t="inlineStr">
         <is>
           <t>mu0_4</t>
         </is>
       </c>
-      <c r="PM1" s="1" t="inlineStr">
+      <c r="PO1" s="1" t="inlineStr">
         <is>
           <t>k0_4</t>
         </is>
       </c>
-      <c r="PN1" s="1" t="inlineStr">
+      <c r="PP1" s="1" t="inlineStr">
         <is>
           <t>fluid_name0_4</t>
         </is>
       </c>
-      <c r="PO1" s="1" t="inlineStr">
+      <c r="PQ1" s="1" t="inlineStr">
         <is>
           <t>converged0_4</t>
         </is>
       </c>
-      <c r="PP1" s="1" t="inlineStr">
+      <c r="PR1" s="1" t="inlineStr">
         <is>
           <t>T0_rel_4</t>
         </is>
       </c>
-      <c r="PQ1" s="1" t="inlineStr">
+      <c r="PS1" s="1" t="inlineStr">
         <is>
           <t>p0_rel_4</t>
         </is>
       </c>
-      <c r="PR1" s="1" t="inlineStr">
+      <c r="PT1" s="1" t="inlineStr">
         <is>
           <t>rhomass0_rel_4</t>
         </is>
       </c>
-      <c r="PS1" s="1" t="inlineStr">
+      <c r="PU1" s="1" t="inlineStr">
         <is>
           <t>umass0_rel_4</t>
         </is>
       </c>
-      <c r="PT1" s="1" t="inlineStr">
+      <c r="PV1" s="1" t="inlineStr">
         <is>
           <t>hmass0_rel_4</t>
         </is>
       </c>
-      <c r="PU1" s="1" t="inlineStr">
+      <c r="PW1" s="1" t="inlineStr">
         <is>
           <t>smass0_rel_4</t>
         </is>
       </c>
-      <c r="PV1" s="1" t="inlineStr">
+      <c r="PX1" s="1" t="inlineStr">
         <is>
           <t>gibbsmass0_rel_4</t>
         </is>
       </c>
-      <c r="PW1" s="1" t="inlineStr">
+      <c r="PY1" s="1" t="inlineStr">
         <is>
           <t>cvmass0_rel_4</t>
         </is>
       </c>
-      <c r="PX1" s="1" t="inlineStr">
+      <c r="PZ1" s="1" t="inlineStr">
         <is>
           <t>cpmass0_rel_4</t>
         </is>
       </c>
-      <c r="PY1" s="1" t="inlineStr">
+      <c r="QA1" s="1" t="inlineStr">
         <is>
           <t>gamma0_rel_4</t>
         </is>
       </c>
-      <c r="PZ1" s="1" t="inlineStr">
+      <c r="QB1" s="1" t="inlineStr">
         <is>
           <t>compressibility_factor0_rel_4</t>
         </is>
       </c>
-      <c r="QA1" s="1" t="inlineStr">
+      <c r="QC1" s="1" t="inlineStr">
         <is>
           <t>speed_sound0_rel_4</t>
         </is>
       </c>
-      <c r="QB1" s="1" t="inlineStr">
+      <c r="QD1" s="1" t="inlineStr">
         <is>
           <t>isentropic_bulk_modulus0_rel_4</t>
         </is>
       </c>
-      <c r="QC1" s="1" t="inlineStr">
+      <c r="QE1" s="1" t="inlineStr">
         <is>
           <t>isentropic_compressibility0_rel_4</t>
         </is>
       </c>
-      <c r="QD1" s="1" t="inlineStr">
+      <c r="QF1" s="1" t="inlineStr">
         <is>
           <t>isothermal_bulk_modulus0_rel_4</t>
         </is>
       </c>
-      <c r="QE1" s="1" t="inlineStr">
+      <c r="QG1" s="1" t="inlineStr">
         <is>
           <t>isothermal_compressibility0_rel_4</t>
         </is>
       </c>
-      <c r="QF1" s="1" t="inlineStr">
+      <c r="QH1" s="1" t="inlineStr">
         <is>
           <t>isobaric_expansion_coefficient0_rel_4</t>
         </is>
       </c>
-      <c r="QG1" s="1" t="inlineStr">
+      <c r="QI1" s="1" t="inlineStr">
         <is>
           <t>viscosity0_rel_4</t>
         </is>
       </c>
-      <c r="QH1" s="1" t="inlineStr">
+      <c r="QJ1" s="1" t="inlineStr">
         <is>
           <t>conductivity0_rel_4</t>
         </is>
       </c>
-      <c r="QI1" s="1" t="inlineStr">
+      <c r="QK1" s="1" t="inlineStr">
         <is>
           <t>P0_rel_4</t>
         </is>
       </c>
-      <c r="QJ1" s="1" t="inlineStr">
+      <c r="QL1" s="1" t="inlineStr">
         <is>
           <t>rho0_rel_4</t>
         </is>
       </c>
-      <c r="QK1" s="1" t="inlineStr">
+      <c r="QM1" s="1" t="inlineStr">
         <is>
           <t>d0_rel_4</t>
         </is>
       </c>
-      <c r="QL1" s="1" t="inlineStr">
+      <c r="QN1" s="1" t="inlineStr">
         <is>
           <t>u0_rel_4</t>
         </is>
       </c>
-      <c r="QM1" s="1" t="inlineStr">
+      <c r="QO1" s="1" t="inlineStr">
         <is>
           <t>h0_rel_4</t>
         </is>
       </c>
-      <c r="QN1" s="1" t="inlineStr">
+      <c r="QP1" s="1" t="inlineStr">
         <is>
           <t>s0_rel_4</t>
         </is>
       </c>
-      <c r="QO1" s="1" t="inlineStr">
+      <c r="QQ1" s="1" t="inlineStr">
         <is>
           <t>cv0_rel_4</t>
         </is>
       </c>
-      <c r="QP1" s="1" t="inlineStr">
+      <c r="QR1" s="1" t="inlineStr">
         <is>
           <t>cp0_rel_4</t>
         </is>
       </c>
-      <c r="QQ1" s="1" t="inlineStr">
+      <c r="QS1" s="1" t="inlineStr">
         <is>
           <t>a0_rel_4</t>
         </is>
       </c>
-      <c r="QR1" s="1" t="inlineStr">
+      <c r="QT1" s="1" t="inlineStr">
         <is>
           <t>Z0_rel_4</t>
         </is>
       </c>
-      <c r="QS1" s="1" t="inlineStr">
+      <c r="QU1" s="1" t="inlineStr">
         <is>
           <t>mu0_rel_4</t>
         </is>
       </c>
-      <c r="QT1" s="1" t="inlineStr">
+      <c r="QV1" s="1" t="inlineStr">
         <is>
           <t>k0_rel_4</t>
         </is>
       </c>
-      <c r="QU1" s="1" t="inlineStr">
+      <c r="QW1" s="1" t="inlineStr">
         <is>
           <t>fluid_name0_rel_4</t>
         </is>
       </c>
-      <c r="QV1" s="1" t="inlineStr">
+      <c r="QX1" s="1" t="inlineStr">
         <is>
           <t>converged0_rel_4</t>
         </is>
       </c>
-      <c r="QW1" s="1" t="inlineStr">
+      <c r="QY1" s="1" t="inlineStr">
         <is>
           <t>Ma_4</t>
         </is>
       </c>
-      <c r="QX1" s="1" t="inlineStr">
+      <c r="QZ1" s="1" t="inlineStr">
         <is>
           <t>Ma_rel_4</t>
         </is>
       </c>
-      <c r="QY1" s="1" t="inlineStr">
+      <c r="RA1" s="1" t="inlineStr">
         <is>
           <t>Re_4</t>
         </is>
       </c>
-      <c r="QZ1" s="1" t="inlineStr">
+      <c r="RB1" s="1" t="inlineStr">
         <is>
           <t>mass_flow_4</t>
         </is>
       </c>
-      <c r="RA1" s="1" t="inlineStr">
+      <c r="RC1" s="1" t="inlineStr">
         <is>
           <t>rothalpy_4</t>
         </is>
       </c>
-      <c r="RB1" s="1" t="inlineStr">
+      <c r="RD1" s="1" t="inlineStr">
         <is>
           <t>loss_profile_4</t>
         </is>
       </c>
-      <c r="RC1" s="1" t="inlineStr">
+      <c r="RE1" s="1" t="inlineStr">
         <is>
           <t>loss_incidence_4</t>
         </is>
       </c>
-      <c r="RD1" s="1" t="inlineStr">
+      <c r="RF1" s="1" t="inlineStr">
         <is>
           <t>loss_trailing_4</t>
         </is>
       </c>
-      <c r="RE1" s="1" t="inlineStr">
+      <c r="RG1" s="1" t="inlineStr">
         <is>
           <t>loss_secondary_4</t>
         </is>
       </c>
-      <c r="RF1" s="1" t="inlineStr">
+      <c r="RH1" s="1" t="inlineStr">
         <is>
           <t>loss_clearance_4</t>
         </is>
       </c>
-      <c r="RG1" s="1" t="inlineStr">
+      <c r="RI1" s="1" t="inlineStr">
         <is>
           <t>loss_total_4</t>
         </is>
       </c>
-      <c r="RH1" s="1" t="inlineStr">
+      <c r="RJ1" s="1" t="inlineStr">
         <is>
           <t>loss_error_4</t>
         </is>
       </c>
-      <c r="RI1" s="1" t="inlineStr">
+      <c r="RK1" s="1" t="inlineStr">
         <is>
           <t>blockage_4</t>
+        </is>
+      </c>
+      <c r="RL1" s="1" t="inlineStr">
+        <is>
+          <t>h_is_4</t>
         </is>
       </c>
     </row>
@@ -3240,10 +3255,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>82.20852515310803</v>
+        <v>82.20852516743564</v>
       </c>
       <c r="D2" t="n">
-        <v>82.20852515310803</v>
+        <v>82.20852516743564</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3252,10 +3267,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>82.20852515310803</v>
+        <v>82.20852516743564</v>
       </c>
       <c r="H2" t="n">
-        <v>82.20852515310803</v>
+        <v>82.20852516743564</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3264,97 +3279,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.2307534753127</v>
+        <v>292.2307534742383</v>
       </c>
       <c r="L2" t="n">
-        <v>132579.3702991902</v>
+        <v>132579.3702974859</v>
       </c>
       <c r="M2" t="n">
-        <v>1.581292674681299</v>
+        <v>1.581292674666797</v>
       </c>
       <c r="N2" t="n">
-        <v>334562.911959466</v>
+        <v>334562.9119586974</v>
       </c>
       <c r="O2" t="n">
-        <v>418405.3102845647</v>
+        <v>418405.3102834873</v>
       </c>
       <c r="P2" t="n">
-        <v>3782.917347718242</v>
+        <v>3782.917347718243</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687079.4765739685</v>
+        <v>-687079.4765709818</v>
       </c>
       <c r="R2" t="n">
-        <v>717.707405242367</v>
+        <v>717.7074052423184</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.641275457165</v>
+        <v>1006.641275457109</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402578917403293</v>
+        <v>1.402578917403309</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994971152129482</v>
+        <v>0.9994971152129406</v>
       </c>
       <c r="V2" t="n">
-        <v>342.8367684409571</v>
+        <v>342.8367684403262</v>
       </c>
       <c r="W2" t="n">
-        <v>185860.4758445453</v>
+        <v>185860.4758421568</v>
       </c>
       <c r="X2" t="n">
-        <v>5.380380069813257e-06</v>
+        <v>5.380380069882401e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132513.3819839841</v>
+        <v>132513.3819822796</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.546407653536929e-06</v>
+        <v>7.546407653633995e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003434887590781459</v>
+        <v>0.003434887590794067</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.816545453092043e-05</v>
+        <v>1.816545453086786e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02581513322774386</v>
+        <v>0.02581513322766288</v>
       </c>
       <c r="AD2" t="n">
-        <v>132579.3702991902</v>
+        <v>132579.3702974859</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.581292674681299</v>
+        <v>1.581292674666797</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.581292674681299</v>
+        <v>1.581292674666797</v>
       </c>
       <c r="AG2" t="n">
-        <v>334562.911959466</v>
+        <v>334562.9119586974</v>
       </c>
       <c r="AH2" t="n">
-        <v>418405.3102845647</v>
+        <v>418405.3102834873</v>
       </c>
       <c r="AI2" t="n">
-        <v>3782.917347718242</v>
+        <v>3782.917347718243</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.707405242367</v>
+        <v>717.7074052423184</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.641275457165</v>
+        <v>1006.641275457109</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.8367684409571</v>
+        <v>342.8367684403262</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994971152129482</v>
+        <v>0.9994971152129406</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.816545453092043e-05</v>
+        <v>1.816545453086786e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02581513322774386</v>
+        <v>0.02581513322766288</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -3567,16 +3582,16 @@
         <v>1</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.2397891145892827</v>
+        <v>0.2397891146315153</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.2397891145892827</v>
+        <v>0.2397891146315153</v>
       </c>
       <c r="DH2" t="n">
-        <v>187206.3545966269</v>
+        <v>187206.3546280789</v>
       </c>
       <c r="DI2" t="n">
-        <v>2.790805431846081</v>
+        <v>2.79080543230688</v>
       </c>
       <c r="DJ2" t="n">
         <v>421784.4310884894</v>
@@ -3621,1088 +3636,1099 @@
           <t>b''</t>
         </is>
       </c>
-      <c r="DS2" t="n">
+      <c r="DS2" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="DT2" t="n">
         <v>0</v>
       </c>
-      <c r="DT2" t="n">
-        <v>274.1650384778716</v>
-      </c>
       <c r="DU2" t="n">
-        <v>114.3396414258159</v>
+        <v>274.1650384924926</v>
       </c>
       <c r="DV2" t="n">
-        <v>249.1844993617955</v>
+        <v>114.3396414416816</v>
       </c>
       <c r="DW2" t="n">
-        <v>65.35172290377963</v>
+        <v>249.1844993706021</v>
       </c>
       <c r="DX2" t="n">
-        <v>274.1650384778716</v>
+        <v>65.35172290153365</v>
       </c>
       <c r="DY2" t="n">
-        <v>114.3396414258159</v>
+        <v>274.1650384924926</v>
       </c>
       <c r="DZ2" t="n">
-        <v>249.1844993617955</v>
+        <v>114.3396414416816</v>
       </c>
       <c r="EA2" t="n">
-        <v>65.35172290377963</v>
+        <v>249.1844993706021</v>
       </c>
       <c r="EB2" t="n">
-        <v>258.0958630471094</v>
+        <v>65.35172290153363</v>
       </c>
       <c r="EC2" t="n">
-        <v>84173.10359954658</v>
+        <v>258.095863043119</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.136926240113014</v>
+        <v>84173.10359871198</v>
       </c>
       <c r="EE2" t="n">
-        <v>310165.5201785091</v>
+        <v>1.136926240119373</v>
       </c>
       <c r="EF2" t="n">
-        <v>384201.196926703</v>
+        <v>310165.5201756486</v>
       </c>
       <c r="EG2" t="n">
-        <v>3788.783891568449</v>
+        <v>384201.1969226944</v>
       </c>
       <c r="EH2" t="n">
-        <v>-593668.251466642</v>
+        <v>3788.783891555762</v>
       </c>
       <c r="EI2" t="n">
-        <v>716.4980321127749</v>
+        <v>-593668.251452257</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1005.1542272393</v>
+        <v>716.4980321126839</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.402870883364955</v>
+        <v>1005.154227239253</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.9993181540916278</v>
+        <v>1.402870883365067</v>
       </c>
       <c r="EM2" t="n">
-        <v>322.1675625752843</v>
+        <v>0.9993181540915809</v>
       </c>
       <c r="EN2" t="n">
-        <v>118003.778251526</v>
+        <v>322.1675625727914</v>
       </c>
       <c r="EO2" t="n">
-        <v>8.474304931732712e-06</v>
+        <v>118003.7782503597</v>
       </c>
       <c r="EP2" t="n">
-        <v>84115.92232100484</v>
+        <v>8.474304931816465e-06</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.188835564548386e-05</v>
+        <v>84115.92232016682</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.003888006291862229</v>
+        <v>1.18883556456023e-05</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.64530193552158e-05</v>
+        <v>0.003888006291922818</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.02319180040373085</v>
+        <v>1.645301935501113e-05</v>
       </c>
       <c r="EU2" t="n">
-        <v>84173.10359954658</v>
+        <v>0.02319180040341956</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.136926240113014</v>
+        <v>84173.10359871198</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.136926240113014</v>
+        <v>1.136926240119373</v>
       </c>
       <c r="EX2" t="n">
-        <v>310165.5201785091</v>
+        <v>1.136926240119373</v>
       </c>
       <c r="EY2" t="n">
-        <v>384201.196926703</v>
+        <v>310165.5201756486</v>
       </c>
       <c r="EZ2" t="n">
-        <v>3788.783891568449</v>
+        <v>384201.1969226944</v>
       </c>
       <c r="FA2" t="n">
-        <v>716.4980321127749</v>
+        <v>3788.783891555762</v>
       </c>
       <c r="FB2" t="n">
-        <v>1005.1542272393</v>
+        <v>716.4980321126839</v>
       </c>
       <c r="FC2" t="n">
-        <v>322.1675625752843</v>
+        <v>1005.154227239253</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.9993181540916278</v>
+        <v>322.1675625727914</v>
       </c>
       <c r="FE2" t="n">
-        <v>1.64530193552158e-05</v>
+        <v>0.9993181540915809</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.02319180040373085</v>
-      </c>
-      <c r="FG2" t="inlineStr">
+        <v>1.645301935501113e-05</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>0.02319180040341956</v>
+      </c>
+      <c r="FH2" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="FH2" t="b">
+      <c r="FI2" t="b">
         <v>1</v>
       </c>
-      <c r="FI2" t="n">
-        <v>295.593524144028</v>
-      </c>
       <c r="FJ2" t="n">
-        <v>135206.950158496</v>
+        <v>295.5935241440421</v>
       </c>
       <c r="FK2" t="n">
-        <v>1.594232983758916</v>
+        <v>135206.9501644749</v>
       </c>
       <c r="FL2" t="n">
-        <v>336974.3992198334</v>
+        <v>1.594232983829371</v>
       </c>
       <c r="FM2" t="n">
-        <v>421784.4310883889</v>
+        <v>336974.3992198313</v>
       </c>
       <c r="FN2" t="n">
-        <v>3788.783891572938</v>
+        <v>421784.4310883891</v>
       </c>
       <c r="FO2" t="n">
-        <v>-698155.5516417804</v>
+        <v>3788.78389156025</v>
       </c>
       <c r="FP2" t="n">
-        <v>717.8559613685525</v>
+        <v>-698155.5516380833</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1006.77572522133</v>
+        <v>717.8559613685679</v>
       </c>
       <c r="FR2" t="n">
-        <v>1.402475955346207</v>
+        <v>1006.775725221428</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.999530569412349</v>
+        <v>1.402475955346313</v>
       </c>
       <c r="FT2" t="n">
-        <v>344.80257975368</v>
+        <v>0.9995305694123285</v>
       </c>
       <c r="FU2" t="n">
-        <v>189536.4766575847</v>
+        <v>344.8025797536943</v>
       </c>
       <c r="FV2" t="n">
-        <v>5.276029277502047e-06</v>
+        <v>189536.4766659767</v>
       </c>
       <c r="FW2" t="n">
-        <v>135144.1897702958</v>
+        <v>5.276029277268444e-06</v>
       </c>
       <c r="FX2" t="n">
-        <v>7.399504201399243e-06</v>
+        <v>135144.1897762693</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.003395614454317354</v>
+        <v>7.399504201072176e-06</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1.832923467031137e-05</v>
+        <v>0.003395614454317745</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.02606725562222851</v>
+        <v>1.832923467031292e-05</v>
       </c>
       <c r="GB2" t="n">
-        <v>135206.950158496</v>
+        <v>0.02606725562223148</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.594232983758916</v>
+        <v>135206.9501644749</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.594232983758916</v>
+        <v>1.594232983829371</v>
       </c>
       <c r="GE2" t="n">
-        <v>336974.3992198334</v>
+        <v>1.594232983829371</v>
       </c>
       <c r="GF2" t="n">
-        <v>421784.4310883889</v>
+        <v>336974.3992198313</v>
       </c>
       <c r="GG2" t="n">
-        <v>3788.783891572938</v>
+        <v>421784.4310883891</v>
       </c>
       <c r="GH2" t="n">
-        <v>717.8559613685525</v>
+        <v>3788.78389156025</v>
       </c>
       <c r="GI2" t="n">
-        <v>1006.77572522133</v>
+        <v>717.8559613685679</v>
       </c>
       <c r="GJ2" t="n">
-        <v>344.80257975368</v>
+        <v>1006.775725221428</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.999530569412349</v>
+        <v>344.8025797536943</v>
       </c>
       <c r="GL2" t="n">
-        <v>1.832923467031137e-05</v>
+        <v>0.9995305694123285</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.02606725562222851</v>
-      </c>
-      <c r="GN2" t="inlineStr">
+        <v>1.832923467031292e-05</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>0.02606725562223148</v>
+      </c>
+      <c r="GO2" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="GO2" t="b">
+      <c r="GP2" t="b">
         <v>1</v>
       </c>
-      <c r="GP2" t="n">
-        <v>295.593524144028</v>
-      </c>
       <c r="GQ2" t="n">
-        <v>135206.950158496</v>
+        <v>295.5935241440421</v>
       </c>
       <c r="GR2" t="n">
-        <v>1.594232983758916</v>
+        <v>135206.9501644749</v>
       </c>
       <c r="GS2" t="n">
-        <v>336974.3992198334</v>
+        <v>1.594232983829371</v>
       </c>
       <c r="GT2" t="n">
-        <v>421784.4310883889</v>
+        <v>336974.3992198313</v>
       </c>
       <c r="GU2" t="n">
-        <v>3788.783891572938</v>
+        <v>421784.4310883891</v>
       </c>
       <c r="GV2" t="n">
-        <v>-698155.5516417804</v>
+        <v>3788.78389156025</v>
       </c>
       <c r="GW2" t="n">
-        <v>717.8559613685525</v>
+        <v>-698155.5516380833</v>
       </c>
       <c r="GX2" t="n">
-        <v>1006.77572522133</v>
+        <v>717.8559613685679</v>
       </c>
       <c r="GY2" t="n">
-        <v>1.402475955346207</v>
+        <v>1006.775725221428</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.999530569412349</v>
+        <v>1.402475955346313</v>
       </c>
       <c r="HA2" t="n">
-        <v>344.80257975368</v>
+        <v>0.9995305694123285</v>
       </c>
       <c r="HB2" t="n">
-        <v>189536.4766575847</v>
+        <v>344.8025797536943</v>
       </c>
       <c r="HC2" t="n">
-        <v>5.276029277502047e-06</v>
+        <v>189536.4766659767</v>
       </c>
       <c r="HD2" t="n">
-        <v>135144.1897702958</v>
+        <v>5.276029277268444e-06</v>
       </c>
       <c r="HE2" t="n">
-        <v>7.399504201399243e-06</v>
+        <v>135144.1897762693</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.003395614454317354</v>
+        <v>7.399504201072176e-06</v>
       </c>
       <c r="HG2" t="n">
-        <v>1.832923467031137e-05</v>
+        <v>0.003395614454317745</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.02606725562222851</v>
+        <v>1.832923467031292e-05</v>
       </c>
       <c r="HI2" t="n">
-        <v>135206.950158496</v>
+        <v>0.02606725562223148</v>
       </c>
       <c r="HJ2" t="n">
-        <v>1.594232983758916</v>
+        <v>135206.9501644749</v>
       </c>
       <c r="HK2" t="n">
-        <v>1.594232983758916</v>
+        <v>1.594232983829371</v>
       </c>
       <c r="HL2" t="n">
-        <v>336974.3992198334</v>
+        <v>1.594232983829371</v>
       </c>
       <c r="HM2" t="n">
-        <v>421784.4310883889</v>
+        <v>336974.3992198313</v>
       </c>
       <c r="HN2" t="n">
-        <v>3788.783891572938</v>
+        <v>421784.4310883891</v>
       </c>
       <c r="HO2" t="n">
-        <v>717.8559613685525</v>
+        <v>3788.78389156025</v>
       </c>
       <c r="HP2" t="n">
-        <v>1006.77572522133</v>
+        <v>717.8559613685679</v>
       </c>
       <c r="HQ2" t="n">
-        <v>344.80257975368</v>
+        <v>1006.775725221428</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.999530569412349</v>
+        <v>344.8025797536943</v>
       </c>
       <c r="HS2" t="n">
-        <v>1.832923467031137e-05</v>
+        <v>0.9995305694123285</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.02606725562222851</v>
-      </c>
-      <c r="HU2" t="inlineStr">
+        <v>1.832923467031292e-05</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>0.02606725562223148</v>
+      </c>
+      <c r="HV2" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="HV2" t="b">
+      <c r="HW2" t="b">
         <v>1</v>
       </c>
-      <c r="HW2" t="n">
-        <v>0.8510013742112991</v>
-      </c>
       <c r="HX2" t="n">
-        <v>0.8510013742112991</v>
+        <v>0.8510013742632671</v>
       </c>
       <c r="HY2" t="n">
-        <v>495605.9296908323</v>
+        <v>0.8510013742632671</v>
       </c>
       <c r="HZ2" t="n">
-        <v>2.790805431870989</v>
+        <v>495605.9297261992</v>
       </c>
       <c r="IA2" t="n">
+        <v>2.790805432273846</v>
+      </c>
+      <c r="IB2" t="n">
         <v>421784.4310884894</v>
       </c>
-      <c r="IB2" t="n">
-        <v>0.01561897651732149</v>
-      </c>
       <c r="IC2" t="n">
-        <v>-1.808493700650828e-07</v>
+        <v>0.01561897651507948</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.01378013287983814</v>
+        <v>-1.808493700480447e-07</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.02533043296337538</v>
+        <v>0.01378013287977033</v>
       </c>
       <c r="IF2" t="n">
+        <v>0.02533043296426881</v>
+      </c>
+      <c r="IG2" t="n">
         <v>0</v>
       </c>
-      <c r="IG2" t="n">
-        <v>0.05472936151116495</v>
-      </c>
       <c r="IH2" t="n">
-        <v>-1.837905522217298e-11</v>
+        <v>0.05472936150974857</v>
       </c>
       <c r="II2" t="n">
+        <v>-1.414317829517842e-10</v>
+      </c>
+      <c r="IJ2" t="n">
         <v>0</v>
       </c>
-      <c r="IJ2" t="n">
+      <c r="IK2" t="n">
+        <v>382691.4762419219</v>
+      </c>
+      <c r="IL2" t="n">
         <v>165.3032</v>
       </c>
-      <c r="IK2" t="n">
-        <v>274.1650384778716</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>114.3396414258159</v>
-      </c>
       <c r="IM2" t="n">
-        <v>249.1844993617955</v>
+        <v>274.1650384924926</v>
       </c>
       <c r="IN2" t="n">
-        <v>65.35172290377963</v>
+        <v>114.3396414416815</v>
       </c>
       <c r="IO2" t="n">
-        <v>141.8084129521494</v>
+        <v>249.1844993706022</v>
       </c>
       <c r="IP2" t="n">
-        <v>114.3396414258159</v>
+        <v>65.35172290153365</v>
       </c>
       <c r="IQ2" t="n">
-        <v>83.8812993617955</v>
+        <v>141.808412970151</v>
       </c>
       <c r="IR2" t="n">
-        <v>36.2643384905492</v>
+        <v>114.3396414416815</v>
       </c>
       <c r="IS2" t="n">
-        <v>258.0958630469087</v>
+        <v>83.88129937060216</v>
       </c>
       <c r="IT2" t="n">
-        <v>84173.10359918969</v>
+        <v>36.26433848962643</v>
       </c>
       <c r="IU2" t="n">
-        <v>1.136926240109078</v>
+        <v>258.0958630431186</v>
       </c>
       <c r="IV2" t="n">
-        <v>310165.520178366</v>
+        <v>84173.10359858346</v>
       </c>
       <c r="IW2" t="n">
-        <v>384201.1969265023</v>
+        <v>1.136926240117638</v>
       </c>
       <c r="IX2" t="n">
-        <v>3788.783891568889</v>
+        <v>310165.5201756487</v>
       </c>
       <c r="IY2" t="n">
-        <v>-593668.2514661954</v>
+        <v>384201.1969226944</v>
       </c>
       <c r="IZ2" t="n">
-        <v>716.4980321127695</v>
+        <v>3788.7838915562</v>
       </c>
       <c r="JA2" t="n">
-        <v>1005.154227239291</v>
+        <v>-593668.2514523685</v>
       </c>
       <c r="JB2" t="n">
-        <v>1.402870883364952</v>
+        <v>716.4980321126839</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.9993181540916281</v>
+        <v>1005.15422723925</v>
       </c>
       <c r="JD2" t="n">
-        <v>322.1675625751588</v>
+        <v>1.402870883365063</v>
       </c>
       <c r="JE2" t="n">
-        <v>118003.7782510255</v>
+        <v>0.9993181540915819</v>
       </c>
       <c r="JF2" t="n">
-        <v>8.474304931768657e-06</v>
+        <v>322.1675625727911</v>
       </c>
       <c r="JG2" t="n">
-        <v>84115.92232064818</v>
+        <v>118003.7782501794</v>
       </c>
       <c r="JH2" t="n">
-        <v>1.188835564553427e-05</v>
+        <v>8.474304931829414e-06</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.003888006291865226</v>
+        <v>84115.92232003847</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1.645301935520545e-05</v>
+        <v>1.188835564562044e-05</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.02319180040371507</v>
+        <v>0.003888006291922804</v>
       </c>
       <c r="JL2" t="n">
-        <v>84173.10359918969</v>
+        <v>1.645301935501109e-05</v>
       </c>
       <c r="JM2" t="n">
-        <v>1.136926240109078</v>
+        <v>0.02319180040341949</v>
       </c>
       <c r="JN2" t="n">
-        <v>1.136926240109078</v>
+        <v>84173.10359858346</v>
       </c>
       <c r="JO2" t="n">
-        <v>310165.520178366</v>
+        <v>1.136926240117638</v>
       </c>
       <c r="JP2" t="n">
-        <v>384201.1969265023</v>
+        <v>1.136926240117638</v>
       </c>
       <c r="JQ2" t="n">
-        <v>3788.783891568889</v>
+        <v>310165.5201756487</v>
       </c>
       <c r="JR2" t="n">
-        <v>716.4980321127695</v>
+        <v>384201.1969226944</v>
       </c>
       <c r="JS2" t="n">
-        <v>1005.154227239291</v>
+        <v>3788.7838915562</v>
       </c>
       <c r="JT2" t="n">
-        <v>322.1675625751588</v>
+        <v>716.4980321126839</v>
       </c>
       <c r="JU2" t="n">
-        <v>0.9993181540916281</v>
+        <v>1005.15422723925</v>
       </c>
       <c r="JV2" t="n">
-        <v>1.645301935520545e-05</v>
+        <v>322.1675625727911</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.02319180040371507</v>
-      </c>
-      <c r="JX2" t="inlineStr">
+        <v>0.9993181540915819</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>1.645301935501109e-05</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>0.02319180040341949</v>
+      </c>
+      <c r="JZ2" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="JY2" t="b">
+      <c r="KA2" t="b">
         <v>1</v>
       </c>
-      <c r="JZ2" t="n">
-        <v>295.5935241439275</v>
-      </c>
-      <c r="KA2" t="n">
-        <v>135206.9501581291</v>
-      </c>
       <c r="KB2" t="n">
-        <v>1.594232983755132</v>
+        <v>295.5935241439415</v>
       </c>
       <c r="KC2" t="n">
-        <v>336974.3992197619</v>
+        <v>135206.9501641088</v>
       </c>
       <c r="KD2" t="n">
-        <v>421784.4310882885</v>
+        <v>1.594232983825596</v>
       </c>
       <c r="KE2" t="n">
-        <v>3788.783891573376</v>
+        <v>336974.3992197597</v>
       </c>
       <c r="KF2" t="n">
-        <v>-698155.5516416298</v>
+        <v>421784.4310882886</v>
       </c>
       <c r="KG2" t="n">
-        <v>717.8559613685474</v>
+        <v>3788.783891560687</v>
       </c>
       <c r="KH2" t="n">
-        <v>1006.775725221321</v>
+        <v>-698155.5516379321</v>
       </c>
       <c r="KI2" t="n">
-        <v>1.402475955346204</v>
+        <v>717.8559613685629</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.999530569412349</v>
+        <v>1006.77572522142</v>
       </c>
       <c r="KK2" t="n">
-        <v>344.8025797536211</v>
+        <v>1.402475955346311</v>
       </c>
       <c r="KL2" t="n">
-        <v>189536.47665707</v>
+        <v>0.9995305694123285</v>
       </c>
       <c r="KM2" t="n">
-        <v>5.276029277516373e-06</v>
+        <v>344.8025797536354</v>
       </c>
       <c r="KN2" t="n">
-        <v>135144.189769929</v>
+        <v>189536.4766654632</v>
       </c>
       <c r="KO2" t="n">
-        <v>7.399504201419322e-06</v>
+        <v>5.276029277282737e-06</v>
       </c>
       <c r="KP2" t="n">
-        <v>0.003395614454318488</v>
+        <v>135144.1897759034</v>
       </c>
       <c r="KQ2" t="n">
-        <v>1.832923467030645e-05</v>
+        <v>7.399504201092212e-06</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.02606725562222089</v>
+        <v>0.003395614454318878</v>
       </c>
       <c r="KS2" t="n">
-        <v>135206.9501581291</v>
+        <v>1.832923467030799e-05</v>
       </c>
       <c r="KT2" t="n">
-        <v>1.594232983755132</v>
+        <v>0.02606725562222386</v>
       </c>
       <c r="KU2" t="n">
-        <v>1.594232983755132</v>
+        <v>135206.9501641088</v>
       </c>
       <c r="KV2" t="n">
-        <v>336974.3992197619</v>
+        <v>1.594232983825596</v>
       </c>
       <c r="KW2" t="n">
-        <v>421784.4310882885</v>
+        <v>1.594232983825596</v>
       </c>
       <c r="KX2" t="n">
-        <v>3788.783891573376</v>
+        <v>336974.3992197597</v>
       </c>
       <c r="KY2" t="n">
-        <v>717.8559613685474</v>
+        <v>421784.4310882886</v>
       </c>
       <c r="KZ2" t="n">
-        <v>1006.775725221321</v>
+        <v>3788.783891560687</v>
       </c>
       <c r="LA2" t="n">
-        <v>344.8025797536211</v>
+        <v>717.8559613685629</v>
       </c>
       <c r="LB2" t="n">
-        <v>0.999530569412349</v>
+        <v>1006.77572522142</v>
       </c>
       <c r="LC2" t="n">
-        <v>1.832923467030645e-05</v>
+        <v>344.8025797536354</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.02606725562222089</v>
-      </c>
-      <c r="LE2" t="inlineStr">
+        <v>0.9995305694123285</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>1.832923467030799e-05</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>0.02606725562222386</v>
+      </c>
+      <c r="LG2" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="LF2" t="b">
+      <c r="LH2" t="b">
         <v>1</v>
       </c>
-      <c r="LG2" t="n">
-        <v>268.1325478441947</v>
-      </c>
-      <c r="LH2" t="n">
-        <v>96169.1434275951</v>
-      </c>
       <c r="LI2" t="n">
-        <v>1.250276210432908</v>
+        <v>268.1325478428539</v>
       </c>
       <c r="LJ2" t="n">
-        <v>317337.691690011</v>
+        <v>96169.14343015384</v>
       </c>
       <c r="LK2" t="n">
-        <v>394256.009918506</v>
+        <v>1.250276210472469</v>
       </c>
       <c r="LL2" t="n">
-        <v>3788.783891574836</v>
+        <v>317337.6916890429</v>
       </c>
       <c r="LM2" t="n">
-        <v>-621640.2681604981</v>
+        <v>394256.0099171505</v>
       </c>
       <c r="LN2" t="n">
-        <v>716.7853702994814</v>
+        <v>3788.783891562148</v>
       </c>
       <c r="LO2" t="n">
-        <v>1005.511312851222</v>
+        <v>-621640.2681533716</v>
       </c>
       <c r="LP2" t="n">
-        <v>1.402806690140882</v>
+        <v>716.7853702994533</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.9993647230925952</v>
+        <v>1005.511312851258</v>
       </c>
       <c r="LR2" t="n">
-        <v>328.3798436116767</v>
+        <v>1.402806690140988</v>
       </c>
       <c r="LS2" t="n">
-        <v>134821.4368015026</v>
+        <v>0.9993647230925605</v>
       </c>
       <c r="LT2" t="n">
-        <v>7.417218090267785e-06</v>
+        <v>328.3798436108567</v>
       </c>
       <c r="LU2" t="n">
-        <v>96108.35031586762</v>
+        <v>134821.4368050953</v>
       </c>
       <c r="LV2" t="n">
-        <v>1.040492315926162e-05</v>
+        <v>7.417218090070133e-06</v>
       </c>
       <c r="LW2" t="n">
-        <v>0.003742747758400829</v>
+        <v>96108.35031842145</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.696534104371547e-05</v>
+        <v>1.040492315898514e-05</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.02397353035660138</v>
+        <v>0.003742747758420093</v>
       </c>
       <c r="LZ2" t="n">
-        <v>96169.1434275951</v>
+        <v>1.696534104364819e-05</v>
       </c>
       <c r="MA2" t="n">
-        <v>1.250276210432908</v>
+        <v>0.02397353035649907</v>
       </c>
       <c r="MB2" t="n">
-        <v>1.250276210432908</v>
+        <v>96169.14343015384</v>
       </c>
       <c r="MC2" t="n">
-        <v>317337.691690011</v>
+        <v>1.250276210472469</v>
       </c>
       <c r="MD2" t="n">
-        <v>394256.009918506</v>
+        <v>1.250276210472469</v>
       </c>
       <c r="ME2" t="n">
-        <v>3788.783891574836</v>
+        <v>317337.6916890429</v>
       </c>
       <c r="MF2" t="n">
-        <v>716.7853702994814</v>
+        <v>394256.0099171505</v>
       </c>
       <c r="MG2" t="n">
-        <v>1005.511312851222</v>
+        <v>3788.783891562148</v>
       </c>
       <c r="MH2" t="n">
-        <v>328.3798436116767</v>
+        <v>716.7853702994533</v>
       </c>
       <c r="MI2" t="n">
-        <v>0.9993647230925952</v>
+        <v>1005.511312851258</v>
       </c>
       <c r="MJ2" t="n">
-        <v>1.696534104371547e-05</v>
+        <v>328.3798436108567</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.02397353035660138</v>
-      </c>
-      <c r="ML2" t="inlineStr">
+        <v>0.9993647230925605</v>
+      </c>
+      <c r="ML2" t="n">
+        <v>1.696534104364819e-05</v>
+      </c>
+      <c r="MM2" t="n">
+        <v>0.02397353035649907</v>
+      </c>
+      <c r="MN2" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="MM2" t="b">
+      <c r="MO2" t="b">
         <v>1</v>
       </c>
-      <c r="MN2" t="n">
-        <v>0.8510013742116306</v>
-      </c>
-      <c r="MO2" t="n">
-        <v>0.4401697421634952</v>
-      </c>
       <c r="MP2" t="n">
-        <v>255366.0091943856</v>
+        <v>0.8510013742632678</v>
       </c>
       <c r="MQ2" t="n">
-        <v>2.790805431861326</v>
+        <v>0.4401697422226066</v>
       </c>
       <c r="MR2" t="n">
-        <v>380593.4359534862</v>
+        <v>255366.0092317418</v>
       </c>
       <c r="MS2" t="n">
+        <v>2.790805432269584</v>
+      </c>
+      <c r="MT2" t="n">
+        <v>380593.4359520305</v>
+      </c>
+      <c r="MU2" t="n">
         <v>165.3032</v>
       </c>
-      <c r="MT2" t="n">
-        <v>135.4695893152596</v>
-      </c>
-      <c r="MU2" t="n">
-        <v>125.5086189497928</v>
-      </c>
       <c r="MV2" t="n">
-        <v>-50.98623538329545</v>
+        <v>135.4695893277991</v>
       </c>
       <c r="MW2" t="n">
-        <v>-22.108805306144</v>
+        <v>125.5086189696105</v>
       </c>
       <c r="MX2" t="n">
-        <v>250.0670575847787</v>
+        <v>-50.9862353678291</v>
       </c>
       <c r="MY2" t="n">
-        <v>125.5086189497928</v>
+        <v>-22.10880529692902</v>
       </c>
       <c r="MZ2" t="n">
-        <v>-216.2894353832955</v>
+        <v>250.0670575813479</v>
       </c>
       <c r="NA2" t="n">
-        <v>-59.87422706599884</v>
+        <v>125.5086189696105</v>
       </c>
       <c r="NB2" t="n">
-        <v>236.9057734243912</v>
+        <v>-216.2894353678291</v>
       </c>
       <c r="NC2" t="n">
-        <v>59999.999999896</v>
+        <v>-59.87422706029294</v>
       </c>
       <c r="ND2" t="n">
-        <v>0.8829486054252297</v>
+        <v>236.9057734238024</v>
       </c>
       <c r="NE2" t="n">
-        <v>295035.118162672</v>
+        <v>60000.00000165429</v>
       </c>
       <c r="NF2" t="n">
-        <v>362989.2432739516</v>
+        <v>0.8829486054533245</v>
       </c>
       <c r="NG2" t="n">
-        <v>3800.133275768069</v>
+        <v>295035.118162245</v>
       </c>
       <c r="NH2" t="n">
-        <v>-537284.2695376482</v>
+        <v>362989.2432733538</v>
       </c>
       <c r="NI2" t="n">
-        <v>716.0331786757934</v>
+        <v>3800.133275757141</v>
       </c>
       <c r="NJ2" t="n">
-        <v>1004.487866949669</v>
+        <v>-537284.2695334193</v>
       </c>
       <c r="NK2" t="n">
-        <v>1.402851008674394</v>
+        <v>716.033178675794</v>
       </c>
       <c r="NL2" t="n">
-        <v>0.9992725343294294</v>
+        <v>1004.48786694972</v>
       </c>
       <c r="NM2" t="n">
-        <v>308.6426631673006</v>
+        <v>1.402851008674463</v>
       </c>
       <c r="NN2" t="n">
-        <v>84109.94332206598</v>
+        <v>0.9992725343294003</v>
       </c>
       <c r="NO2" t="n">
-        <v>1.188920073541e-05</v>
+        <v>308.6426631669157</v>
       </c>
       <c r="NP2" t="n">
-        <v>59956.43357846293</v>
+        <v>84109.94332453255</v>
       </c>
       <c r="NQ2" t="n">
-        <v>1.667877724400225e-05</v>
+        <v>1.188920073506134e-05</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.004234486916492695</v>
+        <v>59956.43358021819</v>
       </c>
       <c r="NS2" t="n">
-        <v>1.534470472114335e-05</v>
+        <v>1.667877724351397e-05</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.02150906073078453</v>
+        <v>0.004234486916503707</v>
       </c>
       <c r="NU2" t="n">
-        <v>59999.999999896</v>
+        <v>1.534470472111242e-05</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.8829486054252297</v>
+        <v>0.02150906073073812</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.8829486054252297</v>
+        <v>60000.00000165429</v>
       </c>
       <c r="NX2" t="n">
-        <v>295035.118162672</v>
+        <v>0.8829486054533245</v>
       </c>
       <c r="NY2" t="n">
-        <v>362989.2432739516</v>
+        <v>0.8829486054533245</v>
       </c>
       <c r="NZ2" t="n">
-        <v>3800.133275768069</v>
+        <v>295035.118162245</v>
       </c>
       <c r="OA2" t="n">
-        <v>716.0331786757934</v>
+        <v>362989.2432733538</v>
       </c>
       <c r="OB2" t="n">
-        <v>1004.487866949669</v>
+        <v>3800.133275757141</v>
       </c>
       <c r="OC2" t="n">
-        <v>308.6426631673006</v>
+        <v>716.033178675794</v>
       </c>
       <c r="OD2" t="n">
-        <v>0.9992725343294294</v>
+        <v>1004.48786694972</v>
       </c>
       <c r="OE2" t="n">
-        <v>1.534470472114335e-05</v>
+        <v>308.6426631669157</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.02150906073078453</v>
-      </c>
-      <c r="OG2" t="inlineStr">
+        <v>0.9992725343294003</v>
+      </c>
+      <c r="OG2" t="n">
+        <v>1.534470472111242e-05</v>
+      </c>
+      <c r="OH2" t="n">
+        <v>0.02150906073073812</v>
+      </c>
+      <c r="OI2" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="OH2" t="b">
+      <c r="OJ2" t="b">
         <v>1</v>
       </c>
-      <c r="OI2" t="n">
-        <v>246.0690979978184</v>
-      </c>
-      <c r="OJ2" t="n">
-        <v>68499.67981578172</v>
-      </c>
       <c r="OK2" t="n">
-        <v>0.970463875897084</v>
+        <v>246.0690979990264</v>
       </c>
       <c r="OL2" t="n">
-        <v>301580.776562046</v>
+        <v>68499.67981955716</v>
       </c>
       <c r="OM2" t="n">
-        <v>372165.2480885741</v>
+        <v>0.9704638759458299</v>
       </c>
       <c r="ON2" t="n">
-        <v>3800.133275776639</v>
+        <v>301580.7765629023</v>
       </c>
       <c r="OO2" t="n">
-        <v>-562930.1193532787</v>
+        <v>372165.2480897752</v>
       </c>
       <c r="OP2" t="n">
-        <v>716.2056506675068</v>
+        <v>3800.133275765712</v>
       </c>
       <c r="OQ2" t="n">
-        <v>1004.72014289738</v>
+        <v>-562930.119353979</v>
       </c>
       <c r="OR2" t="n">
-        <v>1.402837497806637</v>
+        <v>716.2056506675425</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.9992999371498626</v>
+        <v>1004.720142897479</v>
       </c>
       <c r="OT2" t="n">
-        <v>314.5622301062108</v>
+        <v>1.402837497806706</v>
       </c>
       <c r="OU2" t="n">
-        <v>96026.81495122903</v>
+        <v>0.99929993714984</v>
       </c>
       <c r="OV2" t="n">
-        <v>1.041375787073526e-05</v>
+        <v>314.5622301069835</v>
       </c>
       <c r="OW2" t="n">
-        <v>68451.84499371365</v>
+        <v>96026.81495652419</v>
       </c>
       <c r="OX2" t="n">
-        <v>1.460881003414643e-05</v>
+        <v>1.041375787016102e-05</v>
       </c>
       <c r="OY2" t="n">
-        <v>0.004077109595071382</v>
+        <v>68451.84499748491</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1.582826903961566e-05</v>
+        <v>1.460881003334158e-05</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.02224158540614165</v>
+        <v>0.004077109595051909</v>
       </c>
       <c r="PB2" t="n">
-        <v>68499.67981578172</v>
+        <v>1.582826903967936e-05</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.970463875897084</v>
+        <v>0.02224158540623868</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.970463875897084</v>
+        <v>68499.67981955716</v>
       </c>
       <c r="PE2" t="n">
-        <v>301580.776562046</v>
+        <v>0.9704638759458299</v>
       </c>
       <c r="PF2" t="n">
-        <v>372165.2480885741</v>
+        <v>0.9704638759458299</v>
       </c>
       <c r="PG2" t="n">
-        <v>3800.133275776639</v>
+        <v>301580.7765629023</v>
       </c>
       <c r="PH2" t="n">
-        <v>716.2056506675068</v>
+        <v>372165.2480897752</v>
       </c>
       <c r="PI2" t="n">
-        <v>1004.72014289738</v>
+        <v>3800.133275765712</v>
       </c>
       <c r="PJ2" t="n">
-        <v>314.5622301062108</v>
+        <v>716.2056506675425</v>
       </c>
       <c r="PK2" t="n">
-        <v>0.9992999371498626</v>
+        <v>1004.720142897479</v>
       </c>
       <c r="PL2" t="n">
-        <v>1.582826903961566e-05</v>
+        <v>314.5622301069835</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.02224158540614165</v>
-      </c>
-      <c r="PN2" t="inlineStr">
+        <v>0.99929993714984</v>
+      </c>
+      <c r="PN2" t="n">
+        <v>1.582826903967936e-05</v>
+      </c>
+      <c r="PO2" t="n">
+        <v>0.02224158540623868</v>
+      </c>
+      <c r="PP2" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="PO2" t="b">
+      <c r="PQ2" t="b">
         <v>1</v>
       </c>
-      <c r="PP2" t="n">
-        <v>268.122005340411</v>
-      </c>
-      <c r="PQ2" t="n">
-        <v>92438.70528912813</v>
-      </c>
       <c r="PR2" t="n">
-        <v>1.201795435555326</v>
+        <v>268.1220053390682</v>
       </c>
       <c r="PS2" t="n">
-        <v>317338.838697687</v>
+        <v>92438.70529102097</v>
       </c>
       <c r="PT2" t="n">
-        <v>394256.0099186062</v>
+        <v>1.20179543558599</v>
       </c>
       <c r="PU2" t="n">
-        <v>3800.133275768069</v>
+        <v>317338.8386967192</v>
       </c>
       <c r="PV2" t="n">
-        <v>-624643.3445411538</v>
+        <v>394256.0099172509</v>
       </c>
       <c r="PW2" t="n">
-        <v>716.773015969491</v>
+        <v>3800.133275757141</v>
       </c>
       <c r="PX2" t="n">
-        <v>1005.433966598991</v>
+        <v>-624643.3445344758</v>
       </c>
       <c r="PY2" t="n">
-        <v>1.402722959986243</v>
+        <v>716.7730159694606</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.9993891147805333</v>
+        <v>1005.433966599013</v>
       </c>
       <c r="QA2" t="n">
-        <v>328.3715632798396</v>
+        <v>1.402722959986333</v>
       </c>
       <c r="QB2" t="n">
-        <v>129587.0583010336</v>
+        <v>0.9993891147805037</v>
       </c>
       <c r="QC2" t="n">
-        <v>7.716819975008447e-06</v>
+        <v>328.3715632790182</v>
       </c>
       <c r="QD2" t="n">
-        <v>92382.50317247571</v>
+        <v>129587.0583036916</v>
       </c>
       <c r="QE2" t="n">
-        <v>1.082456055702481e-05</v>
+        <v>7.716819974850164e-06</v>
       </c>
       <c r="QF2" t="n">
-        <v>0.003742382741094097</v>
+        <v>92382.5031743647</v>
       </c>
       <c r="QG2" t="n">
-        <v>1.696424110329718e-05</v>
+        <v>1.082456055680348e-05</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.0239713928535937</v>
+        <v>0.003742382741113289</v>
       </c>
       <c r="QI2" t="n">
-        <v>92438.70528912813</v>
+        <v>1.696424110322969e-05</v>
       </c>
       <c r="QJ2" t="n">
-        <v>1.201795435555326</v>
+        <v>0.02397139285349097</v>
       </c>
       <c r="QK2" t="n">
-        <v>1.201795435555326</v>
+        <v>92438.70529102097</v>
       </c>
       <c r="QL2" t="n">
-        <v>317338.838697687</v>
+        <v>1.20179543558599</v>
       </c>
       <c r="QM2" t="n">
-        <v>394256.0099186062</v>
+        <v>1.20179543558599</v>
       </c>
       <c r="QN2" t="n">
-        <v>3800.133275768069</v>
+        <v>317338.8386967192</v>
       </c>
       <c r="QO2" t="n">
-        <v>716.773015969491</v>
+        <v>394256.0099172509</v>
       </c>
       <c r="QP2" t="n">
-        <v>1005.433966598991</v>
+        <v>3800.133275757141</v>
       </c>
       <c r="QQ2" t="n">
-        <v>328.3715632798396</v>
+        <v>716.7730159694606</v>
       </c>
       <c r="QR2" t="n">
-        <v>0.9993891147805333</v>
+        <v>1005.433966599013</v>
       </c>
       <c r="QS2" t="n">
-        <v>1.696424110329718e-05</v>
+        <v>328.3715632790182</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.0239713928535937</v>
-      </c>
-      <c r="QU2" t="inlineStr">
+        <v>0.9993891147805037</v>
+      </c>
+      <c r="QU2" t="n">
+        <v>1.696424110322969e-05</v>
+      </c>
+      <c r="QV2" t="n">
+        <v>0.02397139285349097</v>
+      </c>
+      <c r="QW2" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="QV2" t="b">
+      <c r="QX2" t="b">
         <v>1</v>
       </c>
-      <c r="QW2" t="n">
-        <v>0.4389204911759979</v>
-      </c>
-      <c r="QX2" t="n">
-        <v>0.81021546087823</v>
-      </c>
       <c r="QY2" t="n">
-        <v>374979.7236141113</v>
+        <v>0.4389204912171729</v>
       </c>
       <c r="QZ2" t="n">
-        <v>2.790805431821088</v>
+        <v>0.8102154608681247</v>
       </c>
       <c r="RA2" t="n">
-        <v>380593.4359534862</v>
+        <v>374979.7236216542</v>
       </c>
       <c r="RB2" t="n">
-        <v>0.02607389602876673</v>
+        <v>2.790805432350554</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.002221780596656373</v>
+        <v>380593.4359520305</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.01178846742615993</v>
+        <v>0.02607389603413926</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.03262518112934391</v>
+        <v>0.002221780596028547</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.04229027499397901</v>
+        <v>0.01178846742576353</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.114999600174906</v>
+        <v>0.03262518113139132</v>
       </c>
       <c r="RH2" t="n">
-        <v>-6.981901168323645e-12</v>
+        <v>0.04229027499091735</v>
       </c>
       <c r="RI2" t="n">
+        <v>0.11499960017824</v>
+      </c>
+      <c r="RJ2" t="n">
+        <v>1.361971646574034e-11</v>
+      </c>
+      <c r="RK2" t="n">
         <v>0</v>
+      </c>
+      <c r="RL2" t="n">
+        <v>360315.6411343343</v>
       </c>
     </row>
     <row r="3">
@@ -4713,10 +4739,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>82.52961504469843</v>
+        <v>82.5296150431254</v>
       </c>
       <c r="D3" t="n">
-        <v>82.52961504469843</v>
+        <v>82.5296150431254</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4725,10 +4751,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>82.52961504469843</v>
+        <v>82.5296150431254</v>
       </c>
       <c r="H3" t="n">
-        <v>82.52961504469843</v>
+        <v>82.5296150431254</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4737,97 +4763,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.2043807643822</v>
+        <v>292.2043807645117</v>
       </c>
       <c r="L3" t="n">
-        <v>132537.5531722111</v>
+        <v>132537.5531724165</v>
       </c>
       <c r="M3" t="n">
-        <v>1.580936880352878</v>
+        <v>1.580936880354626</v>
       </c>
       <c r="N3" t="n">
-        <v>334544.0459659661</v>
+        <v>334544.0459660587</v>
       </c>
       <c r="O3" t="n">
-        <v>418378.8624088766</v>
+        <v>418378.8624090065</v>
       </c>
       <c r="P3" t="n">
         <v>3782.917347718243</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687006.1586639713</v>
+        <v>-687006.1586643313</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7062138288371</v>
+        <v>717.7062138288431</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.639892666681</v>
+        <v>1006.639892666688</v>
       </c>
       <c r="T3" t="n">
-        <v>1.402579319045371</v>
+        <v>1.402579319045368</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994969313066006</v>
+        <v>0.9994969313066014</v>
       </c>
       <c r="V3" t="n">
-        <v>342.8212838341241</v>
+        <v>342.8212838342001</v>
       </c>
       <c r="W3" t="n">
-        <v>185801.8717921831</v>
+        <v>185801.8717924709</v>
       </c>
       <c r="X3" t="n">
-        <v>5.382077103714469e-06</v>
+        <v>5.382077103706133e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132471.5609799839</v>
+        <v>132471.5609801893</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.54879003917752e-06</v>
+        <v>7.548790039165816e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003435197102770453</v>
+        <v>0.003435197102768933</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.816416388199388e-05</v>
+        <v>1.816416388200021e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02581314531333897</v>
+        <v>0.02581314531334873</v>
       </c>
       <c r="AD3" t="n">
-        <v>132537.5531722111</v>
+        <v>132537.5531724165</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.580936880352878</v>
+        <v>1.580936880354626</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.580936880352878</v>
+        <v>1.580936880354626</v>
       </c>
       <c r="AG3" t="n">
-        <v>334544.0459659661</v>
+        <v>334544.0459660587</v>
       </c>
       <c r="AH3" t="n">
-        <v>418378.8624088766</v>
+        <v>418378.8624090065</v>
       </c>
       <c r="AI3" t="n">
         <v>3782.917347718243</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7062138288371</v>
+        <v>717.7062138288431</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.639892666681</v>
+        <v>1006.639892666688</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.8212838341241</v>
+        <v>342.8212838342001</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994969313066006</v>
+        <v>0.9994969313066014</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.816416388199388e-05</v>
+        <v>1.816416388200021e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02581314531333897</v>
+        <v>0.02581314531334873</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -5040,16 +5066,16 @@
         <v>1</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.2407365555652922</v>
+        <v>0.2407365555606504</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.2407365555652922</v>
+        <v>0.2407365555606504</v>
       </c>
       <c r="DH3" t="n">
-        <v>187908.6092759552</v>
+        <v>187908.6092725158</v>
       </c>
       <c r="DI3" t="n">
-        <v>2.801075364113573</v>
+        <v>2.801075364063281</v>
       </c>
       <c r="DJ3" t="n">
         <v>421784.4310884894</v>
@@ -5094,1088 +5120,1099 @@
           <t>b''</t>
         </is>
       </c>
-      <c r="DS3" t="n">
+      <c r="DS3" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="DT3" t="n">
         <v>0</v>
       </c>
-      <c r="DT3" t="n">
-        <v>278.0045424696512</v>
-      </c>
       <c r="DU3" t="n">
-        <v>115.9958573884189</v>
+        <v>278.0045424786518</v>
       </c>
       <c r="DV3" t="n">
-        <v>252.648939642512</v>
+        <v>115.995857389498</v>
       </c>
       <c r="DW3" t="n">
-        <v>65.33925894717763</v>
+        <v>252.6489396519205</v>
       </c>
       <c r="DX3" t="n">
-        <v>278.0045424696512</v>
+        <v>65.3392589477846</v>
       </c>
       <c r="DY3" t="n">
-        <v>115.9958573884189</v>
+        <v>278.0045424786518</v>
       </c>
       <c r="DZ3" t="n">
-        <v>252.648939642512</v>
+        <v>115.995857389498</v>
       </c>
       <c r="EA3" t="n">
-        <v>65.33925894717763</v>
+        <v>252.6489396519205</v>
       </c>
       <c r="EB3" t="n">
-        <v>257.037467104007</v>
+        <v>65.3392589477846</v>
       </c>
       <c r="EC3" t="n">
-        <v>82934.74270288911</v>
+        <v>257.0374671015088</v>
       </c>
       <c r="ED3" t="n">
-        <v>1.124816998493503</v>
+        <v>82934.74269996719</v>
       </c>
       <c r="EE3" t="n">
-        <v>309409.4031810629</v>
+        <v>1.124816998464817</v>
       </c>
       <c r="EF3" t="n">
-        <v>383141.1682717095</v>
+        <v>309409.4031792781</v>
       </c>
       <c r="EG3" t="n">
-        <v>3788.919886552313</v>
+        <v>383141.1682692074</v>
       </c>
       <c r="EH3" t="n">
-        <v>-590753.2024276988</v>
+        <v>3788.919886552684</v>
       </c>
       <c r="EI3" t="n">
-        <v>716.4704925480085</v>
+        <v>-590753.2024208305</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1005.118615028211</v>
+        <v>716.4704925479442</v>
       </c>
       <c r="EK3" t="n">
-        <v>1.402875101602123</v>
+        <v>1005.118615028127</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.9993139907805511</v>
+        <v>1.402875101602132</v>
       </c>
       <c r="EM3" t="n">
-        <v>321.5054477212601</v>
+        <v>0.9993139907805415</v>
       </c>
       <c r="EN3" t="n">
-        <v>116267.5559402503</v>
+        <v>321.5054477196956</v>
       </c>
       <c r="EO3" t="n">
-        <v>8.600851646988246e-06</v>
+        <v>116267.5559361537</v>
       </c>
       <c r="EP3" t="n">
-        <v>82878.05222822011</v>
+        <v>8.600851647291296e-06</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1.206592062813342e-05</v>
+        <v>82878.05222529937</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.003903977621370484</v>
+        <v>1.206592062855864e-05</v>
       </c>
       <c r="ES3" t="n">
-        <v>1.639853367034505e-05</v>
+        <v>0.003903977621408335</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.02310880889637527</v>
+        <v>1.639853367021633e-05</v>
       </c>
       <c r="EU3" t="n">
-        <v>82934.74270288911</v>
+        <v>0.02310880889617924</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.124816998493503</v>
+        <v>82934.74269996719</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.124816998493503</v>
+        <v>1.124816998464817</v>
       </c>
       <c r="EX3" t="n">
-        <v>309409.4031810629</v>
+        <v>1.124816998464817</v>
       </c>
       <c r="EY3" t="n">
-        <v>383141.1682717095</v>
+        <v>309409.4031792781</v>
       </c>
       <c r="EZ3" t="n">
-        <v>3788.919886552313</v>
+        <v>383141.1682692074</v>
       </c>
       <c r="FA3" t="n">
-        <v>716.4704925480085</v>
+        <v>3788.919886552684</v>
       </c>
       <c r="FB3" t="n">
-        <v>1005.118615028211</v>
+        <v>716.4704925479442</v>
       </c>
       <c r="FC3" t="n">
-        <v>321.5054477212601</v>
+        <v>1005.118615028127</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.9993139907805511</v>
+        <v>321.5054477196956</v>
       </c>
       <c r="FE3" t="n">
-        <v>1.639853367034505e-05</v>
+        <v>0.9993139907805415</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.02310880889637527</v>
-      </c>
-      <c r="FG3" t="inlineStr">
+        <v>1.639853367021633e-05</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>0.02310880889617924</v>
+      </c>
+      <c r="FH3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="FH3" t="b">
+      <c r="FI3" t="b">
         <v>1</v>
       </c>
-      <c r="FI3" t="n">
-        <v>295.5933755788733</v>
-      </c>
       <c r="FJ3" t="n">
-        <v>135142.8784051725</v>
+        <v>295.5933755788728</v>
       </c>
       <c r="FK3" t="n">
-        <v>1.593477963188953</v>
+        <v>135142.8784049972</v>
       </c>
       <c r="FL3" t="n">
+        <v>1.593477963186888</v>
+      </c>
+      <c r="FM3" t="n">
         <v>336974.4233400564</v>
       </c>
-      <c r="FM3" t="n">
-        <v>421784.4310885899</v>
-      </c>
       <c r="FN3" t="n">
-        <v>3788.919886552013</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="FO3" t="n">
-        <v>-698195.1879752415</v>
+        <v>3788.919886552384</v>
       </c>
       <c r="FP3" t="n">
-        <v>717.8557944799215</v>
+        <v>-698195.1879753494</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1006.774673228987</v>
+        <v>717.8557944799212</v>
       </c>
       <c r="FR3" t="n">
-        <v>1.402474815932055</v>
+        <v>1006.774673228984</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.9995307875089431</v>
+        <v>1.402474815932052</v>
       </c>
       <c r="FT3" t="n">
-        <v>344.8024274224492</v>
+        <v>0.9995307875089438</v>
       </c>
       <c r="FU3" t="n">
-        <v>189446.5457614196</v>
+        <v>344.8024274224487</v>
       </c>
       <c r="FV3" t="n">
-        <v>5.278533825891737e-06</v>
+        <v>189446.5457611735</v>
       </c>
       <c r="FW3" t="n">
-        <v>135080.1765631117</v>
+        <v>5.278533825898592e-06</v>
       </c>
       <c r="FX3" t="n">
-        <v>7.403010755858641e-06</v>
+        <v>135080.1765629366</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.003395610227215371</v>
+        <v>7.403010755868238e-06</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1.832921822184822e-05</v>
+        <v>0.003395610227215361</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.02606722400100702</v>
+        <v>1.832921822184816e-05</v>
       </c>
       <c r="GB3" t="n">
-        <v>135142.8784051725</v>
+        <v>0.02606722400100692</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.593477963188953</v>
+        <v>135142.8784049972</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.593477963188953</v>
+        <v>1.593477963186888</v>
       </c>
       <c r="GE3" t="n">
+        <v>1.593477963186888</v>
+      </c>
+      <c r="GF3" t="n">
         <v>336974.4233400564</v>
       </c>
-      <c r="GF3" t="n">
-        <v>421784.4310885899</v>
-      </c>
       <c r="GG3" t="n">
-        <v>3788.919886552013</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="GH3" t="n">
-        <v>717.8557944799215</v>
+        <v>3788.919886552384</v>
       </c>
       <c r="GI3" t="n">
-        <v>1006.774673228987</v>
+        <v>717.8557944799212</v>
       </c>
       <c r="GJ3" t="n">
-        <v>344.8024274224492</v>
+        <v>1006.774673228984</v>
       </c>
       <c r="GK3" t="n">
-        <v>0.9995307875089431</v>
+        <v>344.8024274224487</v>
       </c>
       <c r="GL3" t="n">
-        <v>1.832921822184822e-05</v>
+        <v>0.9995307875089438</v>
       </c>
       <c r="GM3" t="n">
-        <v>0.02606722400100702</v>
-      </c>
-      <c r="GN3" t="inlineStr">
+        <v>1.832921822184816e-05</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>0.02606722400100692</v>
+      </c>
+      <c r="GO3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="GO3" t="b">
+      <c r="GP3" t="b">
         <v>1</v>
       </c>
-      <c r="GP3" t="n">
-        <v>295.5933755788733</v>
-      </c>
       <c r="GQ3" t="n">
-        <v>135142.8784051725</v>
+        <v>295.5933755788728</v>
       </c>
       <c r="GR3" t="n">
-        <v>1.593477963188953</v>
+        <v>135142.8784049972</v>
       </c>
       <c r="GS3" t="n">
+        <v>1.593477963186888</v>
+      </c>
+      <c r="GT3" t="n">
         <v>336974.4233400564</v>
       </c>
-      <c r="GT3" t="n">
-        <v>421784.4310885899</v>
-      </c>
       <c r="GU3" t="n">
-        <v>3788.919886552013</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="GV3" t="n">
-        <v>-698195.1879752415</v>
+        <v>3788.919886552384</v>
       </c>
       <c r="GW3" t="n">
-        <v>717.8557944799215</v>
+        <v>-698195.1879753494</v>
       </c>
       <c r="GX3" t="n">
-        <v>1006.774673228987</v>
+        <v>717.8557944799212</v>
       </c>
       <c r="GY3" t="n">
-        <v>1.402474815932055</v>
+        <v>1006.774673228984</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0.9995307875089431</v>
+        <v>1.402474815932052</v>
       </c>
       <c r="HA3" t="n">
-        <v>344.8024274224492</v>
+        <v>0.9995307875089438</v>
       </c>
       <c r="HB3" t="n">
-        <v>189446.5457614196</v>
+        <v>344.8024274224487</v>
       </c>
       <c r="HC3" t="n">
-        <v>5.278533825891737e-06</v>
+        <v>189446.5457611735</v>
       </c>
       <c r="HD3" t="n">
-        <v>135080.1765631117</v>
+        <v>5.278533825898592e-06</v>
       </c>
       <c r="HE3" t="n">
-        <v>7.403010755858641e-06</v>
+        <v>135080.1765629366</v>
       </c>
       <c r="HF3" t="n">
-        <v>0.003395610227215371</v>
+        <v>7.403010755868238e-06</v>
       </c>
       <c r="HG3" t="n">
-        <v>1.832921822184822e-05</v>
+        <v>0.003395610227215361</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.02606722400100702</v>
+        <v>1.832921822184816e-05</v>
       </c>
       <c r="HI3" t="n">
-        <v>135142.8784051725</v>
+        <v>0.02606722400100692</v>
       </c>
       <c r="HJ3" t="n">
-        <v>1.593477963188953</v>
+        <v>135142.8784049972</v>
       </c>
       <c r="HK3" t="n">
-        <v>1.593477963188953</v>
+        <v>1.593477963186888</v>
       </c>
       <c r="HL3" t="n">
+        <v>1.593477963186888</v>
+      </c>
+      <c r="HM3" t="n">
         <v>336974.4233400564</v>
       </c>
-      <c r="HM3" t="n">
-        <v>421784.4310885899</v>
-      </c>
       <c r="HN3" t="n">
-        <v>3788.919886552013</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="HO3" t="n">
-        <v>717.8557944799215</v>
+        <v>3788.919886552384</v>
       </c>
       <c r="HP3" t="n">
-        <v>1006.774673228987</v>
+        <v>717.8557944799212</v>
       </c>
       <c r="HQ3" t="n">
-        <v>344.8024274224492</v>
+        <v>1006.774673228984</v>
       </c>
       <c r="HR3" t="n">
-        <v>0.9995307875089431</v>
+        <v>344.8024274224487</v>
       </c>
       <c r="HS3" t="n">
-        <v>1.832921822184822e-05</v>
+        <v>0.9995307875089438</v>
       </c>
       <c r="HT3" t="n">
-        <v>0.02606722400100702</v>
-      </c>
-      <c r="HU3" t="inlineStr">
+        <v>1.832921822184816e-05</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>0.02606722400100692</v>
+      </c>
+      <c r="HV3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="HV3" t="b">
+      <c r="HW3" t="b">
         <v>1</v>
       </c>
-      <c r="HW3" t="n">
-        <v>0.8646962110286744</v>
-      </c>
       <c r="HX3" t="n">
-        <v>0.8646962110286744</v>
+        <v>0.8646962110608776</v>
       </c>
       <c r="HY3" t="n">
-        <v>498845.9915250145</v>
+        <v>0.8646962110608776</v>
       </c>
       <c r="HZ3" t="n">
-        <v>2.801075364109972</v>
+        <v>498845.9915323586</v>
       </c>
       <c r="IA3" t="n">
+        <v>2.801075364064594</v>
+      </c>
+      <c r="IB3" t="n">
         <v>421784.4310884894</v>
       </c>
-      <c r="IB3" t="n">
-        <v>0.01561192565311725</v>
-      </c>
       <c r="IC3" t="n">
-        <v>-1.824277019747002e-07</v>
+        <v>0.0156119256537027</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.01377981236499877</v>
+        <v>-1.824277019651166e-07</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.02533404515348691</v>
+        <v>0.01377981236501761</v>
       </c>
       <c r="IF3" t="n">
+        <v>0.02533404515323261</v>
+      </c>
+      <c r="IG3" t="n">
         <v>0</v>
       </c>
-      <c r="IG3" t="n">
-        <v>0.05472560074390097</v>
-      </c>
       <c r="IH3" t="n">
-        <v>-2.156469447456288e-13</v>
+        <v>0.05472560074425097</v>
       </c>
       <c r="II3" t="n">
+        <v>-9.105216580707065e-14</v>
+      </c>
+      <c r="IJ3" t="n">
         <v>0</v>
       </c>
-      <c r="IJ3" t="n">
+      <c r="IK3" t="n">
+        <v>381602.8887578293</v>
+      </c>
+      <c r="IL3" t="n">
         <v>165.3032</v>
       </c>
-      <c r="IK3" t="n">
-        <v>278.0045424696513</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>115.995857388419</v>
-      </c>
       <c r="IM3" t="n">
-        <v>252.6489396425121</v>
+        <v>278.0045424786518</v>
       </c>
       <c r="IN3" t="n">
-        <v>65.33925894717763</v>
+        <v>115.995857389498</v>
       </c>
       <c r="IO3" t="n">
-        <v>145.2043978844027</v>
+        <v>252.6489396519205</v>
       </c>
       <c r="IP3" t="n">
-        <v>115.995857388419</v>
+        <v>65.3392589477846</v>
       </c>
       <c r="IQ3" t="n">
-        <v>87.34573964251206</v>
+        <v>145.2043978909242</v>
       </c>
       <c r="IR3" t="n">
-        <v>36.98001800331385</v>
+        <v>115.995857389498</v>
       </c>
       <c r="IS3" t="n">
-        <v>257.0374671039026</v>
+        <v>87.34573965192052</v>
       </c>
       <c r="IT3" t="n">
-        <v>82934.74270118482</v>
+        <v>36.98001800602343</v>
       </c>
       <c r="IU3" t="n">
-        <v>1.12481699847083</v>
+        <v>257.0374671014042</v>
       </c>
       <c r="IV3" t="n">
-        <v>309409.4031809922</v>
+        <v>82934.74269826284</v>
       </c>
       <c r="IW3" t="n">
-        <v>383141.1682716098</v>
+        <v>1.124816998442145</v>
       </c>
       <c r="IX3" t="n">
-        <v>3788.919886557818</v>
+        <v>309409.4031792072</v>
       </c>
       <c r="IY3" t="n">
-        <v>-590753.2024288179</v>
+        <v>383141.1682691074</v>
       </c>
       <c r="IZ3" t="n">
-        <v>716.4704925480002</v>
+        <v>3788.91988655819</v>
       </c>
       <c r="JA3" t="n">
-        <v>1005.118615028171</v>
+        <v>-590753.2024219494</v>
       </c>
       <c r="JB3" t="n">
-        <v>1.402875101602084</v>
+        <v>716.4704925479356</v>
       </c>
       <c r="JC3" t="n">
-        <v>0.9993139907805637</v>
+        <v>1005.118615028087</v>
       </c>
       <c r="JD3" t="n">
-        <v>321.5054477211944</v>
+        <v>1.402875101602093</v>
       </c>
       <c r="JE3" t="n">
-        <v>116267.5559378593</v>
+        <v>0.9993139907805541</v>
       </c>
       <c r="JF3" t="n">
-        <v>8.600851647165124e-06</v>
+        <v>321.5054477196298</v>
       </c>
       <c r="JG3" t="n">
-        <v>82878.05222651803</v>
+        <v>116267.5559337626</v>
       </c>
       <c r="JH3" t="n">
-        <v>1.206592062838122e-05</v>
+        <v>8.600851647468173e-06</v>
       </c>
       <c r="JI3" t="n">
-        <v>0.003903977621371807</v>
+        <v>82878.05222359726</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1.639853367033942e-05</v>
+        <v>1.206592062880644e-05</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.02310880889636648</v>
+        <v>0.003903977621409661</v>
       </c>
       <c r="JL3" t="n">
-        <v>82934.74270118482</v>
+        <v>1.63985336702107e-05</v>
       </c>
       <c r="JM3" t="n">
-        <v>1.12481699847083</v>
+        <v>0.02310880889617044</v>
       </c>
       <c r="JN3" t="n">
-        <v>1.12481699847083</v>
+        <v>82934.74269826284</v>
       </c>
       <c r="JO3" t="n">
-        <v>309409.4031809922</v>
+        <v>1.124816998442145</v>
       </c>
       <c r="JP3" t="n">
-        <v>383141.1682716098</v>
+        <v>1.124816998442145</v>
       </c>
       <c r="JQ3" t="n">
-        <v>3788.919886557818</v>
+        <v>309409.4031792072</v>
       </c>
       <c r="JR3" t="n">
-        <v>716.4704925480002</v>
+        <v>383141.1682691074</v>
       </c>
       <c r="JS3" t="n">
-        <v>1005.118615028171</v>
+        <v>3788.91988655819</v>
       </c>
       <c r="JT3" t="n">
-        <v>321.5054477211944</v>
+        <v>716.4704925479356</v>
       </c>
       <c r="JU3" t="n">
-        <v>0.9993139907805637</v>
+        <v>1005.118615028087</v>
       </c>
       <c r="JV3" t="n">
-        <v>1.639853367033942e-05</v>
+        <v>321.5054477196298</v>
       </c>
       <c r="JW3" t="n">
-        <v>0.02310880889636648</v>
-      </c>
-      <c r="JX3" t="inlineStr">
+        <v>0.9993139907805541</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>1.63985336702107e-05</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>0.02310880889617044</v>
+      </c>
+      <c r="JZ3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="JY3" t="b">
+      <c r="KA3" t="b">
         <v>1</v>
       </c>
-      <c r="JZ3" t="n">
-        <v>295.5933755787673</v>
-      </c>
-      <c r="KA3" t="n">
-        <v>135142.8784024192</v>
-      </c>
       <c r="KB3" t="n">
-        <v>1.593477963157048</v>
+        <v>295.5933755787668</v>
       </c>
       <c r="KC3" t="n">
-        <v>336974.4233399856</v>
+        <v>135142.8784022439</v>
       </c>
       <c r="KD3" t="n">
-        <v>421784.4310884894</v>
+        <v>1.593477963154983</v>
       </c>
       <c r="KE3" t="n">
-        <v>3788.919886557518</v>
+        <v>336974.4233399855</v>
       </c>
       <c r="KF3" t="n">
-        <v>-698195.1879765674</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="KG3" t="n">
-        <v>717.8557944799099</v>
+        <v>3788.91988655789</v>
       </c>
       <c r="KH3" t="n">
-        <v>1006.774673228939</v>
+        <v>-698195.1879766755</v>
       </c>
       <c r="KI3" t="n">
-        <v>1.402474815932011</v>
+        <v>717.8557944799095</v>
       </c>
       <c r="KJ3" t="n">
-        <v>0.9995307875089512</v>
+        <v>1006.774673228936</v>
       </c>
       <c r="KK3" t="n">
-        <v>344.8024274223846</v>
+        <v>1.402474815932008</v>
       </c>
       <c r="KL3" t="n">
-        <v>189446.5457575554</v>
+        <v>0.9995307875089519</v>
       </c>
       <c r="KM3" t="n">
-        <v>5.278533825999403e-06</v>
+        <v>344.8024274223841</v>
       </c>
       <c r="KN3" t="n">
-        <v>135080.1765603607</v>
+        <v>189446.5457573094</v>
       </c>
       <c r="KO3" t="n">
-        <v>7.403010756009404e-06</v>
+        <v>5.278533826006258e-06</v>
       </c>
       <c r="KP3" t="n">
-        <v>0.003395610227216347</v>
+        <v>135080.1765601856</v>
       </c>
       <c r="KQ3" t="n">
-        <v>1.832921822184268e-05</v>
+        <v>7.403010756019001e-06</v>
       </c>
       <c r="KR3" t="n">
-        <v>0.02606722400099823</v>
+        <v>0.003395610227216336</v>
       </c>
       <c r="KS3" t="n">
-        <v>135142.8784024192</v>
+        <v>1.832921822184263e-05</v>
       </c>
       <c r="KT3" t="n">
-        <v>1.593477963157048</v>
+        <v>0.02606722400099813</v>
       </c>
       <c r="KU3" t="n">
-        <v>1.593477963157048</v>
+        <v>135142.8784022439</v>
       </c>
       <c r="KV3" t="n">
-        <v>336974.4233399856</v>
+        <v>1.593477963154983</v>
       </c>
       <c r="KW3" t="n">
-        <v>421784.4310884894</v>
+        <v>1.593477963154983</v>
       </c>
       <c r="KX3" t="n">
-        <v>3788.919886557518</v>
+        <v>336974.4233399855</v>
       </c>
       <c r="KY3" t="n">
-        <v>717.8557944799099</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="KZ3" t="n">
-        <v>1006.774673228939</v>
+        <v>3788.91988655789</v>
       </c>
       <c r="LA3" t="n">
-        <v>344.8024274223846</v>
+        <v>717.8557944799095</v>
       </c>
       <c r="LB3" t="n">
-        <v>0.9995307875089512</v>
+        <v>1006.774673228936</v>
       </c>
       <c r="LC3" t="n">
-        <v>1.832921822184268e-05</v>
+        <v>344.8024274223841</v>
       </c>
       <c r="LD3" t="n">
-        <v>0.02606722400099823</v>
-      </c>
-      <c r="LE3" t="inlineStr">
+        <v>0.9995307875089519</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>1.832921822184263e-05</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>0.02606722400099813</v>
+      </c>
+      <c r="LG3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="LF3" t="b">
+      <c r="LH3" t="b">
         <v>1</v>
       </c>
-      <c r="LG3" t="n">
-        <v>267.5608470004655</v>
-      </c>
-      <c r="LH3" t="n">
-        <v>95409.78892610568</v>
-      </c>
       <c r="LI3" t="n">
-        <v>1.243057550916652</v>
+        <v>267.5608469988129</v>
       </c>
       <c r="LJ3" t="n">
-        <v>316929.2064550648</v>
+        <v>95409.78892392466</v>
       </c>
       <c r="LK3" t="n">
-        <v>393683.3268541959</v>
+        <v>1.243057550895923</v>
       </c>
       <c r="LL3" t="n">
-        <v>3788.919886559017</v>
+        <v>316929.206453884</v>
       </c>
       <c r="LM3" t="n">
-        <v>-620083.2872104424</v>
+        <v>393683.3268525404</v>
       </c>
       <c r="LN3" t="n">
-        <v>716.7674741390125</v>
+        <v>3788.919886559388</v>
       </c>
       <c r="LO3" t="n">
-        <v>1005.48863507887</v>
+        <v>-620083.2872059357</v>
       </c>
       <c r="LP3" t="n">
-        <v>1.402810076289625</v>
+        <v>716.7674741389611</v>
       </c>
       <c r="LQ3" t="n">
-        <v>0.9993621730097788</v>
+        <v>1005.488635078805</v>
       </c>
       <c r="LR3" t="n">
-        <v>328.0291303269733</v>
+        <v>1.402810076289634</v>
       </c>
       <c r="LS3" t="n">
-        <v>133756.8588140714</v>
+        <v>0.9993621730097714</v>
       </c>
       <c r="LT3" t="n">
-        <v>7.476252125433425e-06</v>
+        <v>328.029130325959</v>
       </c>
       <c r="LU3" t="n">
-        <v>95349.22871943784</v>
+        <v>133756.8588110137</v>
       </c>
       <c r="LV3" t="n">
-        <v>1.048776181443973e-05</v>
+        <v>7.476252125604333e-06</v>
       </c>
       <c r="LW3" t="n">
-        <v>0.00375072352511162</v>
+        <v>95349.22871725747</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.693635799621793e-05</v>
+        <v>1.048776181467955e-05</v>
       </c>
       <c r="LY3" t="n">
-        <v>0.02392923167057631</v>
+        <v>0.003750723525134725</v>
       </c>
       <c r="LZ3" t="n">
-        <v>95409.78892610568</v>
+        <v>1.693635799613411e-05</v>
       </c>
       <c r="MA3" t="n">
-        <v>1.243057550916652</v>
+        <v>0.02392923167044821</v>
       </c>
       <c r="MB3" t="n">
-        <v>1.243057550916652</v>
+        <v>95409.78892392466</v>
       </c>
       <c r="MC3" t="n">
-        <v>316929.2064550648</v>
+        <v>1.243057550895923</v>
       </c>
       <c r="MD3" t="n">
-        <v>393683.3268541959</v>
+        <v>1.243057550895923</v>
       </c>
       <c r="ME3" t="n">
-        <v>3788.919886559017</v>
+        <v>316929.206453884</v>
       </c>
       <c r="MF3" t="n">
-        <v>716.7674741390125</v>
+        <v>393683.3268525404</v>
       </c>
       <c r="MG3" t="n">
-        <v>1005.48863507887</v>
+        <v>3788.919886559388</v>
       </c>
       <c r="MH3" t="n">
-        <v>328.0291303269733</v>
+        <v>716.7674741389611</v>
       </c>
       <c r="MI3" t="n">
-        <v>0.9993621730097788</v>
+        <v>1005.488635078805</v>
       </c>
       <c r="MJ3" t="n">
-        <v>1.693635799621793e-05</v>
+        <v>328.029130325959</v>
       </c>
       <c r="MK3" t="n">
-        <v>0.02392923167057631</v>
-      </c>
-      <c r="ML3" t="inlineStr">
+        <v>0.9993621730097714</v>
+      </c>
+      <c r="ML3" t="n">
+        <v>1.693635799613411e-05</v>
+      </c>
+      <c r="MM3" t="n">
+        <v>0.02392923167044821</v>
+      </c>
+      <c r="MN3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="MM3" t="b">
+      <c r="MO3" t="b">
         <v>1</v>
       </c>
-      <c r="MN3" t="n">
-        <v>0.8646962110288514</v>
-      </c>
-      <c r="MO3" t="n">
-        <v>0.4516389968306919</v>
-      </c>
       <c r="MP3" t="n">
-        <v>259555.9784725579</v>
+        <v>0.8646962110610544</v>
       </c>
       <c r="MQ3" t="n">
-        <v>2.801075364053514</v>
+        <v>0.4516389968531739</v>
       </c>
       <c r="MR3" t="n">
-        <v>380020.7528890758</v>
+        <v>259555.9784796333</v>
       </c>
       <c r="MS3" t="n">
+        <v>2.801075364008136</v>
+      </c>
+      <c r="MT3" t="n">
+        <v>380020.7528875204</v>
+      </c>
+      <c r="MU3" t="n">
         <v>165.3032</v>
       </c>
-      <c r="MT3" t="n">
-        <v>142.2541798786463</v>
-      </c>
-      <c r="MU3" t="n">
-        <v>129.9830867753115</v>
-      </c>
       <c r="MV3" t="n">
-        <v>-57.79834638904552</v>
+        <v>142.2541798771233</v>
       </c>
       <c r="MW3" t="n">
-        <v>-23.97282605624575</v>
+        <v>129.9830867720029</v>
       </c>
       <c r="MX3" t="n">
-        <v>258.2051565109062</v>
+        <v>-57.79834639273781</v>
       </c>
       <c r="MY3" t="n">
-        <v>129.9830867753115</v>
+        <v>-23.97282605814604</v>
       </c>
       <c r="MZ3" t="n">
-        <v>-223.1015463890455</v>
+        <v>258.205156512431</v>
       </c>
       <c r="NA3" t="n">
-        <v>-59.77413117786745</v>
+        <v>129.9830867720029</v>
       </c>
       <c r="NB3" t="n">
-        <v>234.2675760771039</v>
+        <v>-223.1015463927378</v>
       </c>
       <c r="NC3" t="n">
-        <v>57500.00000196266</v>
+        <v>-59.77413117891427</v>
       </c>
       <c r="ND3" t="n">
-        <v>0.8556917874484709</v>
+        <v>234.2675760751565</v>
       </c>
       <c r="NE3" t="n">
-        <v>293151.2831527487</v>
+        <v>57500.0000019689</v>
       </c>
       <c r="NF3" t="n">
-        <v>360348.3754298851</v>
+        <v>0.8556917874556994</v>
       </c>
       <c r="NG3" t="n">
-        <v>3801.131194295716</v>
+        <v>293151.283151353</v>
       </c>
       <c r="NH3" t="n">
-        <v>-530133.4158088396</v>
+        <v>360348.375427929</v>
       </c>
       <c r="NI3" t="n">
-        <v>715.988593199986</v>
+        <v>3801.131194287334</v>
       </c>
       <c r="NJ3" t="n">
-        <v>1004.421377282732</v>
+        <v>-530133.4158014294</v>
       </c>
       <c r="NK3" t="n">
-        <v>1.402845501760924</v>
+        <v>715.9885931999626</v>
       </c>
       <c r="NL3" t="n">
-        <v>0.9992681996164664</v>
+        <v>1004.421377282737</v>
       </c>
       <c r="NM3" t="n">
-        <v>306.9173694674876</v>
+        <v>1.402845501760976</v>
       </c>
       <c r="NN3" t="n">
-        <v>80604.68746913662</v>
+        <v>0.9992681996164402</v>
       </c>
       <c r="NO3" t="n">
-        <v>1.24062263796122e-05</v>
+        <v>306.9173694662095</v>
       </c>
       <c r="NP3" t="n">
-        <v>57457.99331997534</v>
+        <v>80604.68746914623</v>
       </c>
       <c r="NQ3" t="n">
-        <v>1.740401887046669e-05</v>
+        <v>1.240622637961073e-05</v>
       </c>
       <c r="NR3" t="n">
-        <v>0.00428202968467868</v>
+        <v>57457.99331998007</v>
       </c>
       <c r="NS3" t="n">
-        <v>1.520413469677658e-05</v>
+        <v>1.740401887046526e-05</v>
       </c>
       <c r="NT3" t="n">
-        <v>0.02129651313176515</v>
+        <v>0.004282029684714596</v>
       </c>
       <c r="NU3" t="n">
-        <v>57500.00000196266</v>
+        <v>1.520413469667289e-05</v>
       </c>
       <c r="NV3" t="n">
-        <v>0.8556917874484709</v>
+        <v>0.02129651313160874</v>
       </c>
       <c r="NW3" t="n">
-        <v>0.8556917874484709</v>
+        <v>57500.0000019689</v>
       </c>
       <c r="NX3" t="n">
-        <v>293151.2831527487</v>
+        <v>0.8556917874556994</v>
       </c>
       <c r="NY3" t="n">
-        <v>360348.3754298851</v>
+        <v>0.8556917874556994</v>
       </c>
       <c r="NZ3" t="n">
-        <v>3801.131194295716</v>
+        <v>293151.283151353</v>
       </c>
       <c r="OA3" t="n">
-        <v>715.988593199986</v>
+        <v>360348.375427929</v>
       </c>
       <c r="OB3" t="n">
-        <v>1004.421377282732</v>
+        <v>3801.131194287334</v>
       </c>
       <c r="OC3" t="n">
-        <v>306.9173694674876</v>
+        <v>715.9885931999626</v>
       </c>
       <c r="OD3" t="n">
-        <v>0.9992681996164664</v>
+        <v>1004.421377282737</v>
       </c>
       <c r="OE3" t="n">
-        <v>1.520413469677658e-05</v>
+        <v>306.9173694662095</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.02129651313176515</v>
-      </c>
-      <c r="OG3" t="inlineStr">
+        <v>0.9992681996164402</v>
+      </c>
+      <c r="OG3" t="n">
+        <v>1.520413469667289e-05</v>
+      </c>
+      <c r="OH3" t="n">
+        <v>0.02129651313160874</v>
+      </c>
+      <c r="OI3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="OH3" t="b">
+      <c r="OJ3" t="b">
         <v>1</v>
       </c>
-      <c r="OI3" t="n">
-        <v>244.3720243368539</v>
-      </c>
-      <c r="OJ3" t="n">
-        <v>66632.99544954914</v>
-      </c>
       <c r="OK3" t="n">
-        <v>0.9505765335504015</v>
+        <v>244.3720243347904</v>
       </c>
       <c r="OL3" t="n">
-        <v>300369.0466287349</v>
+        <v>66632.99544727143</v>
       </c>
       <c r="OM3" t="n">
-        <v>370466.5012762581</v>
+        <v>0.9505765335259383</v>
       </c>
       <c r="ON3" t="n">
-        <v>3801.131194304392</v>
+        <v>300369.0466272615</v>
       </c>
       <c r="OO3" t="n">
-        <v>-558423.6234458694</v>
+        <v>370466.5012741925</v>
       </c>
       <c r="OP3" t="n">
-        <v>716.1701763799717</v>
+        <v>3801.131194305744</v>
       </c>
       <c r="OQ3" t="n">
-        <v>1004.668498245162</v>
+        <v>-558423.6234404215</v>
       </c>
       <c r="OR3" t="n">
-        <v>1.402834872744163</v>
+        <v>716.170176379929</v>
       </c>
       <c r="OS3" t="n">
-        <v>0.9992968807356106</v>
+        <v>1004.668498245099</v>
       </c>
       <c r="OT3" t="n">
-        <v>313.474361386974</v>
+        <v>1.402834872744158</v>
       </c>
       <c r="OU3" t="n">
-        <v>93409.52023152214</v>
+        <v>0.9992968807356074</v>
       </c>
       <c r="OV3" t="n">
-        <v>1.070554690272928e-05</v>
+        <v>313.4743613856489</v>
       </c>
       <c r="OW3" t="n">
-        <v>66586.25476624958</v>
+        <v>93409.52022832853</v>
       </c>
       <c r="OX3" t="n">
-        <v>1.50181145269469e-05</v>
+        <v>1.07055469030953e-05</v>
       </c>
       <c r="OY3" t="n">
-        <v>0.004105321302530458</v>
+        <v>66586.25476397327</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1.573920277621246e-05</v>
+        <v>1.501811452746031e-05</v>
       </c>
       <c r="PA3" t="n">
-        <v>0.02210645759398889</v>
+        <v>0.004105321302564994</v>
       </c>
       <c r="PB3" t="n">
-        <v>66632.99544954914</v>
+        <v>1.573920277610401e-05</v>
       </c>
       <c r="PC3" t="n">
-        <v>0.9505765335504015</v>
+        <v>0.02210645759382439</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.9505765335504015</v>
+        <v>66632.99544727143</v>
       </c>
       <c r="PE3" t="n">
-        <v>300369.0466287349</v>
+        <v>0.9505765335259383</v>
       </c>
       <c r="PF3" t="n">
-        <v>370466.5012762581</v>
+        <v>0.9505765335259383</v>
       </c>
       <c r="PG3" t="n">
-        <v>3801.131194304392</v>
+        <v>300369.0466272615</v>
       </c>
       <c r="PH3" t="n">
-        <v>716.1701763799717</v>
+        <v>370466.5012741925</v>
       </c>
       <c r="PI3" t="n">
-        <v>1004.668498245162</v>
+        <v>3801.131194305744</v>
       </c>
       <c r="PJ3" t="n">
-        <v>313.474361386974</v>
+        <v>716.170176379929</v>
       </c>
       <c r="PK3" t="n">
-        <v>0.9992968807356106</v>
+        <v>1004.668498245099</v>
       </c>
       <c r="PL3" t="n">
-        <v>1.573920277621246e-05</v>
+        <v>313.4743613856489</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.02210645759398889</v>
-      </c>
-      <c r="PN3" t="inlineStr">
+        <v>0.9992968807356074</v>
+      </c>
+      <c r="PN3" t="n">
+        <v>1.573920277610401e-05</v>
+      </c>
+      <c r="PO3" t="n">
+        <v>0.02210645759382439</v>
+      </c>
+      <c r="PP3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="PO3" t="b">
+      <c r="PQ3" t="b">
         <v>1</v>
       </c>
-      <c r="PP3" t="n">
-        <v>267.5495628200571</v>
-      </c>
-      <c r="PQ3" t="n">
-        <v>91433.66777801182</v>
-      </c>
       <c r="PR3" t="n">
-        <v>1.191273068325359</v>
+        <v>267.5495628184036</v>
       </c>
       <c r="PS3" t="n">
-        <v>316930.4225796575</v>
+        <v>91433.66777560874</v>
       </c>
       <c r="PT3" t="n">
-        <v>393683.3268541959</v>
+        <v>1.191273068301417</v>
       </c>
       <c r="PU3" t="n">
-        <v>3801.131194295715</v>
+        <v>316930.4225784766</v>
       </c>
       <c r="PV3" t="n">
-        <v>-623307.6624013042</v>
+        <v>393683.3268525402</v>
       </c>
       <c r="PW3" t="n">
-        <v>716.7542328846273</v>
+        <v>3801.131194297067</v>
       </c>
       <c r="PX3" t="n">
-        <v>1005.405768332137</v>
+        <v>-623307.6623970366</v>
       </c>
       <c r="PY3" t="n">
-        <v>1.402720377786695</v>
+        <v>716.7542328845749</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.9993884871635432</v>
+        <v>1005.405768332066</v>
       </c>
       <c r="QA3" t="n">
-        <v>328.0203213070143</v>
+        <v>1.402720377786698</v>
       </c>
       <c r="QB3" t="n">
-        <v>128177.8028707563</v>
+        <v>0.9993884871635382</v>
       </c>
       <c r="QC3" t="n">
-        <v>7.801662827754318e-06</v>
+        <v>328.0203213059995</v>
       </c>
       <c r="QD3" t="n">
-        <v>91378.01439300667</v>
+        <v>128177.8028673872</v>
       </c>
       <c r="QE3" t="n">
-        <v>1.094355142911195e-05</v>
+        <v>7.801662827959383e-06</v>
       </c>
       <c r="QF3" t="n">
-        <v>0.003750331145248441</v>
+        <v>91378.01439060459</v>
       </c>
       <c r="QG3" t="n">
-        <v>1.693518207731719e-05</v>
+        <v>1.094355142939962e-05</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.02392694597260789</v>
+        <v>0.003750331145271517</v>
       </c>
       <c r="QI3" t="n">
-        <v>91433.66777801182</v>
+        <v>1.69351820772333e-05</v>
       </c>
       <c r="QJ3" t="n">
-        <v>1.191273068325359</v>
+        <v>0.02392694597247964</v>
       </c>
       <c r="QK3" t="n">
-        <v>1.191273068325359</v>
+        <v>91433.66777560874</v>
       </c>
       <c r="QL3" t="n">
-        <v>316930.4225796575</v>
+        <v>1.191273068301417</v>
       </c>
       <c r="QM3" t="n">
-        <v>393683.3268541959</v>
+        <v>1.191273068301417</v>
       </c>
       <c r="QN3" t="n">
-        <v>3801.131194295715</v>
+        <v>316930.4225784766</v>
       </c>
       <c r="QO3" t="n">
-        <v>716.7542328846273</v>
+        <v>393683.3268525402</v>
       </c>
       <c r="QP3" t="n">
-        <v>1005.405768332137</v>
+        <v>3801.131194297067</v>
       </c>
       <c r="QQ3" t="n">
-        <v>328.0203213070143</v>
+        <v>716.7542328845749</v>
       </c>
       <c r="QR3" t="n">
-        <v>0.9993884871635432</v>
+        <v>1005.405768332066</v>
       </c>
       <c r="QS3" t="n">
-        <v>1.693518207731719e-05</v>
+        <v>328.0203213059995</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.02392694597260789</v>
-      </c>
-      <c r="QU3" t="inlineStr">
+        <v>0.9993884871635382</v>
+      </c>
+      <c r="QU3" t="n">
+        <v>1.69351820772333e-05</v>
+      </c>
+      <c r="QV3" t="n">
+        <v>0.02392694597247964</v>
+      </c>
+      <c r="QW3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="QV3" t="b">
+      <c r="QX3" t="b">
         <v>1</v>
       </c>
-      <c r="QW3" t="n">
-        <v>0.4634934155908551</v>
-      </c>
-      <c r="QX3" t="n">
-        <v>0.8412855778051963</v>
-      </c>
       <c r="QY3" t="n">
-        <v>378699.7146650424</v>
+        <v>0.4634934155878231</v>
       </c>
       <c r="QZ3" t="n">
-        <v>2.801075364150067</v>
+        <v>0.8412855778136676</v>
       </c>
       <c r="RA3" t="n">
-        <v>380020.7528890758</v>
+        <v>378699.7146730605</v>
       </c>
       <c r="RB3" t="n">
-        <v>0.02693962188409724</v>
+        <v>2.801075364102432</v>
       </c>
       <c r="RC3" t="n">
-        <v>0.002766125128198385</v>
+        <v>380020.7528875204</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.01174717696701128</v>
+        <v>0.02693962188699939</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.03296430785326795</v>
+        <v>0.002766125130286845</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.04275610681975486</v>
+        <v>0.01174717696696274</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.1171733386523297</v>
+        <v>0.03296430785396036</v>
       </c>
       <c r="RH3" t="n">
-        <v>2.946490273991742e-12</v>
+        <v>0.04275610682211924</v>
       </c>
       <c r="RI3" t="n">
+        <v>0.1171733386603286</v>
+      </c>
+      <c r="RJ3" t="n">
+        <v>1.348099409881343e-11</v>
+      </c>
+      <c r="RK3" t="n">
         <v>0</v>
+      </c>
+      <c r="RL3" t="n">
+        <v>357504.9813034046</v>
       </c>
     </row>
   </sheetData>
@@ -6189,7 +6226,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JK3"/>
+  <dimension ref="A1:JC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6845,712 +6882,672 @@
       </c>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
+          <t>h_is_throat_1</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
           <t>dh_s_1</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>incidence_1</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
-        <is>
-          <t>efficiency_drop_profile_1</t>
-        </is>
-      </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
-          <t>efficiency_drop_incidence_1</t>
+          <t>loss_profile_2</t>
         </is>
       </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
-          <t>efficiency_drop_secondary_1</t>
+          <t>loss_incidence_2</t>
         </is>
       </c>
       <c r="EE1" s="1" t="inlineStr">
         <is>
-          <t>efficiency_drop_clearance_1</t>
+          <t>loss_trailing_2</t>
         </is>
       </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>efficiency_drop_trailing_1</t>
+          <t>loss_secondary_2</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
-          <t>loss_profile_2</t>
+          <t>loss_clearance_2</t>
         </is>
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>loss_incidence_2</t>
+          <t>loss_total_2</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>loss_trailing_2</t>
+          <t>loss_error_2</t>
         </is>
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>loss_secondary_2</t>
+          <t>blade_speed_throat_2</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
-          <t>loss_clearance_2</t>
+          <t>v_throat_2</t>
         </is>
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
-          <t>loss_total_2</t>
+          <t>v_m_throat_2</t>
         </is>
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
-          <t>loss_error_2</t>
+          <t>v_t_throat_2</t>
         </is>
       </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
-          <t>blade_speed_throat_2</t>
+          <t>alpha_throat_2</t>
         </is>
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>v_throat_2</t>
+          <t>w_throat_2</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>v_m_throat_2</t>
+          <t>w_m_throat_2</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>v_t_throat_2</t>
+          <t>w_t_throat_2</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>alpha_throat_2</t>
+          <t>beta_throat_2</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
         <is>
-          <t>w_throat_2</t>
+          <t>T_throat_2</t>
         </is>
       </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
-          <t>w_m_throat_2</t>
+          <t>p_throat_2</t>
         </is>
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>w_t_throat_2</t>
+          <t>rhomass_throat_2</t>
         </is>
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
-          <t>beta_throat_2</t>
+          <t>umass_throat_2</t>
         </is>
       </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
-          <t>T_throat_2</t>
+          <t>hmass_throat_2</t>
         </is>
       </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
-          <t>p_throat_2</t>
+          <t>smass_throat_2</t>
         </is>
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
-          <t>rhomass_throat_2</t>
+          <t>gibbsmass_throat_2</t>
         </is>
       </c>
       <c r="EZ1" s="1" t="inlineStr">
         <is>
-          <t>umass_throat_2</t>
+          <t>cvmass_throat_2</t>
         </is>
       </c>
       <c r="FA1" s="1" t="inlineStr">
         <is>
-          <t>hmass_throat_2</t>
+          <t>cpmass_throat_2</t>
         </is>
       </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
-          <t>smass_throat_2</t>
+          <t>gamma_throat_2</t>
         </is>
       </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
-          <t>gibbsmass_throat_2</t>
+          <t>compressibility_factor_throat_2</t>
         </is>
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
-          <t>cvmass_throat_2</t>
+          <t>speed_sound_throat_2</t>
         </is>
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>cpmass_throat_2</t>
+          <t>isentropic_bulk_modulus_throat_2</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>gamma_throat_2</t>
+          <t>isentropic_compressibility_throat_2</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
-          <t>compressibility_factor_throat_2</t>
+          <t>isothermal_bulk_modulus_throat_2</t>
         </is>
       </c>
       <c r="FH1" s="1" t="inlineStr">
         <is>
-          <t>speed_sound_throat_2</t>
+          <t>isothermal_compressibility_throat_2</t>
         </is>
       </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_bulk_modulus_throat_2</t>
+          <t>isobaric_expansion_coefficient_throat_2</t>
         </is>
       </c>
       <c r="FJ1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_compressibility_throat_2</t>
+          <t>viscosity_throat_2</t>
         </is>
       </c>
       <c r="FK1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_bulk_modulus_throat_2</t>
+          <t>conductivity_throat_2</t>
         </is>
       </c>
       <c r="FL1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_compressibility_throat_2</t>
+          <t>P_throat_2</t>
         </is>
       </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
-          <t>isobaric_expansion_coefficient_throat_2</t>
+          <t>rho_throat_2</t>
         </is>
       </c>
       <c r="FN1" s="1" t="inlineStr">
         <is>
-          <t>viscosity_throat_2</t>
+          <t>d_throat_2</t>
         </is>
       </c>
       <c r="FO1" s="1" t="inlineStr">
         <is>
-          <t>conductivity_throat_2</t>
+          <t>u_throat_2</t>
         </is>
       </c>
       <c r="FP1" s="1" t="inlineStr">
         <is>
-          <t>P_throat_2</t>
+          <t>h_throat_2</t>
         </is>
       </c>
       <c r="FQ1" s="1" t="inlineStr">
         <is>
-          <t>rho_throat_2</t>
+          <t>s_throat_2</t>
         </is>
       </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
-          <t>d_throat_2</t>
+          <t>cv_throat_2</t>
         </is>
       </c>
       <c r="FS1" s="1" t="inlineStr">
         <is>
-          <t>u_throat_2</t>
+          <t>cp_throat_2</t>
         </is>
       </c>
       <c r="FT1" s="1" t="inlineStr">
         <is>
-          <t>h_throat_2</t>
+          <t>a_throat_2</t>
         </is>
       </c>
       <c r="FU1" s="1" t="inlineStr">
         <is>
-          <t>s_throat_2</t>
+          <t>Z_throat_2</t>
         </is>
       </c>
       <c r="FV1" s="1" t="inlineStr">
         <is>
-          <t>cv_throat_2</t>
+          <t>mu_throat_2</t>
         </is>
       </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
-          <t>cp_throat_2</t>
+          <t>k_throat_2</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
         <is>
-          <t>a_throat_2</t>
+          <t>fluid_name_throat_2</t>
         </is>
       </c>
       <c r="FY1" s="1" t="inlineStr">
         <is>
-          <t>Z_throat_2</t>
+          <t>converged_throat_2</t>
         </is>
       </c>
       <c r="FZ1" s="1" t="inlineStr">
         <is>
-          <t>mu_throat_2</t>
+          <t>T0_throat_2</t>
         </is>
       </c>
       <c r="GA1" s="1" t="inlineStr">
         <is>
-          <t>k_throat_2</t>
+          <t>p0_throat_2</t>
         </is>
       </c>
       <c r="GB1" s="1" t="inlineStr">
         <is>
-          <t>fluid_name_throat_2</t>
+          <t>rhomass0_throat_2</t>
         </is>
       </c>
       <c r="GC1" s="1" t="inlineStr">
         <is>
-          <t>converged_throat_2</t>
+          <t>umass0_throat_2</t>
         </is>
       </c>
       <c r="GD1" s="1" t="inlineStr">
         <is>
-          <t>T0_throat_2</t>
+          <t>hmass0_throat_2</t>
         </is>
       </c>
       <c r="GE1" s="1" t="inlineStr">
         <is>
-          <t>p0_throat_2</t>
+          <t>smass0_throat_2</t>
         </is>
       </c>
       <c r="GF1" s="1" t="inlineStr">
         <is>
-          <t>rhomass0_throat_2</t>
+          <t>gibbsmass0_throat_2</t>
         </is>
       </c>
       <c r="GG1" s="1" t="inlineStr">
         <is>
-          <t>umass0_throat_2</t>
+          <t>cvmass0_throat_2</t>
         </is>
       </c>
       <c r="GH1" s="1" t="inlineStr">
         <is>
-          <t>hmass0_throat_2</t>
+          <t>cpmass0_throat_2</t>
         </is>
       </c>
       <c r="GI1" s="1" t="inlineStr">
         <is>
-          <t>smass0_throat_2</t>
+          <t>gamma0_throat_2</t>
         </is>
       </c>
       <c r="GJ1" s="1" t="inlineStr">
         <is>
-          <t>gibbsmass0_throat_2</t>
+          <t>compressibility_factor0_throat_2</t>
         </is>
       </c>
       <c r="GK1" s="1" t="inlineStr">
         <is>
-          <t>cvmass0_throat_2</t>
+          <t>speed_sound0_throat_2</t>
         </is>
       </c>
       <c r="GL1" s="1" t="inlineStr">
         <is>
-          <t>cpmass0_throat_2</t>
+          <t>isentropic_bulk_modulus0_throat_2</t>
         </is>
       </c>
       <c r="GM1" s="1" t="inlineStr">
         <is>
-          <t>gamma0_throat_2</t>
+          <t>isentropic_compressibility0_throat_2</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
         <is>
-          <t>compressibility_factor0_throat_2</t>
+          <t>isothermal_bulk_modulus0_throat_2</t>
         </is>
       </c>
       <c r="GO1" s="1" t="inlineStr">
         <is>
-          <t>speed_sound0_throat_2</t>
+          <t>isothermal_compressibility0_throat_2</t>
         </is>
       </c>
       <c r="GP1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_bulk_modulus0_throat_2</t>
+          <t>isobaric_expansion_coefficient0_throat_2</t>
         </is>
       </c>
       <c r="GQ1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_compressibility0_throat_2</t>
+          <t>viscosity0_throat_2</t>
         </is>
       </c>
       <c r="GR1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_bulk_modulus0_throat_2</t>
+          <t>conductivity0_throat_2</t>
         </is>
       </c>
       <c r="GS1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_compressibility0_throat_2</t>
+          <t>P0_throat_2</t>
         </is>
       </c>
       <c r="GT1" s="1" t="inlineStr">
         <is>
-          <t>isobaric_expansion_coefficient0_throat_2</t>
+          <t>rho0_throat_2</t>
         </is>
       </c>
       <c r="GU1" s="1" t="inlineStr">
         <is>
-          <t>viscosity0_throat_2</t>
+          <t>d0_throat_2</t>
         </is>
       </c>
       <c r="GV1" s="1" t="inlineStr">
         <is>
-          <t>conductivity0_throat_2</t>
+          <t>u0_throat_2</t>
         </is>
       </c>
       <c r="GW1" s="1" t="inlineStr">
         <is>
-          <t>P0_throat_2</t>
+          <t>h0_throat_2</t>
         </is>
       </c>
       <c r="GX1" s="1" t="inlineStr">
         <is>
-          <t>rho0_throat_2</t>
+          <t>s0_throat_2</t>
         </is>
       </c>
       <c r="GY1" s="1" t="inlineStr">
         <is>
-          <t>d0_throat_2</t>
+          <t>cv0_throat_2</t>
         </is>
       </c>
       <c r="GZ1" s="1" t="inlineStr">
         <is>
-          <t>u0_throat_2</t>
+          <t>cp0_throat_2</t>
         </is>
       </c>
       <c r="HA1" s="1" t="inlineStr">
         <is>
-          <t>h0_throat_2</t>
+          <t>a0_throat_2</t>
         </is>
       </c>
       <c r="HB1" s="1" t="inlineStr">
         <is>
-          <t>s0_throat_2</t>
+          <t>Z0_throat_2</t>
         </is>
       </c>
       <c r="HC1" s="1" t="inlineStr">
         <is>
-          <t>cv0_throat_2</t>
+          <t>mu0_throat_2</t>
         </is>
       </c>
       <c r="HD1" s="1" t="inlineStr">
         <is>
-          <t>cp0_throat_2</t>
+          <t>k0_throat_2</t>
         </is>
       </c>
       <c r="HE1" s="1" t="inlineStr">
         <is>
-          <t>a0_throat_2</t>
+          <t>fluid_name0_throat_2</t>
         </is>
       </c>
       <c r="HF1" s="1" t="inlineStr">
         <is>
-          <t>Z0_throat_2</t>
+          <t>converged0_throat_2</t>
         </is>
       </c>
       <c r="HG1" s="1" t="inlineStr">
         <is>
-          <t>mu0_throat_2</t>
+          <t>T0_rel_throat_2</t>
         </is>
       </c>
       <c r="HH1" s="1" t="inlineStr">
         <is>
-          <t>k0_throat_2</t>
+          <t>p0_rel_throat_2</t>
         </is>
       </c>
       <c r="HI1" s="1" t="inlineStr">
         <is>
-          <t>fluid_name0_throat_2</t>
+          <t>rhomass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HJ1" s="1" t="inlineStr">
         <is>
-          <t>converged0_throat_2</t>
+          <t>umass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HK1" s="1" t="inlineStr">
         <is>
-          <t>T0_rel_throat_2</t>
+          <t>hmass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HL1" s="1" t="inlineStr">
         <is>
-          <t>p0_rel_throat_2</t>
+          <t>smass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HM1" s="1" t="inlineStr">
         <is>
-          <t>rhomass0_rel_throat_2</t>
+          <t>gibbsmass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HN1" s="1" t="inlineStr">
         <is>
-          <t>umass0_rel_throat_2</t>
+          <t>cvmass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HO1" s="1" t="inlineStr">
         <is>
-          <t>hmass0_rel_throat_2</t>
+          <t>cpmass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HP1" s="1" t="inlineStr">
         <is>
-          <t>smass0_rel_throat_2</t>
+          <t>gamma0_rel_throat_2</t>
         </is>
       </c>
       <c r="HQ1" s="1" t="inlineStr">
         <is>
-          <t>gibbsmass0_rel_throat_2</t>
+          <t>compressibility_factor0_rel_throat_2</t>
         </is>
       </c>
       <c r="HR1" s="1" t="inlineStr">
         <is>
-          <t>cvmass0_rel_throat_2</t>
+          <t>speed_sound0_rel_throat_2</t>
         </is>
       </c>
       <c r="HS1" s="1" t="inlineStr">
         <is>
-          <t>cpmass0_rel_throat_2</t>
+          <t>isentropic_bulk_modulus0_rel_throat_2</t>
         </is>
       </c>
       <c r="HT1" s="1" t="inlineStr">
         <is>
-          <t>gamma0_rel_throat_2</t>
+          <t>isentropic_compressibility0_rel_throat_2</t>
         </is>
       </c>
       <c r="HU1" s="1" t="inlineStr">
         <is>
-          <t>compressibility_factor0_rel_throat_2</t>
+          <t>isothermal_bulk_modulus0_rel_throat_2</t>
         </is>
       </c>
       <c r="HV1" s="1" t="inlineStr">
         <is>
-          <t>speed_sound0_rel_throat_2</t>
+          <t>isothermal_compressibility0_rel_throat_2</t>
         </is>
       </c>
       <c r="HW1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_bulk_modulus0_rel_throat_2</t>
+          <t>isobaric_expansion_coefficient0_rel_throat_2</t>
         </is>
       </c>
       <c r="HX1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_compressibility0_rel_throat_2</t>
+          <t>viscosity0_rel_throat_2</t>
         </is>
       </c>
       <c r="HY1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_bulk_modulus0_rel_throat_2</t>
+          <t>conductivity0_rel_throat_2</t>
         </is>
       </c>
       <c r="HZ1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_compressibility0_rel_throat_2</t>
+          <t>P0_rel_throat_2</t>
         </is>
       </c>
       <c r="IA1" s="1" t="inlineStr">
         <is>
-          <t>isobaric_expansion_coefficient0_rel_throat_2</t>
+          <t>rho0_rel_throat_2</t>
         </is>
       </c>
       <c r="IB1" s="1" t="inlineStr">
         <is>
-          <t>viscosity0_rel_throat_2</t>
+          <t>d0_rel_throat_2</t>
         </is>
       </c>
       <c r="IC1" s="1" t="inlineStr">
         <is>
-          <t>conductivity0_rel_throat_2</t>
+          <t>u0_rel_throat_2</t>
         </is>
       </c>
       <c r="ID1" s="1" t="inlineStr">
         <is>
-          <t>P0_rel_throat_2</t>
+          <t>h0_rel_throat_2</t>
         </is>
       </c>
       <c r="IE1" s="1" t="inlineStr">
         <is>
-          <t>rho0_rel_throat_2</t>
+          <t>s0_rel_throat_2</t>
         </is>
       </c>
       <c r="IF1" s="1" t="inlineStr">
         <is>
-          <t>d0_rel_throat_2</t>
+          <t>cv0_rel_throat_2</t>
         </is>
       </c>
       <c r="IG1" s="1" t="inlineStr">
         <is>
-          <t>u0_rel_throat_2</t>
+          <t>cp0_rel_throat_2</t>
         </is>
       </c>
       <c r="IH1" s="1" t="inlineStr">
         <is>
-          <t>h0_rel_throat_2</t>
+          <t>a0_rel_throat_2</t>
         </is>
       </c>
       <c r="II1" s="1" t="inlineStr">
         <is>
-          <t>s0_rel_throat_2</t>
+          <t>Z0_rel_throat_2</t>
         </is>
       </c>
       <c r="IJ1" s="1" t="inlineStr">
         <is>
-          <t>cv0_rel_throat_2</t>
+          <t>mu0_rel_throat_2</t>
         </is>
       </c>
       <c r="IK1" s="1" t="inlineStr">
         <is>
-          <t>cp0_rel_throat_2</t>
+          <t>k0_rel_throat_2</t>
         </is>
       </c>
       <c r="IL1" s="1" t="inlineStr">
         <is>
-          <t>a0_rel_throat_2</t>
+          <t>fluid_name0_rel_throat_2</t>
         </is>
       </c>
       <c r="IM1" s="1" t="inlineStr">
         <is>
-          <t>Z0_rel_throat_2</t>
+          <t>converged0_rel_throat_2</t>
         </is>
       </c>
       <c r="IN1" s="1" t="inlineStr">
         <is>
-          <t>mu0_rel_throat_2</t>
+          <t>loss_profile_throat_2</t>
         </is>
       </c>
       <c r="IO1" s="1" t="inlineStr">
         <is>
-          <t>k0_rel_throat_2</t>
+          <t>loss_incidence_throat_2</t>
         </is>
       </c>
       <c r="IP1" s="1" t="inlineStr">
         <is>
-          <t>fluid_name0_rel_throat_2</t>
+          <t>loss_trailing_throat_2</t>
         </is>
       </c>
       <c r="IQ1" s="1" t="inlineStr">
         <is>
-          <t>converged0_rel_throat_2</t>
+          <t>loss_secondary_throat_2</t>
         </is>
       </c>
       <c r="IR1" s="1" t="inlineStr">
         <is>
-          <t>loss_profile_throat_2</t>
+          <t>loss_clearance_throat_2</t>
         </is>
       </c>
       <c r="IS1" s="1" t="inlineStr">
         <is>
-          <t>loss_incidence_throat_2</t>
+          <t>loss_total_throat_2</t>
         </is>
       </c>
       <c r="IT1" s="1" t="inlineStr">
         <is>
-          <t>loss_trailing_throat_2</t>
+          <t>loss_error_throat_2</t>
         </is>
       </c>
       <c r="IU1" s="1" t="inlineStr">
         <is>
-          <t>loss_secondary_throat_2</t>
+          <t>Ma_throat_2</t>
         </is>
       </c>
       <c r="IV1" s="1" t="inlineStr">
         <is>
-          <t>loss_clearance_throat_2</t>
+          <t>Ma_rel_throat_2</t>
         </is>
       </c>
       <c r="IW1" s="1" t="inlineStr">
         <is>
-          <t>loss_total_throat_2</t>
+          <t>Re_throat_2</t>
         </is>
       </c>
       <c r="IX1" s="1" t="inlineStr">
         <is>
-          <t>loss_error_throat_2</t>
+          <t>mass_flow_throat_2</t>
         </is>
       </c>
       <c r="IY1" s="1" t="inlineStr">
         <is>
-          <t>Ma_throat_2</t>
+          <t>rothalpy_throat_2</t>
         </is>
       </c>
       <c r="IZ1" s="1" t="inlineStr">
         <is>
-          <t>Ma_rel_throat_2</t>
+          <t>blockage_throat_2</t>
         </is>
       </c>
       <c r="JA1" s="1" t="inlineStr">
         <is>
-          <t>Re_throat_2</t>
+          <t>h_is_throat_2</t>
         </is>
       </c>
       <c r="JB1" s="1" t="inlineStr">
         <is>
-          <t>mass_flow_throat_2</t>
+          <t>dh_s_2</t>
         </is>
       </c>
       <c r="JC1" s="1" t="inlineStr">
         <is>
-          <t>rothalpy_throat_2</t>
-        </is>
-      </c>
-      <c r="JD1" s="1" t="inlineStr">
-        <is>
-          <t>blockage_throat_2</t>
-        </is>
-      </c>
-      <c r="JE1" s="1" t="inlineStr">
-        <is>
-          <t>dh_s_2</t>
-        </is>
-      </c>
-      <c r="JF1" s="1" t="inlineStr">
-        <is>
           <t>incidence_2</t>
-        </is>
-      </c>
-      <c r="JG1" s="1" t="inlineStr">
-        <is>
-          <t>efficiency_drop_profile_2</t>
-        </is>
-      </c>
-      <c r="JH1" s="1" t="inlineStr">
-        <is>
-          <t>efficiency_drop_incidence_2</t>
-        </is>
-      </c>
-      <c r="JI1" s="1" t="inlineStr">
-        <is>
-          <t>efficiency_drop_secondary_2</t>
-        </is>
-      </c>
-      <c r="JJ1" s="1" t="inlineStr">
-        <is>
-          <t>efficiency_drop_clearance_2</t>
-        </is>
-      </c>
-      <c r="JK1" s="1" t="inlineStr">
-        <is>
-          <t>efficiency_drop_trailing_2</t>
         </is>
       </c>
     </row>
@@ -7559,145 +7556,145 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01561897651732149</v>
+        <v>0.01561897651507948</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.808493700650828e-07</v>
+        <v>-1.808493700480447e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01378013287983814</v>
+        <v>0.01378013287977033</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02533043296337538</v>
+        <v>0.02533043296426881</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05472936151116495</v>
+        <v>0.05472936150974857</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.837905522217298e-11</v>
+        <v>-1.414317829517842e-10</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>274.167806249784</v>
+        <v>274.1678062755173</v>
       </c>
       <c r="K2" t="n">
-        <v>112.0265245565439</v>
+        <v>112.0265245670586</v>
       </c>
       <c r="L2" t="n">
-        <v>250.2359761896782</v>
+        <v>250.2359762131652</v>
       </c>
       <c r="M2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="N2" t="n">
-        <v>274.167806249784</v>
+        <v>274.1678062755173</v>
       </c>
       <c r="O2" t="n">
-        <v>112.0265245565439</v>
+        <v>112.0265245670586</v>
       </c>
       <c r="P2" t="n">
-        <v>250.2359761896782</v>
+        <v>250.2359762131652</v>
       </c>
       <c r="Q2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="R2" t="n">
-        <v>258.1003988430543</v>
+        <v>258.1003988360173</v>
       </c>
       <c r="S2" t="n">
-        <v>85911.41387415427</v>
+        <v>85911.41386597459</v>
       </c>
       <c r="T2" t="n">
-        <v>1.16040142396665</v>
+        <v>1.160401423887841</v>
       </c>
       <c r="U2" t="n">
-        <v>310164.4949308123</v>
+        <v>310164.4949257844</v>
       </c>
       <c r="V2" t="n">
-        <v>384200.4380964796</v>
+        <v>384200.4380894309</v>
       </c>
       <c r="W2" t="n">
-        <v>3782.917347718242</v>
+        <v>3782.917347718243</v>
       </c>
       <c r="X2" t="n">
-        <v>-592172.038139908</v>
+        <v>-592172.0381203362</v>
       </c>
       <c r="Y2" t="n">
-        <v>716.5043828473296</v>
+        <v>716.5043828471453</v>
       </c>
       <c r="Z2" t="n">
-        <v>1005.193756831191</v>
+        <v>1005.193756830957</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.402913619085809</v>
+        <v>1.402913619085844</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.9993041882928999</v>
+        <v>0.9993041882928692</v>
       </c>
       <c r="AC2" t="n">
-        <v>322.1708149427056</v>
+        <v>322.1708149383076</v>
       </c>
       <c r="AD2" t="n">
-        <v>120442.7448538258</v>
+        <v>120442.7448423575</v>
       </c>
       <c r="AE2" t="n">
-        <v>8.30270018516799e-06</v>
+        <v>8.302700185958551e-06</v>
       </c>
       <c r="AF2" t="n">
-        <v>85851.86088100757</v>
+        <v>85851.86087283089</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.164797116495845e-05</v>
+        <v>1.164797116606782e-05</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.00388821553852202</v>
+        <v>0.003888215538627818</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.645352168426201e-05</v>
+        <v>1.645352168390005e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.02319279784485157</v>
+        <v>0.02319279784430018</v>
       </c>
       <c r="AK2" t="n">
-        <v>85911.41387415427</v>
+        <v>85911.41386597459</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.16040142396665</v>
+        <v>1.160401423887841</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.16040142396665</v>
+        <v>1.160401423887841</v>
       </c>
       <c r="AN2" t="n">
-        <v>310164.4949308123</v>
+        <v>310164.4949257844</v>
       </c>
       <c r="AO2" t="n">
-        <v>384200.4380964796</v>
+        <v>384200.4380894309</v>
       </c>
       <c r="AP2" t="n">
-        <v>3782.917347718242</v>
+        <v>3782.917347718243</v>
       </c>
       <c r="AQ2" t="n">
-        <v>716.5043828473296</v>
+        <v>716.5043828471453</v>
       </c>
       <c r="AR2" t="n">
-        <v>1005.193756831191</v>
+        <v>1005.193756830957</v>
       </c>
       <c r="AS2" t="n">
-        <v>322.1708149427056</v>
+        <v>322.1708149383076</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.9993041882928999</v>
+        <v>0.9993041882928692</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.645352168426201e-05</v>
+        <v>1.645352168390005e-05</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.02319279784485157</v>
+        <v>0.02319279784430018</v>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
@@ -7711,10 +7708,10 @@
         <v>295.6000000000885</v>
       </c>
       <c r="AZ2" t="n">
-        <v>137999.9999951881</v>
+        <v>137999.9999951878</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.62714581975505</v>
+        <v>1.627145819755046</v>
       </c>
       <c r="BB2" t="n">
         <v>336973.3475828946</v>
@@ -7723,10 +7720,10 @@
         <v>421784.4310885896</v>
       </c>
       <c r="BD2" t="n">
-        <v>3782.917347723359</v>
+        <v>3782.91734772336</v>
       </c>
       <c r="BE2" t="n">
-        <v>-696445.9368987699</v>
+        <v>-696445.9368987704</v>
       </c>
       <c r="BF2" t="n">
         <v>717.8632360362554</v>
@@ -7741,37 +7738,37 @@
         <v>0.9995210660216021</v>
       </c>
       <c r="BJ2" t="n">
-        <v>344.8092213940487</v>
+        <v>344.8092213940488</v>
       </c>
       <c r="BK2" t="n">
-        <v>193456.8974370105</v>
+        <v>193456.8974370101</v>
       </c>
       <c r="BL2" t="n">
-        <v>5.169110087303036e-06</v>
+        <v>5.169110087303047e-06</v>
       </c>
       <c r="BM2" t="n">
-        <v>137934.6617460252</v>
+        <v>137934.6617460249</v>
       </c>
       <c r="BN2" t="n">
-        <v>7.24980934698828e-06</v>
+        <v>7.249809346988295e-06</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.003395798695745238</v>
+        <v>0.003395798695745237</v>
       </c>
       <c r="BP2" t="n">
         <v>1.832995174012118e-05</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.02606863419706634</v>
+        <v>0.02606863419706635</v>
       </c>
       <c r="BR2" t="n">
-        <v>137999.9999951881</v>
+        <v>137999.9999951878</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.62714581975505</v>
+        <v>1.627145819755046</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.62714581975505</v>
+        <v>1.627145819755046</v>
       </c>
       <c r="BU2" t="n">
         <v>336973.3475828946</v>
@@ -7780,7 +7777,7 @@
         <v>421784.4310885896</v>
       </c>
       <c r="BW2" t="n">
-        <v>3782.917347723359</v>
+        <v>3782.91734772336</v>
       </c>
       <c r="BX2" t="n">
         <v>717.8632360362554</v>
@@ -7789,7 +7786,7 @@
         <v>1006.821582550249</v>
       </c>
       <c r="BZ2" t="n">
-        <v>344.8092213940487</v>
+        <v>344.8092213940488</v>
       </c>
       <c r="CA2" t="n">
         <v>0.9995210660216021</v>
@@ -7798,7 +7795,7 @@
         <v>1.832995174012118e-05</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.02606863419706634</v>
+        <v>0.02606863419706635</v>
       </c>
       <c r="CD2" t="inlineStr">
         <is>
@@ -7812,10 +7809,10 @@
         <v>295.6000000000885</v>
       </c>
       <c r="CG2" t="n">
-        <v>137999.9999951881</v>
+        <v>137999.9999951878</v>
       </c>
       <c r="CH2" t="n">
-        <v>1.62714581975505</v>
+        <v>1.627145819755046</v>
       </c>
       <c r="CI2" t="n">
         <v>336973.3475828946</v>
@@ -7824,10 +7821,10 @@
         <v>421784.4310885896</v>
       </c>
       <c r="CK2" t="n">
-        <v>3782.917347723359</v>
+        <v>3782.91734772336</v>
       </c>
       <c r="CL2" t="n">
-        <v>-696445.9368987699</v>
+        <v>-696445.9368987704</v>
       </c>
       <c r="CM2" t="n">
         <v>717.8632360362554</v>
@@ -7842,37 +7839,37 @@
         <v>0.9995210660216021</v>
       </c>
       <c r="CQ2" t="n">
-        <v>344.8092213940487</v>
+        <v>344.8092213940488</v>
       </c>
       <c r="CR2" t="n">
-        <v>193456.8974370105</v>
+        <v>193456.8974370101</v>
       </c>
       <c r="CS2" t="n">
-        <v>5.169110087303036e-06</v>
+        <v>5.169110087303047e-06</v>
       </c>
       <c r="CT2" t="n">
-        <v>137934.6617460252</v>
+        <v>137934.6617460249</v>
       </c>
       <c r="CU2" t="n">
-        <v>7.24980934698828e-06</v>
+        <v>7.249809346988295e-06</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.003395798695745238</v>
+        <v>0.003395798695745237</v>
       </c>
       <c r="CW2" t="n">
         <v>1.832995174012118e-05</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.02606863419706634</v>
+        <v>0.02606863419706635</v>
       </c>
       <c r="CY2" t="n">
-        <v>137999.9999951881</v>
+        <v>137999.9999951878</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.62714581975505</v>
+        <v>1.627145819755046</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.62714581975505</v>
+        <v>1.627145819755046</v>
       </c>
       <c r="DB2" t="n">
         <v>336973.3475828946</v>
@@ -7881,7 +7878,7 @@
         <v>421784.4310885896</v>
       </c>
       <c r="DD2" t="n">
-        <v>3782.917347723359</v>
+        <v>3782.91734772336</v>
       </c>
       <c r="DE2" t="n">
         <v>717.8632360362554</v>
@@ -7890,7 +7887,7 @@
         <v>1006.821582550249</v>
       </c>
       <c r="DG2" t="n">
-        <v>344.8092213940487</v>
+        <v>344.8092213940488</v>
       </c>
       <c r="DH2" t="n">
         <v>0.9995210660216021</v>
@@ -7899,7 +7896,7 @@
         <v>1.832995174012118e-05</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.02606863419706634</v>
+        <v>0.02606863419706635</v>
       </c>
       <c r="DK2" t="inlineStr">
         <is>
@@ -7910,37 +7907,37 @@
         <v>1</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.0160752297716175</v>
+        <v>0.01607522977131295</v>
       </c>
       <c r="DN2" t="n">
-        <v>-1.810779379397664e-07</v>
+        <v>-1.810779379113575e-07</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.01379738282249341</v>
+        <v>0.01379738282249673</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.02509842428960061</v>
+        <v>0.02509842428952098</v>
       </c>
       <c r="DQ2" t="n">
         <v>0</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.05497085580577357</v>
+        <v>0.05497085580539275</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.05497085580577357</v>
+        <v>-0.05497085580539275</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.851001374219889</v>
+        <v>0.8510013743113809</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.851001374219889</v>
+        <v>0.8510013743113809</v>
       </c>
       <c r="DV2" t="n">
-        <v>505828.8338498881</v>
+        <v>505828.8338741392</v>
       </c>
       <c r="DW2" t="n">
-        <v>2.790805431770627</v>
+        <v>2.790805431843034</v>
       </c>
       <c r="DX2" t="n">
         <v>421784.4310884894</v>
@@ -7949,436 +7946,412 @@
         <v>0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>1509.720684051514</v>
+        <v>384200.4380894308</v>
       </c>
       <c r="EA2" t="n">
+        <v>1509.720680772443</v>
+      </c>
+      <c r="EB2" t="n">
         <v>0</v>
       </c>
-      <c r="EB2" t="n">
-        <v>0.006627777975076455</v>
-      </c>
       <c r="EC2" t="n">
-        <v>-7.674187040325745e-08</v>
+        <v>0.02607389603413926</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.0107487507589006</v>
+        <v>0.002221780596028547</v>
       </c>
       <c r="EE2" t="n">
+        <v>0.01178846742576353</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>0.03262518113139132</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>0.04229027499091735</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>0.11499960017824</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>1.361971646574034e-11</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>165.3032</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>132.0703461857413</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>120.6414701013993</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>-53.74208810043311</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>-24.0115111434534</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>250.0703951834934</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>120.6414701013993</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>-219.0452881004331</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>-61.15576777799674</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>236.9136066823851</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>62420.87548286574</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>0.9185702062662034</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>295034.0214263615</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>362988.4086436364</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>3788.783891564113</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>-534626.0480469402</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>716.0444568078876</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>1004.555855530282</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>1.40292386314751</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>0.9992433487767032</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>308.6467825558676</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>87505.60326499908</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>1.142783962041417e-05</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>62373.73642549432</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>1.603238890770162e-05</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>0.00423488657701324</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>1.534551064519766e-05</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>0.02151067060591378</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>62420.87548286574</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>0.9185702062662034</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>0.9185702062662034</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>295034.0214263615</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>362988.4086436364</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>3788.783891564113</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>716.0444568078876</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>1004.555855530282</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>308.6467825558676</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>0.9992433487767032</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>1.534551064519766e-05</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>0.02151067060591378</v>
+      </c>
+      <c r="FX2" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="FY2" t="b">
+        <v>1</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>245.623399870924</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>70805.419308888</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>1.004980274782626</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>301255.1604563053</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>371709.6968144471</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>3788.7838915562</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>-558904.2840057769</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>716.2078264161036</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>1004.778332387563</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>1.402914482819132</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>0.9992703300966856</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>314.2765528734504</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>99261.6521896268</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>1.007438399362552e-05</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>70753.88657344406</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>1.413349921013849e-05</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>0.004085025008046597</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>1.580534532942965e-05</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>0.02220721764163469</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>70805.419308888</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>1.004980274782626</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>1.004980274782626</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>301255.1604563053</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>371709.6968144471</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>3788.7838915562</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>716.2078264161036</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>1004.778332387563</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>314.2765528734504</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>0.9992703300966856</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>1.580534532942965e-05</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>0.02220721764163469</v>
+      </c>
+      <c r="HE2" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="HF2" t="b">
+        <v>1</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>268.1325478429533</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>96169.14343003971</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>1.25027621047052</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>317337.6916891145</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>394256.0099172507</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>3788.783891562864</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>-621640.2681538395</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>716.7853702994557</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>1005.511312851257</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>1.402806690140981</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>0.9993647230925626</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>328.3798436109176</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>134821.436804935</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>7.417218090078949e-06</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>96108.35031830757</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>1.040492315899747e-05</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>0.003742747758418675</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>1.696534104365319e-05</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>0.02397353035650667</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>96169.14343003971</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>1.25027621047052</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>1.25027621047052</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>317337.6916891145</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>394256.0099172507</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>3788.783891562864</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>716.7853702994557</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>1005.511312851257</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>328.3798436109176</v>
+      </c>
+      <c r="II2" t="n">
+        <v>0.9993647230925626</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>1.696534104365319e-05</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>0.02397353035650667</v>
+      </c>
+      <c r="IL2" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="IM2" t="b">
+        <v>1</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>0.025895461613181</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>0.002229373808187881</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>0.01188913901103488</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>0.03204945911907212</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>0.04286665274551164</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>0.1149300862969875</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>-0.1149300862969875</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>0.4279012568739008</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>0.8102154608989928</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>390092.5911088225</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>2.790805431940314</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>380593.4359520305</v>
+      </c>
+      <c r="IZ2" t="n">
         <v>0</v>
       </c>
-      <c r="EF2" t="n">
-        <v>0.005847480537110164</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>0.02607389602876673</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>0.002221780596656373</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>0.01178846742615993</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>0.03262518112934391</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>0.04229027499397901</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>0.114999600174906</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>-6.981901168323645e-12</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>165.3032</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>132.0703461818481</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>120.6414700990431</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>-53.74208809615493</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>-24.01151114217397</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>250.0703951786093</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>120.6414700990431</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>-219.0452880961549</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>-61.15576777799674</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>236.9136066848488</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>62420.87548237953</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>0.9185702062494592</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>295034.0214281289</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>362988.4086461133</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>3788.783891576802</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>-534626.0480568042</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>716.0444568079171</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>1004.555855530264</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>1.402923863147426</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>0.9992433487767434</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>308.6467825574756</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>87505.60326431577</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>1.142783962050341e-05</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>62373.736425011</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>1.603238890782586e-05</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>0.004234886576968679</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>1.534551064532819e-05</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>0.02151067060611077</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>62420.87548237953</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>0.9185702062494592</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>0.9185702062494592</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>295034.0214281289</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>362988.4086461133</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>3788.783891576802</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>716.0444568079171</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>1004.555855530264</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>308.6467825574756</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>0.9992433487767434</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>1.534551064532819e-05</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>0.02151067060611077</v>
-      </c>
-      <c r="GB2" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="GC2" t="b">
-        <v>1</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>245.6233998730733</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>70805.41930792959</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>1.004980274760189</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>301255.160457849</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>371709.6968166102</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>3788.783891568888</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>-558904.2840148737</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>716.2078264161347</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>1004.778332387541</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>1.402914482819041</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>0.9992703300967251</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>314.2765528748276</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>99261.65218828067</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>1.007438399376215e-05</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>70753.88657248912</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>1.413349921032925e-05</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>0.004085025008010319</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>1.580534532954185e-05</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>0.02220721764180443</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>70805.41930792959</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>1.004980274760189</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>1.004980274760189</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>301255.160457849</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>371709.6968166102</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>3788.783891568888</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>716.2078264161347</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>1004.778332387541</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>314.2765528748276</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>0.9992703300967251</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>1.580534532954185e-05</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>0.02220721764180443</v>
-      </c>
-      <c r="HI2" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="HJ2" t="b">
-        <v>1</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>268.132547844194</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>96169.14342735495</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>1.250276210429788</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>317337.6916900111</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>394256.009918506</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>3788.783891575552</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>-621640.2681606873</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>716.7853702994807</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>1005.511312851217</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>1.402806690140876</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>0.9993647230925967</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>328.3798436116762</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>134821.4368011657</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>7.41721809028632e-06</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>96108.35031562779</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>1.040492315928759e-05</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>0.003742747758400805</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>1.69653410437154e-05</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>0.02397353035660124</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>96169.14342735495</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>1.250276210429788</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>1.250276210429788</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>317337.6916900111</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>394256.009918506</v>
-      </c>
-      <c r="II2" t="n">
-        <v>3788.783891575552</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>716.7853702994807</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>1005.511312851217</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>328.3798436116762</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>0.9993647230925967</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>1.69653410437154e-05</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>0.02397353035660124</v>
-      </c>
-      <c r="IP2" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="IQ2" t="b">
-        <v>1</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>0.02589546160736598</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>0.002229373808745562</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>0.01188913901098997</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>0.03204945911953596</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>0.04286665274612254</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>0.11493008629276</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>-0.11493008629276</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>0.4279012568590576</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>0.8102154608789471</v>
-      </c>
       <c r="JA2" t="n">
-        <v>390092.5910907744</v>
+        <v>362988.4086417615</v>
       </c>
       <c r="JB2" t="n">
-        <v>2.790805431834934</v>
+        <v>2673.602139019582</v>
       </c>
       <c r="JC2" t="n">
-        <v>380593.4359534862</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>2673.602138614282</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>6.664338490549198</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>0.009324929023343991</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>0.000794585755285896</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>0.01166789566351061</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>0.01512446825213508</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>0.004215964577049184</v>
+        <v>6.664338489626431</v>
       </c>
     </row>
     <row r="3">
@@ -8386,145 +8359,145 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01561192565311725</v>
+        <v>0.0156119256537027</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.824277019747002e-07</v>
+        <v>-1.824277019651166e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01377981236499877</v>
+        <v>0.01377981236501761</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02533404515348691</v>
+        <v>0.02533404515323261</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05472560074390097</v>
+        <v>0.05472560074425097</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.156469447456288e-13</v>
+        <v>-9.105216580707065e-14</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>278.0073547097061</v>
+        <v>278.0073547187528</v>
       </c>
       <c r="K3" t="n">
-        <v>113.5953858890069</v>
+        <v>113.5953858927034</v>
       </c>
       <c r="L3" t="n">
-        <v>253.7403743542126</v>
+        <v>253.7403743624696</v>
       </c>
       <c r="M3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="N3" t="n">
-        <v>278.0073547097061</v>
+        <v>278.0073547187528</v>
       </c>
       <c r="O3" t="n">
-        <v>113.5953858890069</v>
+        <v>113.5953858927034</v>
       </c>
       <c r="P3" t="n">
-        <v>253.7403743542126</v>
+        <v>253.7403743624696</v>
       </c>
       <c r="Q3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="R3" t="n">
-        <v>257.0420666665661</v>
+        <v>257.0420666642554</v>
       </c>
       <c r="S3" t="n">
-        <v>84687.59710615034</v>
+        <v>84687.5971034918</v>
       </c>
       <c r="T3" t="n">
-        <v>1.148586371889386</v>
+        <v>1.148586371863666</v>
       </c>
       <c r="U3" t="n">
-        <v>309408.3631764752</v>
+        <v>309408.3631748242</v>
       </c>
       <c r="V3" t="n">
-        <v>383140.3864520449</v>
+        <v>383140.3864497304</v>
       </c>
       <c r="W3" t="n">
         <v>3782.917347718243</v>
       </c>
       <c r="X3" t="n">
-        <v>-589228.5066342573</v>
+        <v>-589228.5066278306</v>
       </c>
       <c r="Y3" t="n">
-        <v>716.4769681994625</v>
+        <v>716.4769681994031</v>
       </c>
       <c r="Z3" t="n">
-        <v>1005.15887700942</v>
+        <v>1005.158877009344</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.402918616540358</v>
+        <v>1.402918616540368</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.9992996080680611</v>
+        <v>0.9992996080680512</v>
       </c>
       <c r="AC3" t="n">
-        <v>321.5087000078491</v>
+        <v>321.508700006402</v>
       </c>
       <c r="AD3" t="n">
-        <v>118726.8971175802</v>
+        <v>118726.8971138528</v>
       </c>
       <c r="AE3" t="n">
-        <v>8.422691271125013e-06</v>
+        <v>8.42269127138944e-06</v>
       </c>
       <c r="AF3" t="n">
-        <v>84628.49927130094</v>
+        <v>84628.49926864341</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.181635038563325e-05</v>
+        <v>1.181635038600431e-05</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.003904192219995387</v>
+        <v>0.003904192220030414</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.639904245977428e-05</v>
+        <v>1.639904245965524e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.02310982003049946</v>
+        <v>0.02310982003031817</v>
       </c>
       <c r="AK3" t="n">
-        <v>84687.59710615034</v>
+        <v>84687.5971034918</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.148586371889386</v>
+        <v>1.148586371863666</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.148586371889386</v>
+        <v>1.148586371863666</v>
       </c>
       <c r="AN3" t="n">
-        <v>309408.3631764752</v>
+        <v>309408.3631748242</v>
       </c>
       <c r="AO3" t="n">
-        <v>383140.3864520449</v>
+        <v>383140.3864497304</v>
       </c>
       <c r="AP3" t="n">
         <v>3782.917347718243</v>
       </c>
       <c r="AQ3" t="n">
-        <v>716.4769681994625</v>
+        <v>716.4769681994031</v>
       </c>
       <c r="AR3" t="n">
-        <v>1005.15887700942</v>
+        <v>1005.158877009344</v>
       </c>
       <c r="AS3" t="n">
-        <v>321.5087000078491</v>
+        <v>321.508700006402</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.9992996080680611</v>
+        <v>0.9992996080680512</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.639904245977428e-05</v>
+        <v>1.639904245965524e-05</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.02310982003049946</v>
+        <v>0.02310982003031817</v>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
@@ -8538,10 +8511,10 @@
         <v>295.6000000000885</v>
       </c>
       <c r="AZ3" t="n">
-        <v>137999.9999951878</v>
+        <v>137999.9999951876</v>
       </c>
       <c r="BA3" t="n">
-        <v>1.627145819755046</v>
+        <v>1.627145819755043</v>
       </c>
       <c r="BB3" t="n">
         <v>336973.3475828946</v>
@@ -8553,7 +8526,7 @@
         <v>3782.91734772336</v>
       </c>
       <c r="BE3" t="n">
-        <v>-696445.9368987704</v>
+        <v>-696445.9368987705</v>
       </c>
       <c r="BF3" t="n">
         <v>717.8632360362554</v>
@@ -8571,16 +8544,16 @@
         <v>344.8092213940488</v>
       </c>
       <c r="BK3" t="n">
-        <v>193456.8974370101</v>
+        <v>193456.8974370098</v>
       </c>
       <c r="BL3" t="n">
-        <v>5.169110087303047e-06</v>
+        <v>5.169110087303055e-06</v>
       </c>
       <c r="BM3" t="n">
-        <v>137934.6617460249</v>
+        <v>137934.6617460247</v>
       </c>
       <c r="BN3" t="n">
-        <v>7.249809346988295e-06</v>
+        <v>7.249809346988306e-06</v>
       </c>
       <c r="BO3" t="n">
         <v>0.003395798695745237</v>
@@ -8592,13 +8565,13 @@
         <v>0.02606863419706635</v>
       </c>
       <c r="BR3" t="n">
-        <v>137999.9999951878</v>
+        <v>137999.9999951876</v>
       </c>
       <c r="BS3" t="n">
-        <v>1.627145819755046</v>
+        <v>1.627145819755043</v>
       </c>
       <c r="BT3" t="n">
-        <v>1.627145819755046</v>
+        <v>1.627145819755043</v>
       </c>
       <c r="BU3" t="n">
         <v>336973.3475828946</v>
@@ -8639,10 +8612,10 @@
         <v>295.6000000000885</v>
       </c>
       <c r="CG3" t="n">
-        <v>137999.9999951878</v>
+        <v>137999.9999951876</v>
       </c>
       <c r="CH3" t="n">
-        <v>1.627145819755046</v>
+        <v>1.627145819755043</v>
       </c>
       <c r="CI3" t="n">
         <v>336973.3475828946</v>
@@ -8654,7 +8627,7 @@
         <v>3782.91734772336</v>
       </c>
       <c r="CL3" t="n">
-        <v>-696445.9368987704</v>
+        <v>-696445.9368987705</v>
       </c>
       <c r="CM3" t="n">
         <v>717.8632360362554</v>
@@ -8672,16 +8645,16 @@
         <v>344.8092213940488</v>
       </c>
       <c r="CR3" t="n">
-        <v>193456.8974370101</v>
+        <v>193456.8974370098</v>
       </c>
       <c r="CS3" t="n">
-        <v>5.169110087303047e-06</v>
+        <v>5.169110087303055e-06</v>
       </c>
       <c r="CT3" t="n">
-        <v>137934.6617460249</v>
+        <v>137934.6617460247</v>
       </c>
       <c r="CU3" t="n">
-        <v>7.249809346988295e-06</v>
+        <v>7.249809346988306e-06</v>
       </c>
       <c r="CV3" t="n">
         <v>0.003395798695745237</v>
@@ -8693,13 +8666,13 @@
         <v>0.02606863419706635</v>
       </c>
       <c r="CY3" t="n">
-        <v>137999.9999951878</v>
+        <v>137999.9999951876</v>
       </c>
       <c r="CZ3" t="n">
-        <v>1.627145819755046</v>
+        <v>1.627145819755043</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.627145819755046</v>
+        <v>1.627145819755043</v>
       </c>
       <c r="DB3" t="n">
         <v>336973.3475828946</v>
@@ -8737,37 +8710,37 @@
         <v>1</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.01607888984657418</v>
+        <v>0.0160788898466451</v>
       </c>
       <c r="DN3" t="n">
-        <v>-1.826635901105562e-07</v>
+        <v>-1.826635901007585e-07</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.0137974567886981</v>
+        <v>0.01379745678869774</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.02509665026846983</v>
+        <v>0.0250966502684785</v>
       </c>
       <c r="DQ3" t="n">
         <v>0</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.054972814240152</v>
+        <v>0.05497281424023125</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0.054972814240152</v>
+        <v>-0.05497281424023125</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.8646962110291853</v>
+        <v>0.8646962110612155</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.8646962110291853</v>
+        <v>0.8646962110612155</v>
       </c>
       <c r="DV3" t="n">
-        <v>509376.838643722</v>
+        <v>509376.8386525891</v>
       </c>
       <c r="DW3" t="n">
-        <v>2.801075364030698</v>
+        <v>2.801075364059125</v>
       </c>
       <c r="DX3" t="n">
         <v>421784.4310884894</v>
@@ -8776,436 +8749,412 @@
         <v>0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>1538.279511297646</v>
+        <v>383140.3864497301</v>
       </c>
       <c r="EA3" t="n">
+        <v>1538.27951137803</v>
+      </c>
+      <c r="EB3" t="n">
         <v>0</v>
       </c>
-      <c r="EB3" t="n">
-        <v>0.006449299916950106</v>
-      </c>
       <c r="EC3" t="n">
-        <v>-7.536104061320026e-08</v>
+        <v>0.02693962188699939</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.01046551584568747</v>
+        <v>0.002766125130286845</v>
       </c>
       <c r="EE3" t="n">
+        <v>0.01174717696696274</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>0.03296430785396036</v>
+      </c>
+      <c r="EG3" t="n">
+        <v>0.04275610682211924</v>
+      </c>
+      <c r="EH3" t="n">
+        <v>0.1171733386603286</v>
+      </c>
+      <c r="EI3" t="n">
+        <v>1.348099409881343e-11</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>165.3032</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>138.6446015446156</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>124.5676052494678</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>-60.87066009070367</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>-26.04270713404987</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>258.2086428954624</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>124.5676052494678</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>-226.1738600907037</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>-61.15576777799674</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>234.275814718187</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>59999.97848152582</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>0.89289233450886</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>293150.1478796063</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>360347.4752197823</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>3788.919886560372</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>-527304.8181060895</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>716.0006319736692</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>1004.493576218246</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>1.402922750849172</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>0.9992365543642966</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>306.9215135798382</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>84111.18606277154</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>1.188902507276152e-05</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>59954.25336987378</v>
+      </c>
+      <c r="FH3" t="n">
+        <v>1.667938375999336e-05</v>
+      </c>
+      <c r="FI3" t="n">
+        <v>0.004282461007751204</v>
+      </c>
+      <c r="FJ3" t="n">
+        <v>1.520497864507262e-05</v>
+      </c>
+      <c r="FK3" t="n">
+        <v>0.02129820211861799</v>
+      </c>
+      <c r="FL3" t="n">
+        <v>59999.97848152582</v>
+      </c>
+      <c r="FM3" t="n">
+        <v>0.89289233450886</v>
+      </c>
+      <c r="FN3" t="n">
+        <v>0.89289233450886</v>
+      </c>
+      <c r="FO3" t="n">
+        <v>293150.1478796063</v>
+      </c>
+      <c r="FP3" t="n">
+        <v>360347.4752197823</v>
+      </c>
+      <c r="FQ3" t="n">
+        <v>3788.919886560372</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>716.0006319736692</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>1004.493576218246</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>306.9215135798382</v>
+      </c>
+      <c r="FU3" t="n">
+        <v>0.9992365543642966</v>
+      </c>
+      <c r="FV3" t="n">
+        <v>1.520497864507262e-05</v>
+      </c>
+      <c r="FW3" t="n">
+        <v>0.02129820211861799</v>
+      </c>
+      <c r="FX3" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="FY3" t="b">
+        <v>1</v>
+      </c>
+      <c r="FZ3" t="n">
+        <v>243.8746425921358</v>
+      </c>
+      <c r="GA3" t="n">
+        <v>69028.44858426412</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>0.9867897489195199</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>300006.0987976245</v>
+      </c>
+      <c r="GD3" t="n">
+        <v>369958.6379883147</v>
+      </c>
+      <c r="GE3" t="n">
+        <v>3788.919886566629</v>
+      </c>
+      <c r="GF3" t="n">
+        <v>-554062.8451583574</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>716.1724365116518</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>1004.730309428868</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>1.402916753293006</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>0.9992648418853655</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>313.1543021801305</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>96770.14555133675</v>
+      </c>
+      <c r="GM3" t="n">
+        <v>1.033376558754371e-05</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>68977.82446762601</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>1.449741286736782e-05</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>0.004114250297844691</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>1.57135219824505e-05</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>0.02206795606646316</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>69028.44858426412</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>0.9867897489195199</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>0.9867897489195199</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>300006.0987976245</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>369958.6379883147</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>3788.919886566629</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>716.1724365116518</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>1004.730309428868</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>313.1543021801305</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>0.9992648418853655</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>1.57135219824505e-05</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>0.02206795606646316</v>
+      </c>
+      <c r="HE3" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="HF3" t="b">
+        <v>1</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>267.5608469988076</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>95409.78892209398</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>1.243057550872082</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>316929.2064538845</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>393683.3268525404</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>3788.919886564891</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>-620083.2872073881</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>716.7674741389551</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>1005.488635078767</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>1.402810076289593</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>0.9993621730097836</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>328.0291303259549</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>133756.858808445</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>7.47625212574791e-06</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>95349.22871542913</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>1.048776181488066e-05</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>0.003750723525134547</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>1.693635799613357e-05</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>0.02392923167044715</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>95409.78892209398</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>1.243057550872082</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>1.243057550872082</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>316929.2064538845</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>393683.3268525404</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>3788.919886564891</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>716.7674741389551</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>1005.488635078767</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>328.0291303259549</v>
+      </c>
+      <c r="II3" t="n">
+        <v>0.9993621730097836</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>1.693635799613357e-05</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>0.02392923167044715</v>
+      </c>
+      <c r="IL3" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="IM3" t="b">
+        <v>1</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>0.02671664060365814</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>0.002776408417100954</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>0.01185591895989139</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>0.03233884790251056</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>0.04334591739674505</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>0.1170337332799061</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>-0.1170337332799061</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>0.4517265665984361</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>0.841285577813677</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>395146.7974998704</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>2.80107536401255</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>380020.7528875204</v>
+      </c>
+      <c r="IZ3" t="n">
         <v>0</v>
       </c>
-      <c r="EF3" t="n">
-        <v>0.005692452341612953</v>
-      </c>
-      <c r="EG3" t="n">
-        <v>0.02693962188409724</v>
-      </c>
-      <c r="EH3" t="n">
-        <v>0.002766125128198385</v>
-      </c>
-      <c r="EI3" t="n">
-        <v>0.01174717696701128</v>
-      </c>
-      <c r="EJ3" t="n">
-        <v>0.03296430785326795</v>
-      </c>
-      <c r="EK3" t="n">
-        <v>0.04275610681975486</v>
-      </c>
-      <c r="EL3" t="n">
-        <v>0.1171733386523297</v>
-      </c>
-      <c r="EM3" t="n">
-        <v>2.946490273991742e-12</v>
-      </c>
-      <c r="EN3" t="n">
-        <v>165.3032</v>
-      </c>
-      <c r="EO3" t="n">
-        <v>138.6446015433664</v>
-      </c>
-      <c r="EP3" t="n">
-        <v>124.5676052487311</v>
-      </c>
-      <c r="EQ3" t="n">
-        <v>-60.870660089366</v>
-      </c>
-      <c r="ER3" t="n">
-        <v>-26.04270713368686</v>
-      </c>
-      <c r="ES3" t="n">
-        <v>258.2086428939353</v>
-      </c>
-      <c r="ET3" t="n">
-        <v>124.5676052487311</v>
-      </c>
-      <c r="EU3" t="n">
-        <v>-226.173860089366</v>
-      </c>
-      <c r="EV3" t="n">
-        <v>-61.15576777799674</v>
-      </c>
-      <c r="EW3" t="n">
-        <v>234.2758147201345</v>
-      </c>
-      <c r="EX3" t="n">
-        <v>59999.97848334451</v>
-      </c>
-      <c r="EY3" t="n">
-        <v>0.8928923345284984</v>
-      </c>
-      <c r="EZ3" t="n">
-        <v>293150.147880997</v>
-      </c>
-      <c r="FA3" t="n">
-        <v>360347.4752217319</v>
-      </c>
-      <c r="FB3" t="n">
-        <v>3788.919886560001</v>
-      </c>
-      <c r="FC3" t="n">
-        <v>-527304.818111432</v>
-      </c>
-      <c r="FD3" t="n">
-        <v>716.0006319737008</v>
-      </c>
-      <c r="FE3" t="n">
-        <v>1004.493576218292</v>
-      </c>
-      <c r="FF3" t="n">
-        <v>1.402922750849175</v>
-      </c>
-      <c r="FG3" t="n">
-        <v>0.9992365543643007</v>
-      </c>
-      <c r="FH3" t="n">
-        <v>306.9215135811156</v>
-      </c>
-      <c r="FI3" t="n">
-        <v>84111.18606532163</v>
-      </c>
-      <c r="FJ3" t="n">
-        <v>1.188902507240107e-05</v>
-      </c>
-      <c r="FK3" t="n">
-        <v>59954.25337169132</v>
-      </c>
-      <c r="FL3" t="n">
-        <v>1.667938375948772e-05</v>
-      </c>
-      <c r="FM3" t="n">
-        <v>0.004282461007715696</v>
-      </c>
-      <c r="FN3" t="n">
-        <v>1.520497864517661e-05</v>
-      </c>
-      <c r="FO3" t="n">
-        <v>0.02129820211877514</v>
-      </c>
-      <c r="FP3" t="n">
-        <v>59999.97848334451</v>
-      </c>
-      <c r="FQ3" t="n">
-        <v>0.8928923345284984</v>
-      </c>
-      <c r="FR3" t="n">
-        <v>0.8928923345284984</v>
-      </c>
-      <c r="FS3" t="n">
-        <v>293150.147880997</v>
-      </c>
-      <c r="FT3" t="n">
-        <v>360347.4752217319</v>
-      </c>
-      <c r="FU3" t="n">
-        <v>3788.919886560001</v>
-      </c>
-      <c r="FV3" t="n">
-        <v>716.0006319737008</v>
-      </c>
-      <c r="FW3" t="n">
-        <v>1004.493576218292</v>
-      </c>
-      <c r="FX3" t="n">
-        <v>306.9215135811156</v>
-      </c>
-      <c r="FY3" t="n">
-        <v>0.9992365543643007</v>
-      </c>
-      <c r="FZ3" t="n">
-        <v>1.520497864517661e-05</v>
-      </c>
-      <c r="GA3" t="n">
-        <v>0.02129820211877514</v>
-      </c>
-      <c r="GB3" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="GC3" t="b">
-        <v>1</v>
-      </c>
-      <c r="GD3" t="n">
-        <v>243.8746425940102</v>
-      </c>
-      <c r="GE3" t="n">
-        <v>69028.44858620506</v>
-      </c>
-      <c r="GF3" t="n">
-        <v>0.986789748939677</v>
-      </c>
-      <c r="GG3" t="n">
-        <v>300006.0987989631</v>
-      </c>
-      <c r="GH3" t="n">
-        <v>369958.6379901913</v>
-      </c>
-      <c r="GI3" t="n">
-        <v>3788.919886566258</v>
-      </c>
-      <c r="GJ3" t="n">
-        <v>-554062.8451634924</v>
-      </c>
-      <c r="GK3" t="n">
-        <v>716.1724365116893</v>
-      </c>
-      <c r="GL3" t="n">
-        <v>1004.73030942892</v>
-      </c>
-      <c r="GM3" t="n">
-        <v>1.402916753293005</v>
-      </c>
-      <c r="GN3" t="n">
-        <v>0.9992648418853707</v>
-      </c>
-      <c r="GO3" t="n">
-        <v>313.1543021813355</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>96770.14555405818</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>1.03337655872531e-05</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>68977.82446956588</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>1.44974128669601e-05</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>0.004114250297813152</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>1.571352198254906e-05</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>0.02206795606661261</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>69028.44858620506</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>0.986789748939677</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>0.986789748939677</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>300006.0987989631</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>369958.6379901913</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>3788.919886566258</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>716.1724365116893</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>1004.73030942892</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>313.1543021813355</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>0.9992648418853707</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>1.571352198254906e-05</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>0.02206795606661261</v>
-      </c>
-      <c r="HI3" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="HJ3" t="b">
-        <v>1</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>267.5608470003602</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>95409.78892415046</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>1.243057550891653</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>316929.2064549936</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>393683.3268540953</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>3788.91988656452</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>-620083.2872116163</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>716.7674741390033</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>1005.488635078828</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>1.402810076289584</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>0.9993621730097905</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>328.0291303269079</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>133756.8588113281</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>7.476252125586762e-06</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>95349.22871748492</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>1.048776181465453e-05</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>0.003750723525112841</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>1.693635799621231e-05</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>0.0239292316705675</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>95409.78892415046</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>1.243057550891653</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>1.243057550891653</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>316929.2064549936</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>393683.3268540953</v>
-      </c>
-      <c r="II3" t="n">
-        <v>3788.91988656452</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>716.7674741390033</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>1005.488635078828</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>328.0291303269079</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>0.9993621730097905</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>1.693635799621231e-05</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>0.0239292316705675</v>
-      </c>
-      <c r="IP3" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="IQ3" t="b">
-        <v>1</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>0.02671664060160873</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>0.002776408415011858</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>0.01185591896001971</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>0.03233884790137494</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>0.0433459173949095</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>0.1170337332729248</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>-0.1170337332729248</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>0.4517265665924859</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>0.8412855778051999</v>
-      </c>
       <c r="JA3" t="n">
-        <v>395146.7975035217</v>
+        <v>360347.4752192709</v>
       </c>
       <c r="JB3" t="n">
-        <v>2.80107536405759</v>
+        <v>2843.394124524377</v>
       </c>
       <c r="JC3" t="n">
-        <v>380020.7528890758</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>2843.394126573927</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>7.38001800331385</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>0.009607516403337131</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>0.0009864872141556256</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>0.01175610889371396</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>0.0152481723530098</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>0.004189412750076058</v>
+        <v>7.380018006023427</v>
       </c>
     </row>
   </sheetData>
@@ -9244,7 +9193,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3827762379580084</v>
+        <v>0.3827762378997722</v>
       </c>
     </row>
     <row r="3">
@@ -9252,7 +9201,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3927727308246772</v>
+        <v>0.3927727308011493</v>
       </c>
     </row>
   </sheetData>
@@ -10352,13 +10301,13 @@
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>2.440448117039274e-11</v>
+        <v>1.695580910147723e-10</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -10389,7 +10338,7 @@
         <v>28</v>
       </c>
       <c r="H3" t="n">
-        <v>2.162688248957933e-11</v>
+        <v>2.294811073860591e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
